--- a/ExcelSheet/Book1.xlsx
+++ b/ExcelSheet/Book1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4eb42d5b6ce26d/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{61E82B74-827F-4C8D-9E56-3DF434851CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{756F631A-B92A-4214-8A35-F052C71A7A31}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="8_{61E82B74-827F-4C8D-9E56-3DF434851CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8277D9-434F-4792-9254-4D287874E7E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6670257-1038-4483-9760-BC4C18B28E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BY$130:$CD$351</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="185">
   <si>
     <t>sun</t>
   </si>
@@ -412,20 +415,199 @@
   </si>
   <si>
     <t>vlookup function with drop down list</t>
+  </si>
+  <si>
+    <t>emp id</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>domain name</t>
+  </si>
+  <si>
+    <t>doj</t>
+  </si>
+  <si>
+    <t>account number</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>rajput</t>
+  </si>
+  <si>
+    <t>gupta</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>yahoo.com</t>
+  </si>
+  <si>
+    <t>Employee details</t>
+  </si>
+  <si>
+    <t>new first name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>patna</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>small to capital</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>starting 3 digits</t>
+  </si>
+  <si>
+    <t>len email</t>
+  </si>
+  <si>
+    <t>year of join</t>
+  </si>
+  <si>
+    <t>gap between doj of two employee</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Australia Total</t>
+  </si>
+  <si>
+    <t>Canada Total</t>
+  </si>
+  <si>
+    <t>France Total</t>
+  </si>
+  <si>
+    <t>Germany Total</t>
+  </si>
+  <si>
+    <t>New Zealand Total</t>
+  </si>
+  <si>
+    <t>United Kingdom Total</t>
+  </si>
+  <si>
+    <t>United States Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="173" formatCode="dddd\,mmmm"/>
-    <numFmt numFmtId="174" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="dddd\,mmmm"/>
+    <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="dddd"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,16 +627,58 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,36 +686,383 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1" xr:uid="{9056C32D-358A-4FCD-B85C-0DC773582A8F}"/>
+    <cellStyle name="Style 2" xfId="2" xr:uid="{9AAE9ED7-EE73-48CC-AB1E-5DD7BA0806C6}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="dddd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     </dxf>
@@ -536,7 +1107,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{815FA8C8-20BF-4064-8A12-C94D605D596E}" name="Table2" displayName="Table2" ref="G3:H17" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3E20CDF6-9F7E-4F94-8484-7BB5606305D5}" name="date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3E20CDF6-9F7E-4F94-8484-7BB5606305D5}" name="date" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{21E30A9A-9E4C-4254-A51C-1DD6BA7AFD11}" name="day"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -547,7 +1118,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EF06C6B-14D6-456A-9252-E113AA0F3485}" name="Table3" displayName="Table3" ref="K3:L19" totalsRowShown="0">
   <autoFilter ref="K3:L19" xr:uid="{8EF06C6B-14D6-456A-9252-E113AA0F3485}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{692CEF75-2CF1-4BDC-A215-EBB0160FE2DA}" name="date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{692CEF75-2CF1-4BDC-A215-EBB0160FE2DA}" name="date" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{4393BE6A-5EFD-450D-93C5-41192AA0E839}" name="total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -559,13 +1130,55 @@
   <autoFilter ref="O3:V30" xr:uid="{76B54F9D-A48A-4DF4-B4EF-F3CC5A5D512E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7FD7BE01-119E-4862-9F25-45D1BAE74466}" name="month"/>
-    <tableColumn id="2" xr3:uid="{EDB4BF3B-2768-4C08-8956-996AD47747AC}" name="pmt" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9FF179D7-35E3-4CF2-903A-9BD0AE7AC89F}" name="impt" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EDB4BF3B-2768-4C08-8956-996AD47747AC}" name="pmt" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9FF179D7-35E3-4CF2-903A-9BD0AE7AC89F}" name="impt" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{981D270F-B0C7-4E59-B7C1-E501B4A3EC42}" name="ppmt"/>
     <tableColumn id="5" xr3:uid="{881CA938-7FC1-435F-86FA-575E98222F2E}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{0B2BCBF9-F69F-48AB-94DB-1FF18E0F74BE}" name="Column2"/>
     <tableColumn id="7" xr3:uid="{9DDB7481-5F92-4666-885B-6AD008573D45}" name="Column3"/>
     <tableColumn id="8" xr3:uid="{8F38DFE5-B616-43F4-A9FC-9D52AC5F54AF}" name="balance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F9CC4D7-3946-4479-9BE7-12ABAF2F0964}" name="Table5" displayName="Table5" ref="AV90:BL101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="19">
+  <autoFilter ref="AV90:BL101" xr:uid="{8F9CC4D7-3946-4479-9BE7-12ABAF2F0964}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{52ACACBB-EE51-4703-B677-50861446245A}" name="emp id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1E61B455-E57E-46E9-BEBC-A7D185A6FEFC}" name="first name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F6A22DE1-4798-43F8-8110-21E79575DAB2}" name="last name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{A2B5F080-C86A-4891-A278-6C4711058E86}" name="username" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{F3723D56-80C1-484C-B83A-B35267928B56}" name="domain name" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5E8B9E58-F7F9-42AB-995A-017F480CA7FB}" name="doj" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{232BCFCE-B87B-421C-B7B0-DE1F27F1790C}" name="account number" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{20C79ED4-0157-4590-ACA0-95F5957AD359}" name="new first name" dataDxfId="11">
+      <calculatedColumnFormula>LOWER(AW91)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B3864DEE-6BC9-4348-8FF6-AAE46E93AC56}" name="city" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{EA204FD3-6E41-427A-994C-4492EEBA9C74}" name="small to capital" dataDxfId="9">
+      <calculatedColumnFormula>UPPER(BD91)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{1685A8EE-8EDE-4AB1-824B-406A7F90C257}" name="email" dataDxfId="8">
+      <calculatedColumnFormula>_xlfn.CONCAT(AY91,"@",AZ91)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B14B26B1-76D0-4E64-9C43-602EE0AF72D5}" name="starting 3 digits" dataDxfId="7">
+      <calculatedColumnFormula>MID(BB91,4,7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00247960-0799-46FB-B648-35E185196D6B}" name="len email" dataDxfId="6">
+      <calculatedColumnFormula>LEN(BF91)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{0F520E2E-0ECD-494A-8878-5954E72A8FA1}" name="year of join" dataDxfId="5">
+      <calculatedColumnFormula>YEAR(BA91)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{54F40FB3-1806-4AA8-9DFE-38730D9A2ED6}" name="date" dataDxfId="4">
+      <calculatedColumnFormula>DAY(BA91)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{168D51EF-FF33-4807-B724-1BADCDCA4DE4}" name="gap between doj of two employee" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{006950FB-7E9F-4C64-99DF-620E8E60804C}" name="weekday" dataDxfId="2">
+      <calculatedColumnFormula>WEEKDAY(BA91)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,13 +1481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E2E933-79A5-4E9B-947F-EEA4A711ECAA}">
-  <dimension ref="A1:BB82"/>
+  <dimension ref="A1:CD351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV55" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC69" sqref="BC69"/>
+    <sheetView tabSelected="1" topLeftCell="BL149" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BV151" sqref="BV151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
@@ -898,10 +1511,29 @@
     <col min="42" max="42" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="50" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -1942,44 +2574,44 @@
       </c>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="Z53" s="4" t="s">
+      <c r="Z53" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AE53" s="4" t="s">
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AE53" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AM53" s="4" t="s">
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AM53" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Z54" t="s">
@@ -2068,9 +2700,9 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="AM55" s="10">
+      <c r="AM55" s="7">
         <f ca="1">NOW()</f>
-        <v>45329.067631712962</v>
+        <v>45329.475571064817</v>
       </c>
       <c r="AN55" t="s">
         <v>87</v>
@@ -2098,7 +2730,7 @@
       <c r="J56">
         <v>9153247</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="5">
         <v>0.5</v>
       </c>
       <c r="Z56" t="s">
@@ -2107,7 +2739,7 @@
       <c r="AA56">
         <v>80</v>
       </c>
-      <c r="AB56" s="9">
+      <c r="AB56" s="6">
         <f>AA56/$AA$55</f>
         <v>0.8</v>
       </c>
@@ -2164,7 +2796,7 @@
       <c r="J57">
         <v>9491659</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="Z57" t="s">
@@ -2173,7 +2805,7 @@
       <c r="AA57">
         <v>99</v>
       </c>
-      <c r="AB57" s="9">
+      <c r="AB57" s="6">
         <f t="shared" ref="AB57:AB61" si="6">AA57/$AA$55</f>
         <v>0.99</v>
       </c>
@@ -2213,12 +2845,12 @@
       <c r="AU57" t="s">
         <v>105</v>
       </c>
-      <c r="AX57" s="4" t="s">
+      <c r="AX57" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AY57" s="4"/>
-      <c r="AZ57" s="4"/>
-      <c r="BA57" s="4"/>
+      <c r="AY57" s="11"/>
+      <c r="AZ57" s="11"/>
+      <c r="BA57" s="11"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D58">
@@ -2242,7 +2874,7 @@
       <c r="J58">
         <v>9830071</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="5">
         <v>0.45555555555555555</v>
       </c>
       <c r="Z58" t="s">
@@ -2251,7 +2883,7 @@
       <c r="AA58">
         <v>56</v>
       </c>
-      <c r="AB58" s="9">
+      <c r="AB58" s="6">
         <f t="shared" si="6"/>
         <v>0.56000000000000005</v>
       </c>
@@ -2288,7 +2920,7 @@
       <c r="AT58" s="1">
         <v>45329</v>
       </c>
-      <c r="AU58" s="11">
+      <c r="AU58" s="8">
         <f>AT58</f>
         <v>45329</v>
       </c>
@@ -2327,7 +2959,7 @@
       <c r="J59">
         <v>10168483</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="5">
         <v>0.5</v>
       </c>
       <c r="Z59" t="s">
@@ -2336,7 +2968,7 @@
       <c r="AA59">
         <v>58</v>
       </c>
-      <c r="AB59" s="9">
+      <c r="AB59" s="6">
         <f t="shared" si="6"/>
         <v>0.57999999999999996</v>
       </c>
@@ -2373,7 +3005,7 @@
       <c r="AT59" s="1">
         <v>45330</v>
       </c>
-      <c r="AU59" s="11">
+      <c r="AU59" s="8">
         <f t="shared" ref="AU59:AU65" si="7">AT59</f>
         <v>45330</v>
       </c>
@@ -2386,15 +3018,15 @@
       <c r="AZ59">
         <v>10</v>
       </c>
-      <c r="BA59" s="13">
+      <c r="BA59" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="13"/>
       <c r="D60">
         <v>5</v>
       </c>
@@ -2416,7 +3048,7 @@
       <c r="J60">
         <v>10506895</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="Z60" t="s">
@@ -2425,14 +3057,14 @@
       <c r="AA60">
         <v>26</v>
       </c>
-      <c r="AB60" s="9">
+      <c r="AB60" s="6">
         <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
       <c r="AT60" s="1">
         <v>45331</v>
       </c>
-      <c r="AU60" s="11">
+      <c r="AU60" s="8">
         <f t="shared" si="7"/>
         <v>45331</v>
       </c>
@@ -2445,13 +3077,13 @@
       <c r="AZ60">
         <v>20</v>
       </c>
-      <c r="BA60" s="13">
+      <c r="BA60" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
       <c r="D61">
         <v>6</v>
       </c>
@@ -2473,7 +3105,7 @@
       <c r="J61">
         <v>10845307</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="5">
         <v>0.45555555555555555</v>
       </c>
       <c r="Z61" t="s">
@@ -2482,7 +3114,7 @@
       <c r="AA61">
         <v>45</v>
       </c>
-      <c r="AB61" s="9">
+      <c r="AB61" s="6">
         <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
@@ -2492,7 +3124,7 @@
       <c r="AT61" s="1">
         <v>45332</v>
       </c>
-      <c r="AU61" s="11">
+      <c r="AU61" s="8">
         <f t="shared" si="7"/>
         <v>45332</v>
       </c>
@@ -2505,13 +3137,13 @@
       <c r="AZ61">
         <v>30</v>
       </c>
-      <c r="BA61" s="13">
+      <c r="BA61" s="10">
         <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
       <c r="D62">
         <v>7</v>
       </c>
@@ -2533,7 +3165,7 @@
       <c r="J62">
         <v>11183719</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="5">
         <v>0.5</v>
       </c>
       <c r="AM62" t="s">
@@ -2549,7 +3181,7 @@
       <c r="AT62" s="1">
         <v>45333</v>
       </c>
-      <c r="AU62" s="11">
+      <c r="AU62" s="8">
         <f t="shared" si="7"/>
         <v>45333</v>
       </c>
@@ -2562,13 +3194,13 @@
       <c r="AZ62">
         <v>40</v>
       </c>
-      <c r="BA62" s="13">
+      <c r="BA62" s="10">
         <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
       <c r="D63">
         <v>8</v>
       </c>
@@ -2590,7 +3222,7 @@
       <c r="J63">
         <v>11522131</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="AM63" t="s">
@@ -2606,7 +3238,7 @@
       <c r="AT63" s="1">
         <v>45334</v>
       </c>
-      <c r="AU63" s="11">
+      <c r="AU63" s="8">
         <f t="shared" si="7"/>
         <v>45334</v>
       </c>
@@ -2619,13 +3251,13 @@
       <c r="AZ63">
         <v>50</v>
       </c>
-      <c r="BA63" s="13">
+      <c r="BA63" s="10">
         <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
       <c r="D64">
         <v>9</v>
       </c>
@@ -2647,13 +3279,13 @@
       <c r="J64">
         <v>11860543</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="5">
         <v>0.45555555555555555</v>
       </c>
       <c r="AT64" s="1">
         <v>45335</v>
       </c>
-      <c r="AU64" s="11">
+      <c r="AU64" s="8">
         <f t="shared" si="7"/>
         <v>45335</v>
       </c>
@@ -2666,13 +3298,13 @@
       <c r="AZ64">
         <v>60</v>
       </c>
-      <c r="BA64" s="13">
+      <c r="BA64" s="10">
         <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
       <c r="D65">
         <v>10</v>
       </c>
@@ -2694,7 +3326,7 @@
       <c r="J65">
         <v>12198955</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="5">
         <v>0.5</v>
       </c>
       <c r="AM65" t="s">
@@ -2703,7 +3335,7 @@
       <c r="AT65" s="1">
         <v>45336</v>
       </c>
-      <c r="AU65" s="11">
+      <c r="AU65" s="8">
         <f t="shared" si="7"/>
         <v>45336</v>
       </c>
@@ -2730,7 +3362,7 @@
       <c r="J66">
         <v>12537367</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="AM66" t="s">
@@ -2766,7 +3398,7 @@
       <c r="J67">
         <v>12875779</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="5">
         <v>0.45555555555555555</v>
       </c>
       <c r="AM67" t="s">
@@ -2779,13 +3411,13 @@
       <c r="AO67">
         <v>-7</v>
       </c>
-      <c r="AX67" s="4" t="s">
+      <c r="AX67" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AY67" s="4"/>
-      <c r="AZ67" s="4"/>
-      <c r="BA67" s="4"/>
-      <c r="BB67" s="4"/>
+      <c r="AY67" s="11"/>
+      <c r="AZ67" s="11"/>
+      <c r="BA67" s="11"/>
+      <c r="BB67" s="11"/>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.3">
       <c r="D68">
@@ -2809,7 +3441,7 @@
       <c r="J68">
         <v>13214191</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="5">
         <v>0.5</v>
       </c>
       <c r="AT68" t="s">
@@ -2853,7 +3485,7 @@
       <c r="J69">
         <v>13552603</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="AM69" t="s">
@@ -2903,7 +3535,7 @@
       <c r="J70">
         <v>13891015</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="5">
         <v>0.45555555555555555</v>
       </c>
       <c r="AM70" t="s">
@@ -2916,7 +3548,7 @@
       <c r="AO70">
         <v>7</v>
       </c>
-      <c r="AU70" s="12"/>
+      <c r="AU70" s="9"/>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.3">
       <c r="D71">
@@ -2940,7 +3572,7 @@
       <c r="J71">
         <v>14229427</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="5">
         <v>0.5</v>
       </c>
       <c r="AM71" t="s">
@@ -2983,7 +3615,7 @@
       <c r="J72">
         <v>14567839</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="AT72" t="s">
@@ -3016,7 +3648,7 @@
       <c r="J73">
         <v>14906251</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="5">
         <v>0.45555555555555555</v>
       </c>
       <c r="AM73" t="s">
@@ -3052,7 +3684,7 @@
       <c r="J74">
         <v>15244663</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="5">
         <v>0.5</v>
       </c>
       <c r="AM74" t="s">
@@ -3084,7 +3716,7 @@
       <c r="J75">
         <v>15583075</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="AM75" t="s">
@@ -3123,7 +3755,7 @@
       <c r="J76">
         <v>15921487</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76" s="5">
         <v>0.45555555555555555</v>
       </c>
       <c r="AM76" t="s">
@@ -3169,7 +3801,7 @@
       <c r="J77">
         <v>16259899</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="5">
         <v>0.5</v>
       </c>
       <c r="AM77" t="s">
@@ -3215,7 +3847,7 @@
       <c r="J78">
         <v>16598311</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78" s="5">
         <v>0.49652777777777773</v>
       </c>
       <c r="AM78" t="s">
@@ -3248,7 +3880,7 @@
       <c r="J79">
         <v>16936723</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79" s="5">
         <v>0.45555555555555555</v>
       </c>
     </row>
@@ -3274,18 +3906,5158 @@
       <c r="J80">
         <v>17275135</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K80" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K82" s="6"/>
+    <row r="81" spans="11:64" x14ac:dyDescent="0.3">
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="11:64" x14ac:dyDescent="0.3">
+      <c r="K82" s="4"/>
+    </row>
+    <row r="88" spans="11:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV88" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW88" s="15"/>
+      <c r="AX88" s="15"/>
+      <c r="AY88" s="15"/>
+      <c r="AZ88" s="15"/>
+      <c r="BA88" s="15"/>
+      <c r="BB88" s="15"/>
+      <c r="BC88" s="15"/>
+      <c r="BD88" s="15"/>
+      <c r="BE88" s="15"/>
+      <c r="BF88" s="15"/>
+      <c r="BG88" s="15"/>
+      <c r="BH88" s="15"/>
+      <c r="BI88" s="15"/>
+      <c r="BJ88" s="15"/>
+      <c r="BK88" s="15"/>
+      <c r="BL88" s="15"/>
+    </row>
+    <row r="89" spans="11:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV89" s="16"/>
+      <c r="AW89" s="16"/>
+      <c r="AX89" s="16"/>
+      <c r="AY89" s="16"/>
+      <c r="AZ89" s="16"/>
+      <c r="BA89" s="16"/>
+      <c r="BB89" s="16"/>
+      <c r="BC89" s="16"/>
+      <c r="BD89" s="16"/>
+      <c r="BE89" s="16"/>
+      <c r="BF89" s="16"/>
+      <c r="BG89" s="16"/>
+      <c r="BH89" s="16"/>
+      <c r="BI89" s="16"/>
+      <c r="BJ89" s="16"/>
+      <c r="BK89" s="16"/>
+      <c r="BL89" s="16"/>
+    </row>
+    <row r="90" spans="11:64" ht="21" x14ac:dyDescent="0.4">
+      <c r="AV90" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW90" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX90" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY90" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ90" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA90" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB90" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC90" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD90" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE90" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF90" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG90" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH90" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI90" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ90" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK90" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL90" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV91" s="18">
+        <v>21000</v>
+      </c>
+      <c r="AW91" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX91" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY91" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ91" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA91" s="19">
+        <v>43391</v>
+      </c>
+      <c r="BB91" s="18">
+        <v>1234484456</v>
+      </c>
+      <c r="BC91" s="20" t="str">
+        <f>LOWER(AW91)</f>
+        <v>ram</v>
+      </c>
+      <c r="BD91" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE91" s="20" t="str">
+        <f>UPPER(BD91)</f>
+        <v>PATNA</v>
+      </c>
+      <c r="BF91" s="20" t="str">
+        <f>_xlfn.CONCAT(AY91,"@",AZ91)</f>
+        <v>kumar@gmail.com</v>
+      </c>
+      <c r="BG91" s="20" t="str">
+        <f>MID(BB91,1,3)</f>
+        <v>123</v>
+      </c>
+      <c r="BH91" s="20">
+        <f>LEN(BF91)</f>
+        <v>15</v>
+      </c>
+      <c r="BI91" s="20">
+        <f>YEAR(BA91)</f>
+        <v>2018</v>
+      </c>
+      <c r="BJ91" s="21">
+        <f>DAY(BA91)</f>
+        <v>18</v>
+      </c>
+      <c r="BK91" s="20">
+        <f>DATEDIF(BA91,BA92,"md")</f>
+        <v>0</v>
+      </c>
+      <c r="BL91" s="22">
+        <f>WEEKDAY(BA91)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV92" s="18">
+        <v>21001</v>
+      </c>
+      <c r="AW92" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX92" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY92" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ92" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA92" s="19">
+        <v>43422</v>
+      </c>
+      <c r="BB92" s="18">
+        <v>1234484489</v>
+      </c>
+      <c r="BC92" s="20" t="str">
+        <f t="shared" ref="BC92:BC101" si="8">LOWER(AW92)</f>
+        <v>mohan</v>
+      </c>
+      <c r="BD92" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE92" s="20" t="str">
+        <f t="shared" ref="BE92:BE101" si="9">UPPER(BD92)</f>
+        <v>DELHI</v>
+      </c>
+      <c r="BF92" s="20" t="str">
+        <f t="shared" ref="BF92:BF101" si="10">_xlfn.CONCAT(AY92,"@",AZ92)</f>
+        <v>gupta@yahoo.com</v>
+      </c>
+      <c r="BG92" s="20" t="str">
+        <f t="shared" ref="BG92:BG94" si="11">MID(BB92,1,3)</f>
+        <v>123</v>
+      </c>
+      <c r="BH92" s="20">
+        <f t="shared" ref="BH92:BH102" si="12">LEN(BF92)</f>
+        <v>15</v>
+      </c>
+      <c r="BI92" s="20">
+        <f t="shared" ref="BI92:BI101" si="13">YEAR(BA92)</f>
+        <v>2018</v>
+      </c>
+      <c r="BJ92" s="21">
+        <f t="shared" ref="BJ92:BJ101" si="14">DAY(BA92)</f>
+        <v>18</v>
+      </c>
+      <c r="BK92" s="20">
+        <f t="shared" ref="BK92:BK100" si="15">DATEDIF(BA92,BA93,"md")</f>
+        <v>0</v>
+      </c>
+      <c r="BL92" s="22">
+        <f t="shared" ref="BL92:BL101" si="16">WEEKDAY(BA92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV93" s="18">
+        <v>21002</v>
+      </c>
+      <c r="AW93" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX93" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY93" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ93" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA93" s="19">
+        <v>43452</v>
+      </c>
+      <c r="BB93" s="18">
+        <v>1234484522</v>
+      </c>
+      <c r="BC93" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>krishna</v>
+      </c>
+      <c r="BD93" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE93" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>MUMBAI</v>
+      </c>
+      <c r="BF93" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>raj@gmail.com</v>
+      </c>
+      <c r="BG93" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="BH93" s="20">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="BI93" s="20">
+        <f t="shared" si="13"/>
+        <v>2018</v>
+      </c>
+      <c r="BJ93" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK93" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL93" s="22">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV94" s="18">
+        <v>21003</v>
+      </c>
+      <c r="AW94" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX94" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY94" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ94" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA94" s="19">
+        <v>43483</v>
+      </c>
+      <c r="BB94" s="18">
+        <v>1234484555</v>
+      </c>
+      <c r="BC94" s="20" t="str">
+        <f>LOWER(AW94)</f>
+        <v>rahul</v>
+      </c>
+      <c r="BD94" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE94" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>KOLKATA</v>
+      </c>
+      <c r="BF94" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>kumar@yahoo.com</v>
+      </c>
+      <c r="BG94" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="BH94" s="20">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="BI94" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ94" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK94" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL94" s="22">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV95" s="18">
+        <v>21004</v>
+      </c>
+      <c r="AW95" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX95" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY95" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ95" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA95" s="19">
+        <v>43514</v>
+      </c>
+      <c r="BB95" s="18">
+        <v>1234484588</v>
+      </c>
+      <c r="BC95" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>madison blake</v>
+      </c>
+      <c r="BD95" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE95" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>PATNA</v>
+      </c>
+      <c r="BF95" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>gupta@gmail.com</v>
+      </c>
+      <c r="BG95" s="20" t="str">
+        <f t="shared" ref="BG95:BG101" si="17">MID(BB95,4,7)</f>
+        <v>4484588</v>
+      </c>
+      <c r="BH95" s="20">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="BI95" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ95" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK95" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL95" s="22">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV96" s="18">
+        <v>21005</v>
+      </c>
+      <c r="AW96" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX96" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY96" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ96" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA96" s="19">
+        <v>43542</v>
+      </c>
+      <c r="BB96" s="18">
+        <v>1234484621</v>
+      </c>
+      <c r="BC96" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>xavier nguyen</v>
+      </c>
+      <c r="BD96" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE96" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>DELHI</v>
+      </c>
+      <c r="BF96" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>raj@yahoo.com</v>
+      </c>
+      <c r="BG96" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v>4484621</v>
+      </c>
+      <c r="BH96" s="20">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="BI96" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ96" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK96" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL96" s="22">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV97" s="18">
+        <v>21006</v>
+      </c>
+      <c r="AW97" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX97" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY97" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ97" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA97" s="19">
+        <v>43573</v>
+      </c>
+      <c r="BB97" s="18">
+        <v>1234484654</v>
+      </c>
+      <c r="BC97" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>ava patel</v>
+      </c>
+      <c r="BD97" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE97" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>MUMBAI</v>
+      </c>
+      <c r="BF97" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>kumar@gmail.com</v>
+      </c>
+      <c r="BG97" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v>4484654</v>
+      </c>
+      <c r="BH97" s="20">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="BI97" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ97" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK97" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL97" s="22">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AT98" s="14"/>
+      <c r="AV98" s="18">
+        <v>21007</v>
+      </c>
+      <c r="AW98" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX98" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY98" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ98" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA98" s="19">
+        <v>43603</v>
+      </c>
+      <c r="BB98" s="18">
+        <v>1234484687</v>
+      </c>
+      <c r="BC98" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>dylan murphy</v>
+      </c>
+      <c r="BD98" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE98" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>KOLKATA</v>
+      </c>
+      <c r="BF98" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>gupta@yahoo.com</v>
+      </c>
+      <c r="BG98" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v>4484687</v>
+      </c>
+      <c r="BH98" s="20">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="BI98" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ98" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK98" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL98" s="22">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV99" s="18">
+        <v>21008</v>
+      </c>
+      <c r="AW99" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX99" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY99" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ99" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA99" s="19">
+        <v>43634</v>
+      </c>
+      <c r="BB99" s="18">
+        <v>1234484720</v>
+      </c>
+      <c r="BC99" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>sofia kim</v>
+      </c>
+      <c r="BD99" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE99" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>PATNA</v>
+      </c>
+      <c r="BF99" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>raj@gmail.com</v>
+      </c>
+      <c r="BG99" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v>4484720</v>
+      </c>
+      <c r="BH99" s="20">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="BI99" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ99" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK99" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL99" s="22">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV100" s="18">
+        <v>21009</v>
+      </c>
+      <c r="AW100" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX100" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY100" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ100" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA100" s="19">
+        <v>43664</v>
+      </c>
+      <c r="BB100" s="18">
+        <v>1234484753</v>
+      </c>
+      <c r="BC100" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>ethan santos</v>
+      </c>
+      <c r="BD100" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE100" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>DELHI</v>
+      </c>
+      <c r="BF100" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>kumar@yahoo.com</v>
+      </c>
+      <c r="BG100" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v>4484753</v>
+      </c>
+      <c r="BH100" s="20">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="BI100" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ100" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK100" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BL100" s="22">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV101" s="18">
+        <v>21010</v>
+      </c>
+      <c r="AW101" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX101" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY101" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ101" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA101" s="19">
+        <v>43695</v>
+      </c>
+      <c r="BB101" s="18">
+        <v>1234484786</v>
+      </c>
+      <c r="BC101" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>shyam</v>
+      </c>
+      <c r="BD101" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE101" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>MUMBAI</v>
+      </c>
+      <c r="BF101" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>gupta@gmail.com</v>
+      </c>
+      <c r="BG101" s="20" t="str">
+        <f t="shared" si="17"/>
+        <v>4484786</v>
+      </c>
+      <c r="BH101" s="20">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="BI101" s="20">
+        <f t="shared" si="13"/>
+        <v>2019</v>
+      </c>
+      <c r="BJ101" s="21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK101" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL101" s="22">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="77:82" x14ac:dyDescent="0.3">
+      <c r="BY130" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ130" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA130" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB130" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC130" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD130" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY131" s="23">
+        <v>7</v>
+      </c>
+      <c r="BZ131" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA131" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB131" s="25">
+        <v>9062</v>
+      </c>
+      <c r="CC131" s="26">
+        <v>42380</v>
+      </c>
+      <c r="CD131" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY132" s="23">
+        <v>26</v>
+      </c>
+      <c r="BZ132" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA132" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB132" s="25">
+        <v>5154</v>
+      </c>
+      <c r="CC132" s="26">
+        <v>42417</v>
+      </c>
+      <c r="CD132" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY133" s="23">
+        <v>32</v>
+      </c>
+      <c r="BZ133" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA133" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB133" s="25">
+        <v>8892</v>
+      </c>
+      <c r="CC133" s="26">
+        <v>42423</v>
+      </c>
+      <c r="CD133" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY134" s="23">
+        <v>36</v>
+      </c>
+      <c r="BZ134" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA134" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB134" s="25">
+        <v>5718</v>
+      </c>
+      <c r="CC134" s="26">
+        <v>42433</v>
+      </c>
+      <c r="CD134" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY135" s="23">
+        <v>44</v>
+      </c>
+      <c r="BZ135" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA135" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB135" s="25">
+        <v>9400</v>
+      </c>
+      <c r="CC135" s="26">
+        <v>42448</v>
+      </c>
+      <c r="CD135" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY136" s="23">
+        <v>49</v>
+      </c>
+      <c r="BZ136" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA136" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB136" s="25">
+        <v>4029</v>
+      </c>
+      <c r="CC136" s="26">
+        <v>42455</v>
+      </c>
+      <c r="CD136" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY137" s="23">
+        <v>52</v>
+      </c>
+      <c r="BZ137" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA137" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB137" s="25">
+        <v>3663</v>
+      </c>
+      <c r="CC137" s="26">
+        <v>42459</v>
+      </c>
+      <c r="CD137" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY138" s="23">
+        <v>60</v>
+      </c>
+      <c r="BZ138" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA138" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB138" s="25">
+        <v>1113</v>
+      </c>
+      <c r="CC138" s="26">
+        <v>42478</v>
+      </c>
+      <c r="CD138" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY139" s="23">
+        <v>84</v>
+      </c>
+      <c r="BZ139" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA139" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB139" s="25">
+        <v>4248</v>
+      </c>
+      <c r="CC139" s="26">
+        <v>42505</v>
+      </c>
+      <c r="CD139" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY140" s="23">
+        <v>89</v>
+      </c>
+      <c r="BZ140" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA140" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB140" s="25">
+        <v>4264</v>
+      </c>
+      <c r="CC140" s="26">
+        <v>42509</v>
+      </c>
+      <c r="CD140" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY141" s="23">
+        <v>95</v>
+      </c>
+      <c r="BZ141" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA141" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB141" s="25">
+        <v>1002</v>
+      </c>
+      <c r="CC141" s="26">
+        <v>42515</v>
+      </c>
+      <c r="CD141" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY142" s="23">
+        <v>98</v>
+      </c>
+      <c r="BZ142" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA142" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB142" s="25">
+        <v>1380</v>
+      </c>
+      <c r="CC142" s="26">
+        <v>42516</v>
+      </c>
+      <c r="CD142" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY143" s="23">
+        <v>113</v>
+      </c>
+      <c r="BZ143" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA143" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB143" s="25">
+        <v>8891</v>
+      </c>
+      <c r="CC143" s="26">
+        <v>42544</v>
+      </c>
+      <c r="CD143" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY144" s="23">
+        <v>132</v>
+      </c>
+      <c r="BZ144" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA144" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB144" s="25">
+        <v>7966</v>
+      </c>
+      <c r="CC144" s="26">
+        <v>42581</v>
+      </c>
+      <c r="CD144" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY145" s="23">
+        <v>134</v>
+      </c>
+      <c r="BZ145" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA145" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB145" s="25">
+        <v>8416</v>
+      </c>
+      <c r="CC145" s="26">
+        <v>42582</v>
+      </c>
+      <c r="CD145" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY146" s="23">
+        <v>151</v>
+      </c>
+      <c r="BZ146" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA146" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB146" s="25">
+        <v>424</v>
+      </c>
+      <c r="CC146" s="26">
+        <v>42618</v>
+      </c>
+      <c r="CD146" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY147" s="23">
+        <v>162</v>
+      </c>
+      <c r="BZ147" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA147" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB147" s="25">
+        <v>5523</v>
+      </c>
+      <c r="CC147" s="26">
+        <v>42638</v>
+      </c>
+      <c r="CD147" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY148" s="23">
+        <v>165</v>
+      </c>
+      <c r="BZ148" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA148" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB148" s="25">
+        <v>6187</v>
+      </c>
+      <c r="CC148" s="26">
+        <v>42640</v>
+      </c>
+      <c r="CD148" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY149" s="23">
+        <v>168</v>
+      </c>
+      <c r="BZ149" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA149" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB149" s="25">
+        <v>793</v>
+      </c>
+      <c r="CC149" s="26">
+        <v>42646</v>
+      </c>
+      <c r="CD149" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY150" s="23">
+        <v>175</v>
+      </c>
+      <c r="BZ150" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA150" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB150" s="25">
+        <v>7273</v>
+      </c>
+      <c r="CC150" s="26">
+        <v>42668</v>
+      </c>
+      <c r="CD150" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY151" s="23">
+        <v>177</v>
+      </c>
+      <c r="BZ151" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA151" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB151" s="25">
+        <v>1197</v>
+      </c>
+      <c r="CC151" s="26">
+        <v>42669</v>
+      </c>
+      <c r="CD151" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY152" s="23">
+        <v>178</v>
+      </c>
+      <c r="BZ152" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA152" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB152" s="25">
+        <v>5015</v>
+      </c>
+      <c r="CC152" s="26">
+        <v>42669</v>
+      </c>
+      <c r="CD152" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY153" s="23">
+        <v>189</v>
+      </c>
+      <c r="BZ153" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA153" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB153" s="25">
+        <v>9014</v>
+      </c>
+      <c r="CC153" s="26">
+        <v>42702</v>
+      </c>
+      <c r="CD153" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY154" s="23">
+        <v>197</v>
+      </c>
+      <c r="BZ154" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA154" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB154" s="25">
+        <v>8377</v>
+      </c>
+      <c r="CC154" s="26">
+        <v>42716</v>
+      </c>
+      <c r="CD154" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY155" s="23">
+        <v>201</v>
+      </c>
+      <c r="BZ155" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA155" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB155" s="25">
+        <v>1760</v>
+      </c>
+      <c r="CC155" s="26">
+        <v>42720</v>
+      </c>
+      <c r="CD155" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY156" s="23">
+        <v>212</v>
+      </c>
+      <c r="BZ156" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA156" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB156" s="25">
+        <v>2613</v>
+      </c>
+      <c r="CC156" s="26">
+        <v>42733</v>
+      </c>
+      <c r="CD156" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="157" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY157" s="23">
+        <v>213</v>
+      </c>
+      <c r="BZ157" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA157" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB157" s="25">
+        <v>339</v>
+      </c>
+      <c r="CC157" s="26">
+        <v>42734</v>
+      </c>
+      <c r="CD157" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB158" s="25">
+        <f>SUBTOTAL(9,CB131:CB157)</f>
+        <v>131713</v>
+      </c>
+      <c r="CC158" s="26"/>
+      <c r="CD158" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY159" s="23">
+        <v>4</v>
+      </c>
+      <c r="BZ159" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA159" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB159" s="25">
+        <v>8384</v>
+      </c>
+      <c r="CC159" s="26">
+        <v>42379</v>
+      </c>
+      <c r="CD159" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY160" s="23">
+        <v>10</v>
+      </c>
+      <c r="BZ160" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA160" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB160" s="25">
+        <v>7431</v>
+      </c>
+      <c r="CC160" s="26">
+        <v>42385</v>
+      </c>
+      <c r="CD160" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY161" s="23">
+        <v>14</v>
+      </c>
+      <c r="BZ161" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA161" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB161" s="25">
+        <v>2824</v>
+      </c>
+      <c r="CC161" s="26">
+        <v>42391</v>
+      </c>
+      <c r="CD161" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY162" s="23">
+        <v>23</v>
+      </c>
+      <c r="BZ162" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA162" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB162" s="25">
+        <v>3642</v>
+      </c>
+      <c r="CC162" s="26">
+        <v>42414</v>
+      </c>
+      <c r="CD162" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY163" s="23">
+        <v>43</v>
+      </c>
+      <c r="BZ163" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA163" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB163" s="25">
+        <v>135</v>
+      </c>
+      <c r="CC163" s="26">
+        <v>42448</v>
+      </c>
+      <c r="CD163" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY164" s="23">
+        <v>54</v>
+      </c>
+      <c r="BZ164" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA164" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB164" s="25">
+        <v>4364</v>
+      </c>
+      <c r="CC164" s="26">
+        <v>42461</v>
+      </c>
+      <c r="CD164" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY165" s="23">
+        <v>62</v>
+      </c>
+      <c r="BZ165" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA165" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB165" s="25">
+        <v>9231</v>
+      </c>
+      <c r="CC165" s="26">
+        <v>42482</v>
+      </c>
+      <c r="CD165" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY166" s="23">
+        <v>64</v>
+      </c>
+      <c r="BZ166" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA166" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB166" s="25">
+        <v>2763</v>
+      </c>
+      <c r="CC166" s="26">
+        <v>42485</v>
+      </c>
+      <c r="CD166" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY167" s="23">
+        <v>73</v>
+      </c>
+      <c r="BZ167" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA167" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB167" s="25">
+        <v>6295</v>
+      </c>
+      <c r="CC167" s="26">
+        <v>42493</v>
+      </c>
+      <c r="CD167" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY168" s="23">
+        <v>81</v>
+      </c>
+      <c r="BZ168" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA168" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB168" s="25">
+        <v>6007</v>
+      </c>
+      <c r="CC168" s="26">
+        <v>42502</v>
+      </c>
+      <c r="CD168" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY169" s="23">
+        <v>97</v>
+      </c>
+      <c r="BZ169" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA169" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB169" s="25">
+        <v>3644</v>
+      </c>
+      <c r="CC169" s="26">
+        <v>42516</v>
+      </c>
+      <c r="CD169" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY170" s="23">
+        <v>105</v>
+      </c>
+      <c r="BZ170" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA170" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB170" s="25">
+        <v>3767</v>
+      </c>
+      <c r="CC170" s="26">
+        <v>42519</v>
+      </c>
+      <c r="CD170" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY171" s="23">
+        <v>108</v>
+      </c>
+      <c r="BZ171" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA171" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB171" s="25">
+        <v>521</v>
+      </c>
+      <c r="CC171" s="26">
+        <v>42525</v>
+      </c>
+      <c r="CD171" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY172" s="23">
+        <v>111</v>
+      </c>
+      <c r="BZ172" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA172" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB172" s="25">
+        <v>6941</v>
+      </c>
+      <c r="CC172" s="26">
+        <v>42541</v>
+      </c>
+      <c r="CD172" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY173" s="23">
+        <v>119</v>
+      </c>
+      <c r="BZ173" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA173" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB173" s="25">
+        <v>8530</v>
+      </c>
+      <c r="CC173" s="26">
+        <v>42556</v>
+      </c>
+      <c r="CD173" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY174" s="23">
+        <v>144</v>
+      </c>
+      <c r="BZ174" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA174" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB174" s="25">
+        <v>7333</v>
+      </c>
+      <c r="CC174" s="26">
+        <v>42609</v>
+      </c>
+      <c r="CD174" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY175" s="23">
+        <v>155</v>
+      </c>
+      <c r="BZ175" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA175" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB175" s="25">
+        <v>352</v>
+      </c>
+      <c r="CC175" s="26">
+        <v>42622</v>
+      </c>
+      <c r="CD175" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY176" s="23">
+        <v>188</v>
+      </c>
+      <c r="BZ176" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA176" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB176" s="25">
+        <v>9990</v>
+      </c>
+      <c r="CC176" s="26">
+        <v>42702</v>
+      </c>
+      <c r="CD176" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY177" s="23">
+        <v>196</v>
+      </c>
+      <c r="BZ177" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA177" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB177" s="25">
+        <v>136</v>
+      </c>
+      <c r="CC177" s="26">
+        <v>42716</v>
+      </c>
+      <c r="CD177" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY178" s="23">
+        <v>205</v>
+      </c>
+      <c r="BZ178" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA178" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB178" s="25">
+        <v>2455</v>
+      </c>
+      <c r="CC178" s="26">
+        <v>42724</v>
+      </c>
+      <c r="CD178" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="179" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB179" s="25">
+        <f>SUBTOTAL(9,CB159:CB178)</f>
+        <v>94745</v>
+      </c>
+      <c r="CC179" s="26"/>
+      <c r="CD179" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY180" s="23">
+        <v>9</v>
+      </c>
+      <c r="BZ180" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA180" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB180" s="25">
+        <v>2417</v>
+      </c>
+      <c r="CC180" s="26">
+        <v>42385</v>
+      </c>
+      <c r="CD180" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY181" s="23">
+        <v>15</v>
+      </c>
+      <c r="BZ181" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA181" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB181" s="25">
+        <v>6946</v>
+      </c>
+      <c r="CC181" s="26">
+        <v>42393</v>
+      </c>
+      <c r="CD181" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY182" s="23">
+        <v>21</v>
+      </c>
+      <c r="BZ182" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA182" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB182" s="25">
+        <v>2256</v>
+      </c>
+      <c r="CC182" s="26">
+        <v>42404</v>
+      </c>
+      <c r="CD182" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY183" s="23">
+        <v>27</v>
+      </c>
+      <c r="BZ183" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA183" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB183" s="25">
+        <v>7388</v>
+      </c>
+      <c r="CC183" s="26">
+        <v>42418</v>
+      </c>
+      <c r="CD183" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY184" s="23">
+        <v>30</v>
+      </c>
+      <c r="BZ184" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA184" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB184" s="25">
+        <v>7602</v>
+      </c>
+      <c r="CC184" s="26">
+        <v>42421</v>
+      </c>
+      <c r="CD184" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="185" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY185" s="23">
+        <v>33</v>
+      </c>
+      <c r="BZ185" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA185" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB185" s="25">
+        <v>2060</v>
+      </c>
+      <c r="CC185" s="26">
+        <v>42429</v>
+      </c>
+      <c r="CD185" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="186" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY186" s="23">
+        <v>35</v>
+      </c>
+      <c r="BZ186" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA186" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB186" s="25">
+        <v>6509</v>
+      </c>
+      <c r="CC186" s="26">
+        <v>42430</v>
+      </c>
+      <c r="CD186" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="187" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY187" s="23">
+        <v>42</v>
+      </c>
+      <c r="BZ187" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA187" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB187" s="25">
+        <v>5341</v>
+      </c>
+      <c r="CC187" s="26">
+        <v>42445</v>
+      </c>
+      <c r="CD187" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY188" s="23">
+        <v>51</v>
+      </c>
+      <c r="BZ188" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA188" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB188" s="25">
+        <v>4781</v>
+      </c>
+      <c r="CC188" s="26">
+        <v>42458</v>
+      </c>
+      <c r="CD188" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="189" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY189" s="23">
+        <v>53</v>
+      </c>
+      <c r="BZ189" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA189" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB189" s="25">
+        <v>6331</v>
+      </c>
+      <c r="CC189" s="26">
+        <v>42461</v>
+      </c>
+      <c r="CD189" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="190" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY190" s="23">
+        <v>66</v>
+      </c>
+      <c r="BZ190" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA190" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB190" s="25">
+        <v>2427</v>
+      </c>
+      <c r="CC190" s="26">
+        <v>42490</v>
+      </c>
+      <c r="CD190" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY191" s="23">
+        <v>75</v>
+      </c>
+      <c r="BZ191" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA191" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB191" s="25">
+        <v>4325</v>
+      </c>
+      <c r="CC191" s="26">
+        <v>42495</v>
+      </c>
+      <c r="CD191" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY192" s="23">
+        <v>79</v>
+      </c>
+      <c r="BZ192" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA192" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB192" s="25">
+        <v>7671</v>
+      </c>
+      <c r="CC192" s="26">
+        <v>42498</v>
+      </c>
+      <c r="CD192" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="193" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY193" s="23">
+        <v>85</v>
+      </c>
+      <c r="BZ193" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA193" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB193" s="25">
+        <v>9543</v>
+      </c>
+      <c r="CC193" s="26">
+        <v>42506</v>
+      </c>
+      <c r="CD193" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="194" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY194" s="23">
+        <v>101</v>
+      </c>
+      <c r="BZ194" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA194" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB194" s="25">
+        <v>2193</v>
+      </c>
+      <c r="CC194" s="26">
+        <v>42517</v>
+      </c>
+      <c r="CD194" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY195" s="23">
+        <v>109</v>
+      </c>
+      <c r="BZ195" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA195" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB195" s="25">
+        <v>5605</v>
+      </c>
+      <c r="CC195" s="26">
+        <v>42531</v>
+      </c>
+      <c r="CD195" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="196" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY196" s="23">
+        <v>114</v>
+      </c>
+      <c r="BZ196" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA196" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB196" s="25">
+        <v>107</v>
+      </c>
+      <c r="CC196" s="26">
+        <v>42546</v>
+      </c>
+      <c r="CD196" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="197" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY197" s="23">
+        <v>118</v>
+      </c>
+      <c r="BZ197" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA197" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB197" s="25">
+        <v>5002</v>
+      </c>
+      <c r="CC197" s="26">
+        <v>42553</v>
+      </c>
+      <c r="CD197" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY198" s="23">
+        <v>135</v>
+      </c>
+      <c r="BZ198" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA198" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB198" s="25">
+        <v>7144</v>
+      </c>
+      <c r="CC198" s="26">
+        <v>42583</v>
+      </c>
+      <c r="CD198" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="199" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY199" s="23">
+        <v>141</v>
+      </c>
+      <c r="BZ199" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA199" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB199" s="25">
+        <v>3844</v>
+      </c>
+      <c r="CC199" s="26">
+        <v>42605</v>
+      </c>
+      <c r="CD199" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="200" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY200" s="23">
+        <v>142</v>
+      </c>
+      <c r="BZ200" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA200" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB200" s="25">
+        <v>7490</v>
+      </c>
+      <c r="CC200" s="26">
+        <v>42606</v>
+      </c>
+      <c r="CD200" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="201" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY201" s="23">
+        <v>157</v>
+      </c>
+      <c r="BZ201" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA201" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB201" s="25">
+        <v>7090</v>
+      </c>
+      <c r="CC201" s="26">
+        <v>42624</v>
+      </c>
+      <c r="CD201" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="202" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY202" s="23">
+        <v>172</v>
+      </c>
+      <c r="BZ202" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA202" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB202" s="25">
+        <v>8160</v>
+      </c>
+      <c r="CC202" s="26">
+        <v>42659</v>
+      </c>
+      <c r="CD202" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY203" s="23">
+        <v>183</v>
+      </c>
+      <c r="BZ203" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA203" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB203" s="25">
+        <v>5321</v>
+      </c>
+      <c r="CC203" s="26">
+        <v>42686</v>
+      </c>
+      <c r="CD203" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY204" s="23">
+        <v>190</v>
+      </c>
+      <c r="BZ204" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA204" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB204" s="25">
+        <v>1942</v>
+      </c>
+      <c r="CC204" s="26">
+        <v>42703</v>
+      </c>
+      <c r="CD204" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY205" s="23">
+        <v>193</v>
+      </c>
+      <c r="BZ205" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA205" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB205" s="25">
+        <v>9104</v>
+      </c>
+      <c r="CC205" s="26">
+        <v>42708</v>
+      </c>
+      <c r="CD205" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY206" s="23">
+        <v>209</v>
+      </c>
+      <c r="BZ206" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA206" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB206" s="25">
+        <v>1777</v>
+      </c>
+      <c r="CC206" s="26">
+        <v>42732</v>
+      </c>
+      <c r="CD206" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="207" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY207" s="23">
+        <v>210</v>
+      </c>
+      <c r="BZ207" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA207" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB207" s="25">
+        <v>680</v>
+      </c>
+      <c r="CC207" s="26">
+        <v>42732</v>
+      </c>
+      <c r="CD207" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="208" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB208" s="25">
+        <f>SUBTOTAL(9,CB180:CB207)</f>
+        <v>141056</v>
+      </c>
+      <c r="CC208" s="26"/>
+      <c r="CD208" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="209" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY209" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ209" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA209" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB209" s="25">
+        <v>2626</v>
+      </c>
+      <c r="CC209" s="26">
+        <v>42379</v>
+      </c>
+      <c r="CD209" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY210" s="23">
+        <v>11</v>
+      </c>
+      <c r="BZ210" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA210" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB210" s="25">
+        <v>8250</v>
+      </c>
+      <c r="CC210" s="26">
+        <v>42385</v>
+      </c>
+      <c r="CD210" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="211" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY211" s="23">
+        <v>13</v>
+      </c>
+      <c r="BZ211" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA211" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB211" s="25">
+        <v>1903</v>
+      </c>
+      <c r="CC211" s="26">
+        <v>42389</v>
+      </c>
+      <c r="CD211" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY212" s="23">
+        <v>29</v>
+      </c>
+      <c r="BZ212" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA212" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB212" s="25">
+        <v>5101</v>
+      </c>
+      <c r="CC212" s="26">
+        <v>42420</v>
+      </c>
+      <c r="CD212" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY213" s="23">
+        <v>34</v>
+      </c>
+      <c r="BZ213" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA213" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB213" s="25">
+        <v>1557</v>
+      </c>
+      <c r="CC213" s="26">
+        <v>42429</v>
+      </c>
+      <c r="CD213" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY214" s="23">
+        <v>45</v>
+      </c>
+      <c r="BZ214" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA214" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB214" s="25">
+        <v>6045</v>
+      </c>
+      <c r="CC214" s="26">
+        <v>42450</v>
+      </c>
+      <c r="CD214" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY215" s="23">
+        <v>47</v>
+      </c>
+      <c r="BZ215" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA215" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB215" s="25">
+        <v>8887</v>
+      </c>
+      <c r="CC215" s="26">
+        <v>42452</v>
+      </c>
+      <c r="CD215" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY216" s="23">
+        <v>50</v>
+      </c>
+      <c r="BZ216" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA216" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB216" s="25">
+        <v>3665</v>
+      </c>
+      <c r="CC216" s="26">
+        <v>42455</v>
+      </c>
+      <c r="CD216" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY217" s="23">
+        <v>58</v>
+      </c>
+      <c r="BZ217" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA217" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB217" s="25">
+        <v>277</v>
+      </c>
+      <c r="CC217" s="26">
+        <v>42472</v>
+      </c>
+      <c r="CD217" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY218" s="23">
+        <v>68</v>
+      </c>
+      <c r="BZ218" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA218" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB218" s="25">
+        <v>2789</v>
+      </c>
+      <c r="CC218" s="26">
+        <v>42491</v>
+      </c>
+      <c r="CD218" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY219" s="23">
+        <v>74</v>
+      </c>
+      <c r="BZ219" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA219" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB219" s="25">
+        <v>474</v>
+      </c>
+      <c r="CC219" s="26">
+        <v>42495</v>
+      </c>
+      <c r="CD219" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="220" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY220" s="23">
+        <v>82</v>
+      </c>
+      <c r="BZ220" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA220" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB220" s="25">
+        <v>5030</v>
+      </c>
+      <c r="CC220" s="26">
+        <v>42504</v>
+      </c>
+      <c r="CD220" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY221" s="23">
+        <v>87</v>
+      </c>
+      <c r="BZ221" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA221" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB221" s="25">
+        <v>7094</v>
+      </c>
+      <c r="CC221" s="26">
+        <v>42506</v>
+      </c>
+      <c r="CD221" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY222" s="23">
+        <v>91</v>
+      </c>
+      <c r="BZ222" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA222" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB222" s="25">
+        <v>8775</v>
+      </c>
+      <c r="CC222" s="26">
+        <v>42512</v>
+      </c>
+      <c r="CD222" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="223" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY223" s="23">
+        <v>99</v>
+      </c>
+      <c r="BZ223" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA223" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB223" s="25">
+        <v>8354</v>
+      </c>
+      <c r="CC223" s="26">
+        <v>42516</v>
+      </c>
+      <c r="CD223" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY224" s="23">
+        <v>106</v>
+      </c>
+      <c r="BZ224" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA224" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB224" s="25">
+        <v>4685</v>
+      </c>
+      <c r="CC224" s="26">
+        <v>42520</v>
+      </c>
+      <c r="CD224" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="225" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY225" s="23">
+        <v>110</v>
+      </c>
+      <c r="BZ225" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA225" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB225" s="25">
+        <v>9630</v>
+      </c>
+      <c r="CC225" s="26">
+        <v>42532</v>
+      </c>
+      <c r="CD225" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="226" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY226" s="23">
+        <v>125</v>
+      </c>
+      <c r="BZ226" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA226" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB226" s="25">
+        <v>330</v>
+      </c>
+      <c r="CC226" s="26">
+        <v>42571</v>
+      </c>
+      <c r="CD226" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="227" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY227" s="23">
+        <v>139</v>
+      </c>
+      <c r="BZ227" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA227" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB227" s="25">
+        <v>2836</v>
+      </c>
+      <c r="CC227" s="26">
+        <v>42595</v>
+      </c>
+      <c r="CD227" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY228" s="23">
+        <v>143</v>
+      </c>
+      <c r="BZ228" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA228" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB228" s="25">
+        <v>4483</v>
+      </c>
+      <c r="CC228" s="26">
+        <v>42607</v>
+      </c>
+      <c r="CD228" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="229" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY229" s="23">
+        <v>147</v>
+      </c>
+      <c r="BZ229" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA229" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB229" s="25">
+        <v>5761</v>
+      </c>
+      <c r="CC229" s="26">
+        <v>42611</v>
+      </c>
+      <c r="CD229" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="230" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY230" s="23">
+        <v>149</v>
+      </c>
+      <c r="BZ230" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA230" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB230" s="25">
+        <v>4016</v>
+      </c>
+      <c r="CC230" s="26">
+        <v>42614</v>
+      </c>
+      <c r="CD230" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="231" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY231" s="23">
+        <v>160</v>
+      </c>
+      <c r="BZ231" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA231" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB231" s="25">
+        <v>7927</v>
+      </c>
+      <c r="CC231" s="26">
+        <v>42632</v>
+      </c>
+      <c r="CD231" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="232" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY232" s="23">
+        <v>164</v>
+      </c>
+      <c r="BZ232" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA232" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB232" s="25">
+        <v>7251</v>
+      </c>
+      <c r="CC232" s="26">
+        <v>42639</v>
+      </c>
+      <c r="CD232" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="233" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY233" s="23">
+        <v>166</v>
+      </c>
+      <c r="BZ233" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA233" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB233" s="25">
+        <v>3210</v>
+      </c>
+      <c r="CC233" s="26">
+        <v>42642</v>
+      </c>
+      <c r="CD233" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY234" s="23">
+        <v>167</v>
+      </c>
+      <c r="BZ234" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA234" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB234" s="25">
+        <v>682</v>
+      </c>
+      <c r="CC234" s="26">
+        <v>42642</v>
+      </c>
+      <c r="CD234" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="235" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY235" s="23">
+        <v>169</v>
+      </c>
+      <c r="BZ235" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA235" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB235" s="25">
+        <v>5346</v>
+      </c>
+      <c r="CC235" s="26">
+        <v>42647</v>
+      </c>
+      <c r="CD235" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY236" s="23">
+        <v>176</v>
+      </c>
+      <c r="BZ236" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA236" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB236" s="25">
+        <v>2402</v>
+      </c>
+      <c r="CC236" s="26">
+        <v>42669</v>
+      </c>
+      <c r="CD236" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="237" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY237" s="23">
+        <v>186</v>
+      </c>
+      <c r="BZ237" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA237" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB237" s="25">
+        <v>284</v>
+      </c>
+      <c r="CC237" s="26">
+        <v>42699</v>
+      </c>
+      <c r="CD237" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="238" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY238" s="23">
+        <v>195</v>
+      </c>
+      <c r="BZ238" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA238" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB238" s="25">
+        <v>3278</v>
+      </c>
+      <c r="CC238" s="26">
+        <v>42710</v>
+      </c>
+      <c r="CD238" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="239" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY239" s="23">
+        <v>199</v>
+      </c>
+      <c r="BZ239" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA239" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB239" s="25">
+        <v>8702</v>
+      </c>
+      <c r="CC239" s="26">
+        <v>42719</v>
+      </c>
+      <c r="CD239" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="240" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY240" s="23">
+        <v>202</v>
+      </c>
+      <c r="BZ240" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA240" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB240" s="25">
+        <v>4766</v>
+      </c>
+      <c r="CC240" s="26">
+        <v>42722</v>
+      </c>
+      <c r="CD240" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="241" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY241" s="23">
+        <v>207</v>
+      </c>
+      <c r="BZ241" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA241" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB241" s="25">
+        <v>8752</v>
+      </c>
+      <c r="CC241" s="26">
+        <v>42726</v>
+      </c>
+      <c r="CD241" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="242" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB242" s="25">
+        <f>SUBTOTAL(9,CB209:CB241)</f>
+        <v>155168</v>
+      </c>
+      <c r="CC242" s="26"/>
+      <c r="CD242" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="243" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY243" s="23">
+        <v>8</v>
+      </c>
+      <c r="BZ243" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA243" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB243" s="25">
+        <v>6906</v>
+      </c>
+      <c r="CC243" s="26">
+        <v>42385</v>
+      </c>
+      <c r="CD243" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="244" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY244" s="23">
+        <v>22</v>
+      </c>
+      <c r="BZ244" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA244" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB244" s="25">
+        <v>1004</v>
+      </c>
+      <c r="CC244" s="26">
+        <v>42411</v>
+      </c>
+      <c r="CD244" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="245" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY245" s="23">
+        <v>46</v>
+      </c>
+      <c r="BZ245" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA245" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB245" s="25">
+        <v>5820</v>
+      </c>
+      <c r="CC245" s="26">
+        <v>42451</v>
+      </c>
+      <c r="CD245" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="246" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY246" s="23">
+        <v>56</v>
+      </c>
+      <c r="BZ246" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA246" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB246" s="25">
+        <v>1054</v>
+      </c>
+      <c r="CC246" s="26">
+        <v>42466</v>
+      </c>
+      <c r="CD246" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="247" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY247" s="23">
+        <v>67</v>
+      </c>
+      <c r="BZ247" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA247" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB247" s="25">
+        <v>8663</v>
+      </c>
+      <c r="CC247" s="26">
+        <v>42491</v>
+      </c>
+      <c r="CD247" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="248" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY248" s="23">
+        <v>94</v>
+      </c>
+      <c r="BZ248" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA248" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB248" s="25">
+        <v>4904</v>
+      </c>
+      <c r="CC248" s="26">
+        <v>42515</v>
+      </c>
+      <c r="CD248" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="249" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY249" s="23">
+        <v>120</v>
+      </c>
+      <c r="BZ249" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA249" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB249" s="25">
+        <v>4819</v>
+      </c>
+      <c r="CC249" s="26">
+        <v>42558</v>
+      </c>
+      <c r="CD249" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="250" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY250" s="23">
+        <v>124</v>
+      </c>
+      <c r="BZ250" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA250" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB250" s="25">
+        <v>6341</v>
+      </c>
+      <c r="CC250" s="26">
+        <v>42571</v>
+      </c>
+      <c r="CD250" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="251" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY251" s="23">
+        <v>127</v>
+      </c>
+      <c r="BZ251" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA251" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB251" s="25">
+        <v>850</v>
+      </c>
+      <c r="CC251" s="26">
+        <v>42573</v>
+      </c>
+      <c r="CD251" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="252" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY252" s="23">
+        <v>148</v>
+      </c>
+      <c r="BZ252" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA252" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB252" s="25">
+        <v>6864</v>
+      </c>
+      <c r="CC252" s="26">
+        <v>42614</v>
+      </c>
+      <c r="CD252" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY253" s="23">
+        <v>154</v>
+      </c>
+      <c r="BZ253" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA253" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB253" s="25">
+        <v>4390</v>
+      </c>
+      <c r="CC253" s="26">
+        <v>42622</v>
+      </c>
+      <c r="CD253" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="254" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY254" s="23">
+        <v>170</v>
+      </c>
+      <c r="BZ254" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA254" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB254" s="25">
+        <v>7103</v>
+      </c>
+      <c r="CC254" s="26">
+        <v>42650</v>
+      </c>
+      <c r="CD254" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="255" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY255" s="23">
+        <v>174</v>
+      </c>
+      <c r="BZ255" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA255" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB255" s="25">
+        <v>3552</v>
+      </c>
+      <c r="CC255" s="26">
+        <v>42666</v>
+      </c>
+      <c r="CD255" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="256" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY256" s="23">
+        <v>206</v>
+      </c>
+      <c r="BZ256" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA256" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB256" s="25">
+        <v>4512</v>
+      </c>
+      <c r="CC256" s="26">
+        <v>42726</v>
+      </c>
+      <c r="CD256" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="257" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB257" s="25">
+        <f>SUBTOTAL(9,CB243:CB256)</f>
+        <v>66782</v>
+      </c>
+      <c r="CC257" s="26"/>
+      <c r="CD257" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="258" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY258" s="23">
+        <v>2</v>
+      </c>
+      <c r="BZ258" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA258" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB258" s="25">
+        <v>8239</v>
+      </c>
+      <c r="CC258" s="26">
+        <v>42376</v>
+      </c>
+      <c r="CD258" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="259" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY259" s="23">
+        <v>16</v>
+      </c>
+      <c r="BZ259" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA259" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB259" s="25">
+        <v>2320</v>
+      </c>
+      <c r="CC259" s="26">
+        <v>42396</v>
+      </c>
+      <c r="CD259" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="260" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY260" s="23">
+        <v>18</v>
+      </c>
+      <c r="BZ260" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA260" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB260" s="25">
+        <v>1135</v>
+      </c>
+      <c r="CC260" s="26">
+        <v>42399</v>
+      </c>
+      <c r="CD260" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="261" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY261" s="23">
+        <v>19</v>
+      </c>
+      <c r="BZ261" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA261" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB261" s="25">
+        <v>3595</v>
+      </c>
+      <c r="CC261" s="26">
+        <v>42399</v>
+      </c>
+      <c r="CD261" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="262" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY262" s="23">
+        <v>25</v>
+      </c>
+      <c r="BZ262" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA262" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB262" s="25">
+        <v>3559</v>
+      </c>
+      <c r="CC262" s="26">
+        <v>42417</v>
+      </c>
+      <c r="CD262" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="263" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY263" s="23">
+        <v>38</v>
+      </c>
+      <c r="BZ263" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA263" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB263" s="25">
+        <v>9116</v>
+      </c>
+      <c r="CC263" s="26">
+        <v>42434</v>
+      </c>
+      <c r="CD263" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="264" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY264" s="23">
+        <v>41</v>
+      </c>
+      <c r="BZ264" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA264" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB264" s="25">
+        <v>8941</v>
+      </c>
+      <c r="CC264" s="26">
+        <v>42444</v>
+      </c>
+      <c r="CD264" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="265" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY265" s="23">
+        <v>55</v>
+      </c>
+      <c r="BZ265" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA265" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB265" s="25">
+        <v>607</v>
+      </c>
+      <c r="CC265" s="26">
+        <v>42463</v>
+      </c>
+      <c r="CD265" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="266" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY266" s="23">
+        <v>65</v>
+      </c>
+      <c r="BZ266" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA266" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB266" s="25">
+        <v>7898</v>
+      </c>
+      <c r="CC266" s="26">
+        <v>42487</v>
+      </c>
+      <c r="CD266" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="267" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY267" s="23">
+        <v>71</v>
+      </c>
+      <c r="BZ267" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA267" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB267" s="25">
+        <v>5600</v>
+      </c>
+      <c r="CC267" s="26">
+        <v>42492</v>
+      </c>
+      <c r="CD267" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="268" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY268" s="23">
+        <v>78</v>
+      </c>
+      <c r="BZ268" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA268" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB268" s="25">
+        <v>9405</v>
+      </c>
+      <c r="CC268" s="26">
+        <v>42498</v>
+      </c>
+      <c r="CD268" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="269" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY269" s="23">
+        <v>80</v>
+      </c>
+      <c r="BZ269" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA269" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB269" s="25">
+        <v>5791</v>
+      </c>
+      <c r="CC269" s="26">
+        <v>42498</v>
+      </c>
+      <c r="CD269" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="270" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY270" s="23">
+        <v>83</v>
+      </c>
+      <c r="BZ270" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA270" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB270" s="25">
+        <v>6763</v>
+      </c>
+      <c r="CC270" s="26">
+        <v>42504</v>
+      </c>
+      <c r="CD270" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="271" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY271" s="23">
+        <v>86</v>
+      </c>
+      <c r="BZ271" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA271" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB271" s="25">
+        <v>2054</v>
+      </c>
+      <c r="CC271" s="26">
+        <v>42506</v>
+      </c>
+      <c r="CD271" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="272" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY272" s="23">
+        <v>92</v>
+      </c>
+      <c r="BZ272" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA272" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB272" s="25">
+        <v>2011</v>
+      </c>
+      <c r="CC272" s="26">
+        <v>42513</v>
+      </c>
+      <c r="CD272" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="273" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY273" s="23">
+        <v>96</v>
+      </c>
+      <c r="BZ273" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA273" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB273" s="25">
+        <v>8141</v>
+      </c>
+      <c r="CC273" s="26">
+        <v>42516</v>
+      </c>
+      <c r="CD273" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="274" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY274" s="23">
+        <v>112</v>
+      </c>
+      <c r="BZ274" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA274" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB274" s="25">
+        <v>7231</v>
+      </c>
+      <c r="CC274" s="26">
+        <v>42541</v>
+      </c>
+      <c r="CD274" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="275" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY275" s="23">
+        <v>121</v>
+      </c>
+      <c r="BZ275" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA275" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB275" s="25">
+        <v>6343</v>
+      </c>
+      <c r="CC275" s="26">
+        <v>42562</v>
+      </c>
+      <c r="CD275" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="276" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY276" s="23">
+        <v>122</v>
+      </c>
+      <c r="BZ276" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA276" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB276" s="25">
+        <v>2318</v>
+      </c>
+      <c r="CC276" s="26">
+        <v>42564</v>
+      </c>
+      <c r="CD276" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="277" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY277" s="23">
+        <v>123</v>
+      </c>
+      <c r="BZ277" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA277" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB277" s="25">
+        <v>220</v>
+      </c>
+      <c r="CC277" s="26">
+        <v>42571</v>
+      </c>
+      <c r="CD277" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="278" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY278" s="23">
+        <v>126</v>
+      </c>
+      <c r="BZ278" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA278" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB278" s="25">
+        <v>3027</v>
+      </c>
+      <c r="CC278" s="26">
+        <v>42571</v>
+      </c>
+      <c r="CD278" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="279" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY279" s="23">
+        <v>128</v>
+      </c>
+      <c r="BZ279" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA279" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB279" s="25">
+        <v>8986</v>
+      </c>
+      <c r="CC279" s="26">
+        <v>42574</v>
+      </c>
+      <c r="CD279" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="280" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY280" s="23">
+        <v>130</v>
+      </c>
+      <c r="BZ280" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA280" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB280" s="25">
+        <v>5751</v>
+      </c>
+      <c r="CC280" s="26">
+        <v>42579</v>
+      </c>
+      <c r="CD280" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="281" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY281" s="23">
+        <v>131</v>
+      </c>
+      <c r="BZ281" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA281" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB281" s="25">
+        <v>1704</v>
+      </c>
+      <c r="CC281" s="26">
+        <v>42580</v>
+      </c>
+      <c r="CD281" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="282" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY282" s="23">
+        <v>146</v>
+      </c>
+      <c r="BZ282" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA282" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB282" s="25">
+        <v>3944</v>
+      </c>
+      <c r="CC282" s="26">
+        <v>42611</v>
+      </c>
+      <c r="CD282" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="283" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY283" s="23">
+        <v>152</v>
+      </c>
+      <c r="BZ283" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA283" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB283" s="25">
+        <v>8765</v>
+      </c>
+      <c r="CC283" s="26">
+        <v>42620</v>
+      </c>
+      <c r="CD283" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="284" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY284" s="23">
+        <v>163</v>
+      </c>
+      <c r="BZ284" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA284" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB284" s="25">
+        <v>5936</v>
+      </c>
+      <c r="CC284" s="26">
+        <v>42638</v>
+      </c>
+      <c r="CD284" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="285" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY285" s="23">
+        <v>173</v>
+      </c>
+      <c r="BZ285" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA285" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB285" s="25">
+        <v>7171</v>
+      </c>
+      <c r="CC285" s="26">
+        <v>42666</v>
+      </c>
+      <c r="CD285" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="286" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY286" s="23">
+        <v>180</v>
+      </c>
+      <c r="BZ286" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA286" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB286" s="25">
+        <v>4399</v>
+      </c>
+      <c r="CC286" s="26">
+        <v>42677</v>
+      </c>
+      <c r="CD286" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="287" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY287" s="23">
+        <v>182</v>
+      </c>
+      <c r="BZ287" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA287" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB287" s="25">
+        <v>4715</v>
+      </c>
+      <c r="CC287" s="26">
+        <v>42683</v>
+      </c>
+      <c r="CD287" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="288" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY288" s="23">
+        <v>185</v>
+      </c>
+      <c r="BZ288" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA288" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB288" s="25">
+        <v>4846</v>
+      </c>
+      <c r="CC288" s="26">
+        <v>42699</v>
+      </c>
+      <c r="CD288" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="289" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY289" s="23">
+        <v>187</v>
+      </c>
+      <c r="BZ289" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA289" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB289" s="25">
+        <v>8283</v>
+      </c>
+      <c r="CC289" s="26">
+        <v>42700</v>
+      </c>
+      <c r="CD289" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="290" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY290" s="23">
+        <v>203</v>
+      </c>
+      <c r="BZ290" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA290" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB290" s="25">
+        <v>1541</v>
+      </c>
+      <c r="CC290" s="26">
+        <v>42723</v>
+      </c>
+      <c r="CD290" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="291" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY291" s="23">
+        <v>204</v>
+      </c>
+      <c r="BZ291" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA291" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB291" s="25">
+        <v>2782</v>
+      </c>
+      <c r="CC291" s="26">
+        <v>42724</v>
+      </c>
+      <c r="CD291" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="292" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB292" s="25">
+        <f>SUBTOTAL(9,CB258:CB291)</f>
+        <v>173137</v>
+      </c>
+      <c r="CC292" s="26"/>
+      <c r="CD292" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="293" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY293" s="23">
+        <v>1</v>
+      </c>
+      <c r="BZ293" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA293" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB293" s="25">
+        <v>4270</v>
+      </c>
+      <c r="CC293" s="26">
+        <v>42375</v>
+      </c>
+      <c r="CD293" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="294" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY294" s="23">
+        <v>3</v>
+      </c>
+      <c r="BZ294" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA294" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB294" s="25">
+        <v>617</v>
+      </c>
+      <c r="CC294" s="26">
+        <v>42377</v>
+      </c>
+      <c r="CD294" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="295" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY295" s="23">
+        <v>6</v>
+      </c>
+      <c r="BZ295" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA295" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB295" s="25">
+        <v>3610</v>
+      </c>
+      <c r="CC295" s="26">
+        <v>42380</v>
+      </c>
+      <c r="CD295" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="296" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY296" s="23">
+        <v>12</v>
+      </c>
+      <c r="BZ296" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA296" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB296" s="25">
+        <v>7012</v>
+      </c>
+      <c r="CC296" s="26">
+        <v>42387</v>
+      </c>
+      <c r="CD296" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="297" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY297" s="23">
+        <v>17</v>
+      </c>
+      <c r="BZ297" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA297" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB297" s="25">
+        <v>2116</v>
+      </c>
+      <c r="CC297" s="26">
+        <v>42397</v>
+      </c>
+      <c r="CD297" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="298" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY298" s="23">
+        <v>20</v>
+      </c>
+      <c r="BZ298" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA298" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB298" s="25">
+        <v>1161</v>
+      </c>
+      <c r="CC298" s="26">
+        <v>42402</v>
+      </c>
+      <c r="CD298" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="299" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY299" s="23">
+        <v>24</v>
+      </c>
+      <c r="BZ299" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA299" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB299" s="25">
+        <v>4582</v>
+      </c>
+      <c r="CC299" s="26">
+        <v>42417</v>
+      </c>
+      <c r="CD299" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="300" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY300" s="23">
+        <v>28</v>
+      </c>
+      <c r="BZ300" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA300" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB300" s="25">
+        <v>7163</v>
+      </c>
+      <c r="CC300" s="26">
+        <v>42418</v>
+      </c>
+      <c r="CD300" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="301" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY301" s="23">
+        <v>31</v>
+      </c>
+      <c r="BZ301" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA301" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB301" s="25">
+        <v>1641</v>
+      </c>
+      <c r="CC301" s="26">
+        <v>42422</v>
+      </c>
+      <c r="CD301" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="302" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY302" s="23">
+        <v>37</v>
+      </c>
+      <c r="BZ302" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA302" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB302" s="25">
+        <v>7655</v>
+      </c>
+      <c r="CC302" s="26">
+        <v>42434</v>
+      </c>
+      <c r="CD302" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="303" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY303" s="23">
+        <v>39</v>
+      </c>
+      <c r="BZ303" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA303" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB303" s="25">
+        <v>2795</v>
+      </c>
+      <c r="CC303" s="26">
+        <v>42444</v>
+      </c>
+      <c r="CD303" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY304" s="23">
+        <v>40</v>
+      </c>
+      <c r="BZ304" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA304" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB304" s="25">
+        <v>5084</v>
+      </c>
+      <c r="CC304" s="26">
+        <v>42444</v>
+      </c>
+      <c r="CD304" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="305" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY305" s="23">
+        <v>48</v>
+      </c>
+      <c r="BZ305" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA305" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB305" s="25">
+        <v>6982</v>
+      </c>
+      <c r="CC305" s="26">
+        <v>42453</v>
+      </c>
+      <c r="CD305" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="306" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY306" s="23">
+        <v>57</v>
+      </c>
+      <c r="BZ306" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA306" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB306" s="25">
+        <v>7659</v>
+      </c>
+      <c r="CC306" s="26">
+        <v>42466</v>
+      </c>
+      <c r="CD306" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="307" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY307" s="23">
+        <v>59</v>
+      </c>
+      <c r="BZ307" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA307" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB307" s="25">
+        <v>235</v>
+      </c>
+      <c r="CC307" s="26">
+        <v>42477</v>
+      </c>
+      <c r="CD307" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="308" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY308" s="23">
+        <v>61</v>
+      </c>
+      <c r="BZ308" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA308" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB308" s="25">
+        <v>1128</v>
+      </c>
+      <c r="CC308" s="26">
+        <v>42481</v>
+      </c>
+      <c r="CD308" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="309" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY309" s="23">
+        <v>63</v>
+      </c>
+      <c r="BZ309" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA309" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB309" s="25">
+        <v>4387</v>
+      </c>
+      <c r="CC309" s="26">
+        <v>42483</v>
+      </c>
+      <c r="CD309" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="310" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY310" s="23">
+        <v>69</v>
+      </c>
+      <c r="BZ310" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA310" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB310" s="25">
+        <v>4054</v>
+      </c>
+      <c r="CC310" s="26">
+        <v>42492</v>
+      </c>
+      <c r="CD310" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="311" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY311" s="23">
+        <v>70</v>
+      </c>
+      <c r="BZ311" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA311" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB311" s="25">
+        <v>2262</v>
+      </c>
+      <c r="CC311" s="26">
+        <v>42492</v>
+      </c>
+      <c r="CD311" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="312" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY312" s="23">
+        <v>72</v>
+      </c>
+      <c r="BZ312" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA312" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB312" s="25">
+        <v>5787</v>
+      </c>
+      <c r="CC312" s="26">
+        <v>42493</v>
+      </c>
+      <c r="CD312" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="313" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY313" s="23">
+        <v>76</v>
+      </c>
+      <c r="BZ313" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA313" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB313" s="25">
+        <v>592</v>
+      </c>
+      <c r="CC313" s="26">
+        <v>42496</v>
+      </c>
+      <c r="CD313" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="314" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY314" s="23">
+        <v>77</v>
+      </c>
+      <c r="BZ314" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA314" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB314" s="25">
+        <v>4330</v>
+      </c>
+      <c r="CC314" s="26">
+        <v>42498</v>
+      </c>
+      <c r="CD314" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="315" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY315" s="23">
+        <v>88</v>
+      </c>
+      <c r="BZ315" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA315" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB315" s="25">
+        <v>6087</v>
+      </c>
+      <c r="CC315" s="26">
+        <v>42508</v>
+      </c>
+      <c r="CD315" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="316" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY316" s="23">
+        <v>90</v>
+      </c>
+      <c r="BZ316" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA316" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB316" s="25">
+        <v>9333</v>
+      </c>
+      <c r="CC316" s="26">
+        <v>42510</v>
+      </c>
+      <c r="CD316" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="317" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY317" s="23">
+        <v>93</v>
+      </c>
+      <c r="BZ317" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA317" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB317" s="25">
+        <v>5632</v>
+      </c>
+      <c r="CC317" s="26">
+        <v>42515</v>
+      </c>
+      <c r="CD317" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="318" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY318" s="23">
+        <v>100</v>
+      </c>
+      <c r="BZ318" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA318" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB318" s="25">
+        <v>5182</v>
+      </c>
+      <c r="CC318" s="26">
+        <v>42517</v>
+      </c>
+      <c r="CD318" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="319" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY319" s="23">
+        <v>102</v>
+      </c>
+      <c r="BZ319" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA319" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB319" s="25">
+        <v>3647</v>
+      </c>
+      <c r="CC319" s="26">
+        <v>42518</v>
+      </c>
+      <c r="CD319" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="320" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY320" s="23">
+        <v>103</v>
+      </c>
+      <c r="BZ320" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA320" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB320" s="25">
+        <v>4104</v>
+      </c>
+      <c r="CC320" s="26">
+        <v>42518</v>
+      </c>
+      <c r="CD320" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="321" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY321" s="23">
+        <v>104</v>
+      </c>
+      <c r="BZ321" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA321" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB321" s="25">
+        <v>7457</v>
+      </c>
+      <c r="CC321" s="26">
+        <v>42518</v>
+      </c>
+      <c r="CD321" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="322" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY322" s="23">
+        <v>107</v>
+      </c>
+      <c r="BZ322" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA322" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB322" s="25">
+        <v>3917</v>
+      </c>
+      <c r="CC322" s="26">
+        <v>42525</v>
+      </c>
+      <c r="CD322" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="323" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY323" s="23">
+        <v>115</v>
+      </c>
+      <c r="BZ323" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA323" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB323" s="25">
+        <v>4243</v>
+      </c>
+      <c r="CC323" s="26">
+        <v>42547</v>
+      </c>
+      <c r="CD323" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="324" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY324" s="23">
+        <v>116</v>
+      </c>
+      <c r="BZ324" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA324" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB324" s="25">
+        <v>4514</v>
+      </c>
+      <c r="CC324" s="26">
+        <v>42548</v>
+      </c>
+      <c r="CD324" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="325" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY325" s="23">
+        <v>117</v>
+      </c>
+      <c r="BZ325" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA325" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB325" s="25">
+        <v>5480</v>
+      </c>
+      <c r="CC325" s="26">
+        <v>42553</v>
+      </c>
+      <c r="CD325" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="326" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY326" s="23">
+        <v>129</v>
+      </c>
+      <c r="BZ326" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA326" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB326" s="25">
+        <v>3800</v>
+      </c>
+      <c r="CC326" s="26">
+        <v>42576</v>
+      </c>
+      <c r="CD326" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="327" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY327" s="23">
+        <v>133</v>
+      </c>
+      <c r="BZ327" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA327" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB327" s="25">
+        <v>852</v>
+      </c>
+      <c r="CC327" s="26">
+        <v>42582</v>
+      </c>
+      <c r="CD327" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="328" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY328" s="23">
+        <v>136</v>
+      </c>
+      <c r="BZ328" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA328" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB328" s="25">
+        <v>7854</v>
+      </c>
+      <c r="CC328" s="26">
+        <v>42583</v>
+      </c>
+      <c r="CD328" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="329" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY329" s="23">
+        <v>137</v>
+      </c>
+      <c r="BZ329" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA329" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB329" s="25">
+        <v>859</v>
+      </c>
+      <c r="CC329" s="26">
+        <v>42585</v>
+      </c>
+      <c r="CD329" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="330" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY330" s="23">
+        <v>138</v>
+      </c>
+      <c r="BZ330" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA330" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB330" s="25">
+        <v>8049</v>
+      </c>
+      <c r="CC330" s="26">
+        <v>42594</v>
+      </c>
+      <c r="CD330" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY331" s="23">
+        <v>140</v>
+      </c>
+      <c r="BZ331" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA331" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB331" s="25">
+        <v>1743</v>
+      </c>
+      <c r="CC331" s="26">
+        <v>42601</v>
+      </c>
+      <c r="CD331" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="332" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY332" s="23">
+        <v>145</v>
+      </c>
+      <c r="BZ332" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA332" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB332" s="25">
+        <v>7654</v>
+      </c>
+      <c r="CC332" s="26">
+        <v>42610</v>
+      </c>
+      <c r="CD332" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="333" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY333" s="23">
+        <v>150</v>
+      </c>
+      <c r="BZ333" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA333" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB333" s="25">
+        <v>1841</v>
+      </c>
+      <c r="CC333" s="26">
+        <v>42615</v>
+      </c>
+      <c r="CD333" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="334" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY334" s="23">
+        <v>153</v>
+      </c>
+      <c r="BZ334" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA334" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB334" s="25">
+        <v>5583</v>
+      </c>
+      <c r="CC334" s="26">
+        <v>42621</v>
+      </c>
+      <c r="CD334" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="335" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY335" s="23">
+        <v>156</v>
+      </c>
+      <c r="BZ335" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA335" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB335" s="25">
+        <v>8489</v>
+      </c>
+      <c r="CC335" s="26">
+        <v>42624</v>
+      </c>
+      <c r="CD335" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="336" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY336" s="23">
+        <v>158</v>
+      </c>
+      <c r="BZ336" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA336" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB336" s="25">
+        <v>7880</v>
+      </c>
+      <c r="CC336" s="26">
+        <v>42628</v>
+      </c>
+      <c r="CD336" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="337" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY337" s="23">
+        <v>159</v>
+      </c>
+      <c r="BZ337" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA337" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB337" s="25">
+        <v>3861</v>
+      </c>
+      <c r="CC337" s="26">
+        <v>42631</v>
+      </c>
+      <c r="CD337" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="338" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY338" s="23">
+        <v>161</v>
+      </c>
+      <c r="BZ338" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA338" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB338" s="25">
+        <v>6162</v>
+      </c>
+      <c r="CC338" s="26">
+        <v>42633</v>
+      </c>
+      <c r="CD338" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="339" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY339" s="23">
+        <v>171</v>
+      </c>
+      <c r="BZ339" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA339" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB339" s="25">
+        <v>4603</v>
+      </c>
+      <c r="CC339" s="26">
+        <v>42653</v>
+      </c>
+      <c r="CD339" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="340" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY340" s="23">
+        <v>179</v>
+      </c>
+      <c r="BZ340" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA340" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB340" s="25">
+        <v>5818</v>
+      </c>
+      <c r="CC340" s="26">
+        <v>42676</v>
+      </c>
+      <c r="CD340" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="341" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY341" s="23">
+        <v>181</v>
+      </c>
+      <c r="BZ341" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA341" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB341" s="25">
+        <v>3011</v>
+      </c>
+      <c r="CC341" s="26">
+        <v>42677</v>
+      </c>
+      <c r="CD341" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="342" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY342" s="23">
+        <v>184</v>
+      </c>
+      <c r="BZ342" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA342" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB342" s="25">
+        <v>8894</v>
+      </c>
+      <c r="CC342" s="26">
+        <v>42689</v>
+      </c>
+      <c r="CD342" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="343" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY343" s="23">
+        <v>191</v>
+      </c>
+      <c r="BZ343" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA343" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB343" s="25">
+        <v>7223</v>
+      </c>
+      <c r="CC343" s="26">
+        <v>42704</v>
+      </c>
+      <c r="CD343" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="344" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY344" s="23">
+        <v>192</v>
+      </c>
+      <c r="BZ344" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA344" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB344" s="25">
+        <v>4673</v>
+      </c>
+      <c r="CC344" s="26">
+        <v>42706</v>
+      </c>
+      <c r="CD344" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="345" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY345" s="23">
+        <v>194</v>
+      </c>
+      <c r="BZ345" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA345" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB345" s="25">
+        <v>6078</v>
+      </c>
+      <c r="CC345" s="26">
+        <v>42709</v>
+      </c>
+      <c r="CD345" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="346" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY346" s="23">
+        <v>198</v>
+      </c>
+      <c r="BZ346" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA346" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB346" s="25">
+        <v>2382</v>
+      </c>
+      <c r="CC346" s="26">
+        <v>42716</v>
+      </c>
+      <c r="CD346" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="347" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY347" s="23">
+        <v>200</v>
+      </c>
+      <c r="BZ347" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA347" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB347" s="25">
+        <v>5021</v>
+      </c>
+      <c r="CC347" s="26">
+        <v>42720</v>
+      </c>
+      <c r="CD347" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="348" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY348" s="23">
+        <v>208</v>
+      </c>
+      <c r="BZ348" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA348" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB348" s="25">
+        <v>9127</v>
+      </c>
+      <c r="CC348" s="26">
+        <v>42729</v>
+      </c>
+      <c r="CD348" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="349" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY349" s="23">
+        <v>211</v>
+      </c>
+      <c r="BZ349" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA349" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB349" s="25">
+        <v>958</v>
+      </c>
+      <c r="CC349" s="26">
+        <v>42733</v>
+      </c>
+      <c r="CD349" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="350" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB350" s="25">
+        <f>SUBTOTAL(9,CB293:CB349)</f>
+        <v>267133</v>
+      </c>
+      <c r="CC350" s="26"/>
+      <c r="CD350" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="351" spans="77:82" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CB351" s="25">
+        <f>SUBTOTAL(9,CB131:CB349)</f>
+        <v>1029734</v>
+      </c>
+      <c r="CC351" s="26"/>
+      <c r="CD351" s="24" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <autoFilter ref="BY130:CD351" xr:uid="{88E2E933-79A5-4E9B-947F-EEA4A711ECAA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BY131:CD349">
+    <sortCondition ref="BY130:BY349"/>
+  </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="AV88:BL89"/>
     <mergeCell ref="AX57:BA57"/>
     <mergeCell ref="AX67:BB67"/>
     <mergeCell ref="F50:L51"/>
@@ -3302,11 +9074,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ExcelSheet/Book1.xlsx
+++ b/ExcelSheet/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4eb42d5b6ce26d/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="720" documentId="8_{61E82B74-827F-4C8D-9E56-3DF434851CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8277D9-434F-4792-9254-4D287874E7E4}"/>
+  <xr:revisionPtr revIDLastSave="733" documentId="8_{61E82B74-827F-4C8D-9E56-3DF434851CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AECC076-328A-4FA6-A239-175ECEED9C9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6670257-1038-4483-9760-BC4C18B28E5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BY$130:$CD$351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BY$130:$CD$357</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="188">
   <si>
     <t>sun</t>
   </si>
@@ -592,6 +592,15 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Fruit Count</t>
+  </si>
+  <si>
+    <t>Vegetables Count</t>
+  </si>
+  <si>
+    <t>Grand Count</t>
   </si>
 </sst>
 </file>
@@ -604,8 +613,8 @@
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="dddd\,mmmm"/>
     <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="dddd"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="dddd"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -716,7 +725,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,6 +737,21 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,25 +761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,40 +769,7 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="dddd"/>
+      <numFmt numFmtId="168" formatCode="dddd"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1064,6 +1036,39 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     </dxf>
     <dxf>
@@ -1143,40 +1148,40 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F9CC4D7-3946-4479-9BE7-12ABAF2F0964}" name="Table5" displayName="Table5" ref="AV90:BL101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F9CC4D7-3946-4479-9BE7-12ABAF2F0964}" name="Table5" displayName="Table5" ref="AV90:BL101" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="AV90:BL101" xr:uid="{8F9CC4D7-3946-4479-9BE7-12ABAF2F0964}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{52ACACBB-EE51-4703-B677-50861446245A}" name="emp id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{1E61B455-E57E-46E9-BEBC-A7D185A6FEFC}" name="first name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{F6A22DE1-4798-43F8-8110-21E79575DAB2}" name="last name" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{A2B5F080-C86A-4891-A278-6C4711058E86}" name="username" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{F3723D56-80C1-484C-B83A-B35267928B56}" name="domain name" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{5E8B9E58-F7F9-42AB-995A-017F480CA7FB}" name="doj" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{232BCFCE-B87B-421C-B7B0-DE1F27F1790C}" name="account number" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{20C79ED4-0157-4590-ACA0-95F5957AD359}" name="new first name" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{52ACACBB-EE51-4703-B677-50861446245A}" name="emp id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{1E61B455-E57E-46E9-BEBC-A7D185A6FEFC}" name="first name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{F6A22DE1-4798-43F8-8110-21E79575DAB2}" name="last name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A2B5F080-C86A-4891-A278-6C4711058E86}" name="username" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{F3723D56-80C1-484C-B83A-B35267928B56}" name="domain name" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{5E8B9E58-F7F9-42AB-995A-017F480CA7FB}" name="doj" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{232BCFCE-B87B-421C-B7B0-DE1F27F1790C}" name="account number" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{20C79ED4-0157-4590-ACA0-95F5957AD359}" name="new first name" dataDxfId="9">
       <calculatedColumnFormula>LOWER(AW91)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B3864DEE-6BC9-4348-8FF6-AAE46E93AC56}" name="city" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{EA204FD3-6E41-427A-994C-4492EEBA9C74}" name="small to capital" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{B3864DEE-6BC9-4348-8FF6-AAE46E93AC56}" name="city" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{EA204FD3-6E41-427A-994C-4492EEBA9C74}" name="small to capital" dataDxfId="7">
       <calculatedColumnFormula>UPPER(BD91)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1685A8EE-8EDE-4AB1-824B-406A7F90C257}" name="email" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{1685A8EE-8EDE-4AB1-824B-406A7F90C257}" name="email" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.CONCAT(AY91,"@",AZ91)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B14B26B1-76D0-4E64-9C43-602EE0AF72D5}" name="starting 3 digits" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{B14B26B1-76D0-4E64-9C43-602EE0AF72D5}" name="starting 3 digits" dataDxfId="5">
       <calculatedColumnFormula>MID(BB91,4,7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00247960-0799-46FB-B648-35E185196D6B}" name="len email" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{00247960-0799-46FB-B648-35E185196D6B}" name="len email" dataDxfId="4">
       <calculatedColumnFormula>LEN(BF91)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0F520E2E-0ECD-494A-8878-5954E72A8FA1}" name="year of join" dataDxfId="5">
+    <tableColumn id="14" xr3:uid="{0F520E2E-0ECD-494A-8878-5954E72A8FA1}" name="year of join" dataDxfId="3">
       <calculatedColumnFormula>YEAR(BA91)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{54F40FB3-1806-4AA8-9DFE-38730D9A2ED6}" name="date" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{54F40FB3-1806-4AA8-9DFE-38730D9A2ED6}" name="date" dataDxfId="2">
       <calculatedColumnFormula>DAY(BA91)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{168D51EF-FF33-4807-B724-1BADCDCA4DE4}" name="gap between doj of two employee" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{006950FB-7E9F-4C64-99DF-620E8E60804C}" name="weekday" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{168D51EF-FF33-4807-B724-1BADCDCA4DE4}" name="gap between doj of two employee" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{006950FB-7E9F-4C64-99DF-620E8E60804C}" name="weekday" dataDxfId="0">
       <calculatedColumnFormula>WEEKDAY(BA91)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1481,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E2E933-79A5-4E9B-947F-EEA4A711ECAA}">
-  <dimension ref="A1:CD351"/>
+  <dimension ref="A1:CD357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL149" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BV151" sqref="BV151"/>
+    <sheetView tabSelected="1" topLeftCell="BZ175" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CG136" sqref="CG136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1528,12 +1533,12 @@
     <col min="62" max="62" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="50" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -2574,44 +2579,44 @@
       </c>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="Z53" s="11" t="s">
+      <c r="Z53" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AE53" s="11" t="s">
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AE53" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AM53" s="11" t="s">
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AM53" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Z54" t="s">
@@ -2702,7 +2707,7 @@
       </c>
       <c r="AM55" s="7">
         <f ca="1">NOW()</f>
-        <v>45329.475571064817</v>
+        <v>45329.489599421293</v>
       </c>
       <c r="AN55" t="s">
         <v>87</v>
@@ -2845,12 +2850,12 @@
       <c r="AU57" t="s">
         <v>105</v>
       </c>
-      <c r="AX57" s="11" t="s">
+      <c r="AX57" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AY57" s="11"/>
-      <c r="AZ57" s="11"/>
-      <c r="BA57" s="11"/>
+      <c r="AY57" s="20"/>
+      <c r="AZ57" s="20"/>
+      <c r="BA57" s="20"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D58">
@@ -3023,10 +3028,10 @@
       </c>
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="22"/>
       <c r="D60">
         <v>5</v>
       </c>
@@ -3082,8 +3087,8 @@
       </c>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
       <c r="D61">
         <v>6</v>
       </c>
@@ -3142,8 +3147,8 @@
       </c>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
       <c r="D62">
         <v>7</v>
       </c>
@@ -3199,8 +3204,8 @@
       </c>
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
       <c r="D63">
         <v>8</v>
       </c>
@@ -3256,8 +3261,8 @@
       </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
       <c r="D64">
         <v>9</v>
       </c>
@@ -3303,8 +3308,8 @@
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
       <c r="D65">
         <v>10</v>
       </c>
@@ -3411,13 +3416,13 @@
       <c r="AO67">
         <v>-7</v>
       </c>
-      <c r="AX67" s="11" t="s">
+      <c r="AX67" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="AY67" s="11"/>
-      <c r="AZ67" s="11"/>
-      <c r="BA67" s="11"/>
-      <c r="BB67" s="11"/>
+      <c r="AY67" s="20"/>
+      <c r="AZ67" s="20"/>
+      <c r="BA67" s="20"/>
+      <c r="BB67" s="20"/>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.3">
       <c r="D68">
@@ -3917,5144 +3922,5209 @@
       <c r="K82" s="4"/>
     </row>
     <row r="88" spans="11:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AV88" s="15" t="s">
+      <c r="AV88" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="AW88" s="15"/>
-      <c r="AX88" s="15"/>
-      <c r="AY88" s="15"/>
-      <c r="AZ88" s="15"/>
-      <c r="BA88" s="15"/>
-      <c r="BB88" s="15"/>
-      <c r="BC88" s="15"/>
-      <c r="BD88" s="15"/>
-      <c r="BE88" s="15"/>
-      <c r="BF88" s="15"/>
-      <c r="BG88" s="15"/>
-      <c r="BH88" s="15"/>
-      <c r="BI88" s="15"/>
-      <c r="BJ88" s="15"/>
-      <c r="BK88" s="15"/>
-      <c r="BL88" s="15"/>
+      <c r="AW88" s="18"/>
+      <c r="AX88" s="18"/>
+      <c r="AY88" s="18"/>
+      <c r="AZ88" s="18"/>
+      <c r="BA88" s="18"/>
+      <c r="BB88" s="18"/>
+      <c r="BC88" s="18"/>
+      <c r="BD88" s="18"/>
+      <c r="BE88" s="18"/>
+      <c r="BF88" s="18"/>
+      <c r="BG88" s="18"/>
+      <c r="BH88" s="18"/>
+      <c r="BI88" s="18"/>
+      <c r="BJ88" s="18"/>
+      <c r="BK88" s="18"/>
+      <c r="BL88" s="18"/>
     </row>
     <row r="89" spans="11:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV89" s="16"/>
-      <c r="AW89" s="16"/>
-      <c r="AX89" s="16"/>
-      <c r="AY89" s="16"/>
-      <c r="AZ89" s="16"/>
-      <c r="BA89" s="16"/>
-      <c r="BB89" s="16"/>
-      <c r="BC89" s="16"/>
-      <c r="BD89" s="16"/>
-      <c r="BE89" s="16"/>
-      <c r="BF89" s="16"/>
-      <c r="BG89" s="16"/>
-      <c r="BH89" s="16"/>
-      <c r="BI89" s="16"/>
-      <c r="BJ89" s="16"/>
-      <c r="BK89" s="16"/>
-      <c r="BL89" s="16"/>
+      <c r="AV89" s="19"/>
+      <c r="AW89" s="19"/>
+      <c r="AX89" s="19"/>
+      <c r="AY89" s="19"/>
+      <c r="AZ89" s="19"/>
+      <c r="BA89" s="19"/>
+      <c r="BB89" s="19"/>
+      <c r="BC89" s="19"/>
+      <c r="BD89" s="19"/>
+      <c r="BE89" s="19"/>
+      <c r="BF89" s="19"/>
+      <c r="BG89" s="19"/>
+      <c r="BH89" s="19"/>
+      <c r="BI89" s="19"/>
+      <c r="BJ89" s="19"/>
+      <c r="BK89" s="19"/>
+      <c r="BL89" s="19"/>
     </row>
     <row r="90" spans="11:64" ht="21" x14ac:dyDescent="0.4">
-      <c r="AV90" s="17" t="s">
+      <c r="AV90" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AW90" s="17" t="s">
+      <c r="AW90" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AX90" s="17" t="s">
+      <c r="AX90" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="AY90" s="17" t="s">
+      <c r="AY90" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AZ90" s="17" t="s">
+      <c r="AZ90" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="BA90" s="17" t="s">
+      <c r="BA90" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="BB90" s="17" t="s">
+      <c r="BB90" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="BC90" s="17" t="s">
+      <c r="BC90" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="BD90" s="17" t="s">
+      <c r="BD90" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="BE90" s="17" t="s">
+      <c r="BE90" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="BF90" s="17" t="s">
+      <c r="BF90" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="BG90" s="17" t="s">
+      <c r="BG90" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="BH90" s="17" t="s">
+      <c r="BH90" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI90" s="17" t="s">
+      <c r="BI90" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ90" s="17" t="s">
+      <c r="BJ90" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BK90" s="17" t="s">
+      <c r="BK90" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="BL90" s="17" t="s">
+      <c r="BL90" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="91" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV91" s="18">
+      <c r="AV91" s="12">
         <v>21000</v>
       </c>
-      <c r="AW91" s="18" t="s">
+      <c r="AW91" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AX91" s="18" t="s">
+      <c r="AX91" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AY91" s="18" t="s">
+      <c r="AY91" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AZ91" s="18" t="s">
+      <c r="AZ91" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BA91" s="19">
+      <c r="BA91" s="13">
         <v>43391</v>
       </c>
-      <c r="BB91" s="18">
+      <c r="BB91" s="12">
         <v>1234484456</v>
       </c>
-      <c r="BC91" s="20" t="str">
+      <c r="BC91" s="14" t="str">
         <f>LOWER(AW91)</f>
         <v>ram</v>
       </c>
-      <c r="BD91" s="20" t="s">
+      <c r="BD91" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="BE91" s="20" t="str">
+      <c r="BE91" s="14" t="str">
         <f>UPPER(BD91)</f>
         <v>PATNA</v>
       </c>
-      <c r="BF91" s="20" t="str">
+      <c r="BF91" s="14" t="str">
         <f>_xlfn.CONCAT(AY91,"@",AZ91)</f>
         <v>kumar@gmail.com</v>
       </c>
-      <c r="BG91" s="20" t="str">
+      <c r="BG91" s="14" t="str">
         <f>MID(BB91,1,3)</f>
         <v>123</v>
       </c>
-      <c r="BH91" s="20">
+      <c r="BH91" s="14">
         <f>LEN(BF91)</f>
         <v>15</v>
       </c>
-      <c r="BI91" s="20">
+      <c r="BI91" s="14">
         <f>YEAR(BA91)</f>
         <v>2018</v>
       </c>
-      <c r="BJ91" s="21">
+      <c r="BJ91" s="14">
         <f>DAY(BA91)</f>
         <v>18</v>
       </c>
-      <c r="BK91" s="20">
+      <c r="BK91" s="14">
         <f>DATEDIF(BA91,BA92,"md")</f>
         <v>0</v>
       </c>
-      <c r="BL91" s="22">
+      <c r="BL91" s="15">
         <f>WEEKDAY(BA91)</f>
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV92" s="18">
+      <c r="AV92" s="12">
         <v>21001</v>
       </c>
-      <c r="AW92" s="18" t="s">
+      <c r="AW92" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AX92" s="18" t="s">
+      <c r="AX92" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AY92" s="18" t="s">
+      <c r="AY92" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AZ92" s="18" t="s">
+      <c r="AZ92" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BA92" s="19">
+      <c r="BA92" s="13">
         <v>43422</v>
       </c>
-      <c r="BB92" s="18">
+      <c r="BB92" s="12">
         <v>1234484489</v>
       </c>
-      <c r="BC92" s="20" t="str">
+      <c r="BC92" s="14" t="str">
         <f t="shared" ref="BC92:BC101" si="8">LOWER(AW92)</f>
         <v>mohan</v>
       </c>
-      <c r="BD92" s="20" t="s">
+      <c r="BD92" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="BE92" s="20" t="str">
+      <c r="BE92" s="14" t="str">
         <f t="shared" ref="BE92:BE101" si="9">UPPER(BD92)</f>
         <v>DELHI</v>
       </c>
-      <c r="BF92" s="20" t="str">
+      <c r="BF92" s="14" t="str">
         <f t="shared" ref="BF92:BF101" si="10">_xlfn.CONCAT(AY92,"@",AZ92)</f>
         <v>gupta@yahoo.com</v>
       </c>
-      <c r="BG92" s="20" t="str">
+      <c r="BG92" s="14" t="str">
         <f t="shared" ref="BG92:BG94" si="11">MID(BB92,1,3)</f>
         <v>123</v>
       </c>
-      <c r="BH92" s="20">
-        <f t="shared" ref="BH92:BH102" si="12">LEN(BF92)</f>
+      <c r="BH92" s="14">
+        <f t="shared" ref="BH92:BH101" si="12">LEN(BF92)</f>
         <v>15</v>
       </c>
-      <c r="BI92" s="20">
+      <c r="BI92" s="14">
         <f t="shared" ref="BI92:BI101" si="13">YEAR(BA92)</f>
         <v>2018</v>
       </c>
-      <c r="BJ92" s="21">
+      <c r="BJ92" s="14">
         <f t="shared" ref="BJ92:BJ101" si="14">DAY(BA92)</f>
         <v>18</v>
       </c>
-      <c r="BK92" s="20">
+      <c r="BK92" s="14">
         <f t="shared" ref="BK92:BK100" si="15">DATEDIF(BA92,BA93,"md")</f>
         <v>0</v>
       </c>
-      <c r="BL92" s="22">
+      <c r="BL92" s="15">
         <f t="shared" ref="BL92:BL101" si="16">WEEKDAY(BA92)</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV93" s="18">
+      <c r="AV93" s="12">
         <v>21002</v>
       </c>
-      <c r="AW93" s="18" t="s">
+      <c r="AW93" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AX93" s="18" t="s">
+      <c r="AX93" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AY93" s="18" t="s">
+      <c r="AY93" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AZ93" s="18" t="s">
+      <c r="AZ93" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BA93" s="19">
+      <c r="BA93" s="13">
         <v>43452</v>
       </c>
-      <c r="BB93" s="18">
+      <c r="BB93" s="12">
         <v>1234484522</v>
       </c>
-      <c r="BC93" s="20" t="str">
+      <c r="BC93" s="14" t="str">
         <f t="shared" si="8"/>
         <v>krishna</v>
       </c>
-      <c r="BD93" s="20" t="s">
+      <c r="BD93" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="BE93" s="20" t="str">
+      <c r="BE93" s="14" t="str">
         <f t="shared" si="9"/>
         <v>MUMBAI</v>
       </c>
-      <c r="BF93" s="20" t="str">
+      <c r="BF93" s="14" t="str">
         <f t="shared" si="10"/>
         <v>raj@gmail.com</v>
       </c>
-      <c r="BG93" s="20" t="str">
+      <c r="BG93" s="14" t="str">
         <f t="shared" si="11"/>
         <v>123</v>
       </c>
-      <c r="BH93" s="20">
+      <c r="BH93" s="14">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="BI93" s="20">
+      <c r="BI93" s="14">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="BJ93" s="21">
+      <c r="BJ93" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK93" s="20">
+      <c r="BK93" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL93" s="22">
+      <c r="BL93" s="15">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV94" s="18">
+      <c r="AV94" s="12">
         <v>21003</v>
       </c>
-      <c r="AW94" s="18" t="s">
+      <c r="AW94" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AX94" s="18" t="s">
+      <c r="AX94" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AY94" s="18" t="s">
+      <c r="AY94" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AZ94" s="18" t="s">
+      <c r="AZ94" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BA94" s="19">
+      <c r="BA94" s="13">
         <v>43483</v>
       </c>
-      <c r="BB94" s="18">
+      <c r="BB94" s="12">
         <v>1234484555</v>
       </c>
-      <c r="BC94" s="20" t="str">
+      <c r="BC94" s="14" t="str">
         <f>LOWER(AW94)</f>
         <v>rahul</v>
       </c>
-      <c r="BD94" s="20" t="s">
+      <c r="BD94" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="BE94" s="20" t="str">
+      <c r="BE94" s="14" t="str">
         <f t="shared" si="9"/>
         <v>KOLKATA</v>
       </c>
-      <c r="BF94" s="20" t="str">
+      <c r="BF94" s="14" t="str">
         <f t="shared" si="10"/>
         <v>kumar@yahoo.com</v>
       </c>
-      <c r="BG94" s="20" t="str">
+      <c r="BG94" s="14" t="str">
         <f t="shared" si="11"/>
         <v>123</v>
       </c>
-      <c r="BH94" s="20">
+      <c r="BH94" s="14">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="BI94" s="20">
+      <c r="BI94" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ94" s="21">
+      <c r="BJ94" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK94" s="20">
+      <c r="BK94" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL94" s="22">
+      <c r="BL94" s="15">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV95" s="18">
+      <c r="AV95" s="12">
         <v>21004</v>
       </c>
-      <c r="AW95" s="18" t="s">
+      <c r="AW95" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AX95" s="18" t="s">
+      <c r="AX95" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AY95" s="18" t="s">
+      <c r="AY95" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AZ95" s="18" t="s">
+      <c r="AZ95" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BA95" s="19">
+      <c r="BA95" s="13">
         <v>43514</v>
       </c>
-      <c r="BB95" s="18">
+      <c r="BB95" s="12">
         <v>1234484588</v>
       </c>
-      <c r="BC95" s="20" t="str">
+      <c r="BC95" s="14" t="str">
         <f t="shared" si="8"/>
         <v>madison blake</v>
       </c>
-      <c r="BD95" s="20" t="s">
+      <c r="BD95" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="BE95" s="20" t="str">
+      <c r="BE95" s="14" t="str">
         <f t="shared" si="9"/>
         <v>PATNA</v>
       </c>
-      <c r="BF95" s="20" t="str">
+      <c r="BF95" s="14" t="str">
         <f t="shared" si="10"/>
         <v>gupta@gmail.com</v>
       </c>
-      <c r="BG95" s="20" t="str">
+      <c r="BG95" s="14" t="str">
         <f t="shared" ref="BG95:BG101" si="17">MID(BB95,4,7)</f>
         <v>4484588</v>
       </c>
-      <c r="BH95" s="20">
+      <c r="BH95" s="14">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="BI95" s="20">
+      <c r="BI95" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ95" s="21">
+      <c r="BJ95" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK95" s="20">
+      <c r="BK95" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL95" s="22">
+      <c r="BL95" s="15">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="11:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV96" s="18">
+      <c r="AV96" s="12">
         <v>21005</v>
       </c>
-      <c r="AW96" s="18" t="s">
+      <c r="AW96" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AX96" s="18" t="s">
+      <c r="AX96" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AY96" s="18" t="s">
+      <c r="AY96" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AZ96" s="18" t="s">
+      <c r="AZ96" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BA96" s="19">
+      <c r="BA96" s="13">
         <v>43542</v>
       </c>
-      <c r="BB96" s="18">
+      <c r="BB96" s="12">
         <v>1234484621</v>
       </c>
-      <c r="BC96" s="20" t="str">
+      <c r="BC96" s="14" t="str">
         <f t="shared" si="8"/>
         <v>xavier nguyen</v>
       </c>
-      <c r="BD96" s="20" t="s">
+      <c r="BD96" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="BE96" s="20" t="str">
+      <c r="BE96" s="14" t="str">
         <f t="shared" si="9"/>
         <v>DELHI</v>
       </c>
-      <c r="BF96" s="20" t="str">
+      <c r="BF96" s="14" t="str">
         <f t="shared" si="10"/>
         <v>raj@yahoo.com</v>
       </c>
-      <c r="BG96" s="20" t="str">
+      <c r="BG96" s="14" t="str">
         <f t="shared" si="17"/>
         <v>4484621</v>
       </c>
-      <c r="BH96" s="20">
+      <c r="BH96" s="14">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="BI96" s="20">
+      <c r="BI96" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ96" s="21">
+      <c r="BJ96" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK96" s="20">
+      <c r="BK96" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL96" s="22">
+      <c r="BL96" s="15">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV97" s="18">
+    <row r="97" spans="48:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV97" s="12">
         <v>21006</v>
       </c>
-      <c r="AW97" s="18" t="s">
+      <c r="AW97" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AX97" s="18" t="s">
+      <c r="AX97" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AY97" s="18" t="s">
+      <c r="AY97" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AZ97" s="18" t="s">
+      <c r="AZ97" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BA97" s="19">
+      <c r="BA97" s="13">
         <v>43573</v>
       </c>
-      <c r="BB97" s="18">
+      <c r="BB97" s="12">
         <v>1234484654</v>
       </c>
-      <c r="BC97" s="20" t="str">
+      <c r="BC97" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ava patel</v>
       </c>
-      <c r="BD97" s="20" t="s">
+      <c r="BD97" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="BE97" s="20" t="str">
+      <c r="BE97" s="14" t="str">
         <f t="shared" si="9"/>
         <v>MUMBAI</v>
       </c>
-      <c r="BF97" s="20" t="str">
+      <c r="BF97" s="14" t="str">
         <f t="shared" si="10"/>
         <v>kumar@gmail.com</v>
       </c>
-      <c r="BG97" s="20" t="str">
+      <c r="BG97" s="14" t="str">
         <f t="shared" si="17"/>
         <v>4484654</v>
       </c>
-      <c r="BH97" s="20">
+      <c r="BH97" s="14">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="BI97" s="20">
+      <c r="BI97" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ97" s="21">
+      <c r="BJ97" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK97" s="20">
+      <c r="BK97" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL97" s="22">
+      <c r="BL97" s="15">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AT98" s="14"/>
-      <c r="AV98" s="18">
+    <row r="98" spans="48:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV98" s="12">
         <v>21007</v>
       </c>
-      <c r="AW98" s="18" t="s">
+      <c r="AW98" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AX98" s="18" t="s">
+      <c r="AX98" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AY98" s="18" t="s">
+      <c r="AY98" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AZ98" s="18" t="s">
+      <c r="AZ98" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BA98" s="19">
+      <c r="BA98" s="13">
         <v>43603</v>
       </c>
-      <c r="BB98" s="18">
+      <c r="BB98" s="12">
         <v>1234484687</v>
       </c>
-      <c r="BC98" s="20" t="str">
+      <c r="BC98" s="14" t="str">
         <f t="shared" si="8"/>
         <v>dylan murphy</v>
       </c>
-      <c r="BD98" s="20" t="s">
+      <c r="BD98" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="BE98" s="20" t="str">
+      <c r="BE98" s="14" t="str">
         <f t="shared" si="9"/>
         <v>KOLKATA</v>
       </c>
-      <c r="BF98" s="20" t="str">
+      <c r="BF98" s="14" t="str">
         <f t="shared" si="10"/>
         <v>gupta@yahoo.com</v>
       </c>
-      <c r="BG98" s="20" t="str">
+      <c r="BG98" s="14" t="str">
         <f t="shared" si="17"/>
         <v>4484687</v>
       </c>
-      <c r="BH98" s="20">
+      <c r="BH98" s="14">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="BI98" s="20">
+      <c r="BI98" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ98" s="21">
+      <c r="BJ98" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK98" s="20">
+      <c r="BK98" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL98" s="22">
+      <c r="BL98" s="15">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV99" s="18">
+    <row r="99" spans="48:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV99" s="12">
         <v>21008</v>
       </c>
-      <c r="AW99" s="18" t="s">
+      <c r="AW99" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AX99" s="18" t="s">
+      <c r="AX99" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AY99" s="18" t="s">
+      <c r="AY99" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AZ99" s="18" t="s">
+      <c r="AZ99" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BA99" s="19">
+      <c r="BA99" s="13">
         <v>43634</v>
       </c>
-      <c r="BB99" s="18">
+      <c r="BB99" s="12">
         <v>1234484720</v>
       </c>
-      <c r="BC99" s="20" t="str">
+      <c r="BC99" s="14" t="str">
         <f t="shared" si="8"/>
         <v>sofia kim</v>
       </c>
-      <c r="BD99" s="20" t="s">
+      <c r="BD99" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="BE99" s="20" t="str">
+      <c r="BE99" s="14" t="str">
         <f t="shared" si="9"/>
         <v>PATNA</v>
       </c>
-      <c r="BF99" s="20" t="str">
+      <c r="BF99" s="14" t="str">
         <f t="shared" si="10"/>
         <v>raj@gmail.com</v>
       </c>
-      <c r="BG99" s="20" t="str">
+      <c r="BG99" s="14" t="str">
         <f t="shared" si="17"/>
         <v>4484720</v>
       </c>
-      <c r="BH99" s="20">
+      <c r="BH99" s="14">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="BI99" s="20">
+      <c r="BI99" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ99" s="21">
+      <c r="BJ99" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK99" s="20">
+      <c r="BK99" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL99" s="22">
+      <c r="BL99" s="15">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV100" s="18">
+    <row r="100" spans="48:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV100" s="12">
         <v>21009</v>
       </c>
-      <c r="AW100" s="18" t="s">
+      <c r="AW100" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AX100" s="18" t="s">
+      <c r="AX100" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AY100" s="18" t="s">
+      <c r="AY100" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AZ100" s="18" t="s">
+      <c r="AZ100" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BA100" s="19">
+      <c r="BA100" s="13">
         <v>43664</v>
       </c>
-      <c r="BB100" s="18">
+      <c r="BB100" s="12">
         <v>1234484753</v>
       </c>
-      <c r="BC100" s="20" t="str">
+      <c r="BC100" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ethan santos</v>
       </c>
-      <c r="BD100" s="20" t="s">
+      <c r="BD100" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="BE100" s="20" t="str">
+      <c r="BE100" s="14" t="str">
         <f t="shared" si="9"/>
         <v>DELHI</v>
       </c>
-      <c r="BF100" s="20" t="str">
+      <c r="BF100" s="14" t="str">
         <f t="shared" si="10"/>
         <v>kumar@yahoo.com</v>
       </c>
-      <c r="BG100" s="20" t="str">
+      <c r="BG100" s="14" t="str">
         <f t="shared" si="17"/>
         <v>4484753</v>
       </c>
-      <c r="BH100" s="20">
+      <c r="BH100" s="14">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="BI100" s="20">
+      <c r="BI100" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ100" s="21">
+      <c r="BJ100" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK100" s="20">
+      <c r="BK100" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL100" s="22">
+      <c r="BL100" s="15">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="46:64" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="AV101" s="18">
+    <row r="101" spans="48:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV101" s="12">
         <v>21010</v>
       </c>
-      <c r="AW101" s="18" t="s">
+      <c r="AW101" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AX101" s="18" t="s">
+      <c r="AX101" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AY101" s="18" t="s">
+      <c r="AY101" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AZ101" s="18" t="s">
+      <c r="AZ101" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BA101" s="19">
+      <c r="BA101" s="13">
         <v>43695</v>
       </c>
-      <c r="BB101" s="18">
+      <c r="BB101" s="12">
         <v>1234484786</v>
       </c>
-      <c r="BC101" s="20" t="str">
+      <c r="BC101" s="14" t="str">
         <f t="shared" si="8"/>
         <v>shyam</v>
       </c>
-      <c r="BD101" s="20" t="s">
+      <c r="BD101" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="BE101" s="20" t="str">
+      <c r="BE101" s="14" t="str">
         <f t="shared" si="9"/>
         <v>MUMBAI</v>
       </c>
-      <c r="BF101" s="20" t="str">
+      <c r="BF101" s="14" t="str">
         <f t="shared" si="10"/>
         <v>gupta@gmail.com</v>
       </c>
-      <c r="BG101" s="20" t="str">
+      <c r="BG101" s="14" t="str">
         <f t="shared" si="17"/>
         <v>4484786</v>
       </c>
-      <c r="BH101" s="20">
+      <c r="BH101" s="14">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="BI101" s="20">
+      <c r="BI101" s="14">
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="BJ101" s="21">
+      <c r="BJ101" s="14">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="BK101" s="20" t="s">
+      <c r="BK101" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="BL101" s="22">
+      <c r="BL101" s="15">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="77:82" x14ac:dyDescent="0.3">
-      <c r="BY130" s="24" t="s">
+      <c r="BY130" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="BZ130" s="24" t="s">
+      <c r="BZ130" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="CA130" s="24" t="s">
+      <c r="CA130" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="CB130" s="24" t="s">
+      <c r="CB130" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="CC130" s="24" t="s">
+      <c r="CC130" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="CD130" s="24" t="s">
+      <c r="CD130" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="131" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY131" s="23">
+      <c r="BY131">
         <v>7</v>
       </c>
-      <c r="BZ131" s="23" t="s">
+      <c r="BZ131" t="s">
         <v>164</v>
       </c>
-      <c r="CA131" s="23" t="s">
+      <c r="CA131" t="s">
         <v>162</v>
       </c>
-      <c r="CB131" s="25">
+      <c r="CB131" s="17">
         <v>9062</v>
       </c>
-      <c r="CC131" s="26">
+      <c r="CC131" s="1">
         <v>42380</v>
       </c>
-      <c r="CD131" s="23" t="s">
+      <c r="CD131" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="132" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY132" s="23">
+      <c r="BY132">
         <v>26</v>
       </c>
-      <c r="BZ132" s="23" t="s">
+      <c r="BZ132" t="s">
         <v>161</v>
       </c>
-      <c r="CA132" s="23" t="s">
+      <c r="CA132" t="s">
         <v>162</v>
       </c>
-      <c r="CB132" s="25">
+      <c r="CB132" s="17">
         <v>5154</v>
       </c>
-      <c r="CC132" s="26">
+      <c r="CC132" s="1">
         <v>42417</v>
       </c>
-      <c r="CD132" s="23" t="s">
+      <c r="CD132" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="133" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY133" s="23">
+      <c r="BY133">
         <v>32</v>
       </c>
-      <c r="BZ133" s="23" t="s">
+      <c r="BZ133" t="s">
         <v>174</v>
       </c>
-      <c r="CA133" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB133" s="25">
+      <c r="CA133" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB133" s="17">
         <v>8892</v>
       </c>
-      <c r="CC133" s="26">
+      <c r="CC133" s="1">
         <v>42423</v>
       </c>
-      <c r="CD133" s="23" t="s">
+      <c r="CD133" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="134" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY134" s="23">
+      <c r="BY134">
         <v>36</v>
       </c>
-      <c r="BZ134" s="23" t="s">
+      <c r="BZ134" t="s">
         <v>174</v>
       </c>
-      <c r="CA134" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB134" s="25">
+      <c r="CA134" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB134" s="17">
         <v>5718</v>
       </c>
-      <c r="CC134" s="26">
+      <c r="CC134" s="1">
         <v>42433</v>
       </c>
-      <c r="CD134" s="23" t="s">
+      <c r="CD134" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="135" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY135" s="23">
+      <c r="BY135">
         <v>44</v>
       </c>
-      <c r="BZ135" s="23" t="s">
+      <c r="BZ135" t="s">
         <v>166</v>
       </c>
-      <c r="CA135" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB135" s="25">
+      <c r="CA135" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB135" s="17">
         <v>9400</v>
       </c>
-      <c r="CC135" s="26">
+      <c r="CC135" s="1">
         <v>42448</v>
       </c>
-      <c r="CD135" s="23" t="s">
+      <c r="CD135" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="136" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY136" s="23">
+      <c r="BY136">
         <v>49</v>
       </c>
-      <c r="BZ136" s="23" t="s">
+      <c r="BZ136" t="s">
         <v>166</v>
       </c>
-      <c r="CA136" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB136" s="25">
+      <c r="CA136" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB136" s="17">
         <v>4029</v>
       </c>
-      <c r="CC136" s="26">
+      <c r="CC136" s="1">
         <v>42455</v>
       </c>
-      <c r="CD136" s="23" t="s">
+      <c r="CD136" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="137" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY137" s="23">
+      <c r="BY137">
         <v>52</v>
       </c>
-      <c r="BZ137" s="23" t="s">
+      <c r="BZ137" t="s">
         <v>176</v>
       </c>
-      <c r="CA137" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB137" s="25">
+      <c r="CA137" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB137" s="17">
         <v>3663</v>
       </c>
-      <c r="CC137" s="26">
+      <c r="CC137" s="1">
         <v>42459</v>
       </c>
-      <c r="CD137" s="23" t="s">
+      <c r="CD137" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="138" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY138" s="23">
+      <c r="BY138">
         <v>60</v>
       </c>
-      <c r="BZ138" s="23" t="s">
+      <c r="BZ138" t="s">
         <v>171</v>
       </c>
-      <c r="CA138" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB138" s="25">
+      <c r="CA138" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB138" s="17">
         <v>1113</v>
       </c>
-      <c r="CC138" s="26">
+      <c r="CC138" s="1">
         <v>42478</v>
       </c>
-      <c r="CD138" s="23" t="s">
+      <c r="CD138" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="139" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY139" s="23">
+      <c r="BY139">
         <v>84</v>
       </c>
-      <c r="BZ139" s="23" t="s">
+      <c r="BZ139" t="s">
         <v>166</v>
       </c>
-      <c r="CA139" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB139" s="25">
+      <c r="CA139" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB139" s="17">
         <v>4248</v>
       </c>
-      <c r="CC139" s="26">
+      <c r="CC139" s="1">
         <v>42505</v>
       </c>
-      <c r="CD139" s="23" t="s">
+      <c r="CD139" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="140" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY140" s="23">
+      <c r="BY140">
         <v>89</v>
       </c>
-      <c r="BZ140" s="23" t="s">
+      <c r="BZ140" t="s">
         <v>174</v>
       </c>
-      <c r="CA140" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB140" s="25">
+      <c r="CA140" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB140" s="17">
         <v>4264</v>
       </c>
-      <c r="CC140" s="26">
+      <c r="CC140" s="1">
         <v>42509</v>
       </c>
-      <c r="CD140" s="23" t="s">
+      <c r="CD140" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="141" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY141" s="23">
+      <c r="BY141">
         <v>95</v>
       </c>
-      <c r="BZ141" s="23" t="s">
+      <c r="BZ141" t="s">
         <v>169</v>
       </c>
-      <c r="CA141" s="23" t="s">
+      <c r="CA141" t="s">
         <v>162</v>
       </c>
-      <c r="CB141" s="25">
+      <c r="CB141" s="17">
         <v>1002</v>
       </c>
-      <c r="CC141" s="26">
+      <c r="CC141" s="1">
         <v>42515</v>
       </c>
-      <c r="CD141" s="23" t="s">
+      <c r="CD141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="142" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY142" s="23">
+      <c r="BY142">
         <v>98</v>
       </c>
-      <c r="BZ142" s="23" t="s">
+      <c r="BZ142" t="s">
         <v>171</v>
       </c>
-      <c r="CA142" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB142" s="25">
+      <c r="CA142" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB142" s="17">
         <v>1380</v>
       </c>
-      <c r="CC142" s="26">
+      <c r="CC142" s="1">
         <v>42516</v>
       </c>
-      <c r="CD142" s="23" t="s">
+      <c r="CD142" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="143" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY143" s="23">
+      <c r="BY143">
         <v>113</v>
       </c>
-      <c r="BZ143" s="23" t="s">
+      <c r="BZ143" t="s">
         <v>164</v>
       </c>
-      <c r="CA143" s="23" t="s">
+      <c r="CA143" t="s">
         <v>162</v>
       </c>
-      <c r="CB143" s="25">
+      <c r="CB143" s="17">
         <v>8891</v>
       </c>
-      <c r="CC143" s="26">
+      <c r="CC143" s="1">
         <v>42544</v>
       </c>
-      <c r="CD143" s="23" t="s">
+      <c r="CD143" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="144" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY144" s="23">
+      <c r="BY144">
         <v>132</v>
       </c>
-      <c r="BZ144" s="23" t="s">
+      <c r="BZ144" t="s">
         <v>166</v>
       </c>
-      <c r="CA144" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB144" s="25">
+      <c r="CA144" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB144" s="17">
         <v>7966</v>
       </c>
-      <c r="CC144" s="26">
+      <c r="CC144" s="1">
         <v>42581</v>
       </c>
-      <c r="CD144" s="23" t="s">
+      <c r="CD144" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="145" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY145" s="23">
+      <c r="BY145">
         <v>134</v>
       </c>
-      <c r="BZ145" s="23" t="s">
+      <c r="BZ145" t="s">
         <v>169</v>
       </c>
-      <c r="CA145" s="23" t="s">
+      <c r="CA145" t="s">
         <v>162</v>
       </c>
-      <c r="CB145" s="25">
+      <c r="CB145" s="17">
         <v>8416</v>
       </c>
-      <c r="CC145" s="26">
+      <c r="CC145" s="1">
         <v>42582</v>
       </c>
-      <c r="CD145" s="23" t="s">
+      <c r="CD145" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="146" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY146" s="23">
+      <c r="BY146">
         <v>151</v>
       </c>
-      <c r="BZ146" s="23" t="s">
+      <c r="BZ146" t="s">
         <v>166</v>
       </c>
-      <c r="CA146" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB146" s="25">
+      <c r="CA146" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB146" s="17">
         <v>424</v>
       </c>
-      <c r="CC146" s="26">
+      <c r="CC146" s="1">
         <v>42618</v>
       </c>
-      <c r="CD146" s="23" t="s">
+      <c r="CD146" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="147" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY147" s="23">
+      <c r="BY147">
         <v>162</v>
       </c>
-      <c r="BZ147" s="23" t="s">
+      <c r="BZ147" t="s">
         <v>176</v>
       </c>
-      <c r="CA147" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB147" s="25">
+      <c r="CA147" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB147" s="17">
         <v>5523</v>
       </c>
-      <c r="CC147" s="26">
+      <c r="CC147" s="1">
         <v>42638</v>
       </c>
-      <c r="CD147" s="23" t="s">
+      <c r="CD147" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="148" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY148" s="23">
+      <c r="BY148">
         <v>165</v>
       </c>
-      <c r="BZ148" s="23" t="s">
+      <c r="BZ148" t="s">
         <v>171</v>
       </c>
-      <c r="CA148" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB148" s="25">
+      <c r="CA148" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB148" s="17">
         <v>6187</v>
       </c>
-      <c r="CC148" s="26">
+      <c r="CC148" s="1">
         <v>42640</v>
       </c>
-      <c r="CD148" s="23" t="s">
+      <c r="CD148" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="149" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY149" s="23">
+      <c r="BY149">
         <v>168</v>
       </c>
-      <c r="BZ149" s="23" t="s">
+      <c r="BZ149" t="s">
         <v>166</v>
       </c>
-      <c r="CA149" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB149" s="25">
+      <c r="CA149" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB149" s="17">
         <v>793</v>
       </c>
-      <c r="CC149" s="26">
+      <c r="CC149" s="1">
         <v>42646</v>
       </c>
-      <c r="CD149" s="23" t="s">
+      <c r="CD149" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="150" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY150" s="23">
+      <c r="BY150">
         <v>175</v>
       </c>
-      <c r="BZ150" s="23" t="s">
+      <c r="BZ150" t="s">
         <v>166</v>
       </c>
-      <c r="CA150" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB150" s="25">
+      <c r="CA150" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB150" s="17">
         <v>7273</v>
       </c>
-      <c r="CC150" s="26">
+      <c r="CC150" s="1">
         <v>42668</v>
       </c>
-      <c r="CD150" s="23" t="s">
+      <c r="CD150" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="151" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY151" s="23">
+      <c r="BY151">
         <v>177</v>
       </c>
-      <c r="BZ151" s="23" t="s">
+      <c r="BZ151" t="s">
         <v>166</v>
       </c>
-      <c r="CA151" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB151" s="25">
+      <c r="CA151" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB151" s="17">
         <v>1197</v>
       </c>
-      <c r="CC151" s="26">
+      <c r="CC151" s="1">
         <v>42669</v>
       </c>
-      <c r="CD151" s="23" t="s">
+      <c r="CD151" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="152" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY152" s="23">
+      <c r="BY152">
         <v>178</v>
       </c>
-      <c r="BZ152" s="23" t="s">
+      <c r="BZ152" t="s">
         <v>169</v>
       </c>
-      <c r="CA152" s="23" t="s">
+      <c r="CA152" t="s">
         <v>162</v>
       </c>
-      <c r="CB152" s="25">
+      <c r="CB152" s="17">
         <v>5015</v>
       </c>
-      <c r="CC152" s="26">
+      <c r="CC152" s="1">
         <v>42669</v>
       </c>
-      <c r="CD152" s="23" t="s">
+      <c r="CD152" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="153" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY153" s="23">
+      <c r="BY153">
         <v>189</v>
       </c>
-      <c r="BZ153" s="23" t="s">
+      <c r="BZ153" t="s">
         <v>166</v>
       </c>
-      <c r="CA153" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB153" s="25">
+      <c r="CA153" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB153" s="17">
         <v>9014</v>
       </c>
-      <c r="CC153" s="26">
+      <c r="CC153" s="1">
         <v>42702</v>
       </c>
-      <c r="CD153" s="23" t="s">
+      <c r="CD153" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="154" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY154" s="23">
+      <c r="BY154">
         <v>197</v>
       </c>
-      <c r="BZ154" s="23" t="s">
+      <c r="BZ154" t="s">
         <v>166</v>
       </c>
-      <c r="CA154" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB154" s="25">
+      <c r="CA154" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB154" s="17">
         <v>8377</v>
       </c>
-      <c r="CC154" s="26">
+      <c r="CC154" s="1">
         <v>42716</v>
       </c>
-      <c r="CD154" s="23" t="s">
+      <c r="CD154" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="155" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY155" s="23">
+      <c r="BY155">
         <v>201</v>
       </c>
-      <c r="BZ155" s="23" t="s">
+      <c r="BZ155" t="s">
         <v>174</v>
       </c>
-      <c r="CA155" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB155" s="25">
+      <c r="CA155" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB155" s="17">
         <v>1760</v>
       </c>
-      <c r="CC155" s="26">
+      <c r="CC155" s="1">
         <v>42720</v>
       </c>
-      <c r="CD155" s="23" t="s">
+      <c r="CD155" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="156" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY156" s="23">
+      <c r="BY156">
         <v>212</v>
       </c>
-      <c r="BZ156" s="23" t="s">
+      <c r="BZ156" t="s">
         <v>161</v>
       </c>
-      <c r="CA156" s="23" t="s">
+      <c r="CA156" t="s">
         <v>162</v>
       </c>
-      <c r="CB156" s="25">
+      <c r="CB156" s="17">
         <v>2613</v>
       </c>
-      <c r="CC156" s="26">
+      <c r="CC156" s="1">
         <v>42733</v>
       </c>
-      <c r="CD156" s="23" t="s">
+      <c r="CD156" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="157" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY157" s="23">
+      <c r="BY157">
         <v>213</v>
       </c>
-      <c r="BZ157" s="23" t="s">
+      <c r="BZ157" t="s">
         <v>161</v>
       </c>
-      <c r="CA157" s="23" t="s">
+      <c r="CA157" t="s">
         <v>162</v>
       </c>
-      <c r="CB157" s="25">
+      <c r="CB157" s="17">
         <v>339</v>
       </c>
-      <c r="CC157" s="26">
+      <c r="CC157" s="1">
         <v>42734</v>
       </c>
-      <c r="CD157" s="23" t="s">
+      <c r="CD157" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="CB158" s="25">
+    <row r="158" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB158" s="17">
         <f>SUBTOTAL(9,CB131:CB157)</f>
         <v>131713</v>
       </c>
-      <c r="CC158" s="26"/>
-      <c r="CD158" s="24" t="s">
+      <c r="CC158" s="1"/>
+      <c r="CD158" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY159" s="23">
+    <row r="159" spans="77:82" x14ac:dyDescent="0.3">
+      <c r="BY159">
         <v>4</v>
       </c>
-      <c r="BZ159" s="23" t="s">
+      <c r="BZ159" t="s">
         <v>166</v>
       </c>
-      <c r="CA159" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB159" s="25">
+      <c r="CA159" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB159" s="17">
         <v>8384</v>
       </c>
-      <c r="CC159" s="26">
+      <c r="CC159" s="1">
         <v>42379</v>
       </c>
-      <c r="CD159" s="23" t="s">
+      <c r="CD159" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="160" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY160" s="23">
+      <c r="BY160">
         <v>10</v>
       </c>
-      <c r="BZ160" s="23" t="s">
+      <c r="BZ160" t="s">
         <v>174</v>
       </c>
-      <c r="CA160" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB160" s="25">
+      <c r="CA160" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB160" s="17">
         <v>7431</v>
       </c>
-      <c r="CC160" s="26">
+      <c r="CC160" s="1">
         <v>42385</v>
       </c>
-      <c r="CD160" s="23" t="s">
+      <c r="CD160" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="161" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY161" s="23">
+      <c r="BY161">
+        <v>23</v>
+      </c>
+      <c r="BZ161" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA161" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB161" s="17">
+        <v>3642</v>
+      </c>
+      <c r="CC161" s="1">
+        <v>42414</v>
+      </c>
+      <c r="CD161" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY162">
+        <v>43</v>
+      </c>
+      <c r="BZ162" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA162" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB162" s="17">
+        <v>135</v>
+      </c>
+      <c r="CC162" s="1">
+        <v>42448</v>
+      </c>
+      <c r="CD162" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY163">
+        <v>54</v>
+      </c>
+      <c r="BZ163" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA163" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB163" s="17">
+        <v>4364</v>
+      </c>
+      <c r="CC163" s="1">
+        <v>42461</v>
+      </c>
+      <c r="CD163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY164">
+        <v>64</v>
+      </c>
+      <c r="BZ164" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA164" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB164" s="17">
+        <v>2763</v>
+      </c>
+      <c r="CC164" s="1">
+        <v>42485</v>
+      </c>
+      <c r="CD164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY165">
+        <v>73</v>
+      </c>
+      <c r="BZ165" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA165" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB165" s="17">
+        <v>6295</v>
+      </c>
+      <c r="CC165" s="1">
+        <v>42493</v>
+      </c>
+      <c r="CD165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY166">
+        <v>81</v>
+      </c>
+      <c r="BZ166" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA166" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB166" s="17">
+        <v>6007</v>
+      </c>
+      <c r="CC166" s="1">
+        <v>42502</v>
+      </c>
+      <c r="CD166" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY167">
+        <v>97</v>
+      </c>
+      <c r="BZ167" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA167" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB167" s="17">
+        <v>3644</v>
+      </c>
+      <c r="CC167" s="1">
+        <v>42516</v>
+      </c>
+      <c r="CD167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY168">
+        <v>105</v>
+      </c>
+      <c r="BZ168" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA168" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB168" s="17">
+        <v>3767</v>
+      </c>
+      <c r="CC168" s="1">
+        <v>42519</v>
+      </c>
+      <c r="CD168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY169">
+        <v>108</v>
+      </c>
+      <c r="BZ169" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA169" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB169" s="17">
+        <v>521</v>
+      </c>
+      <c r="CC169" s="1">
+        <v>42525</v>
+      </c>
+      <c r="CD169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY170">
+        <v>111</v>
+      </c>
+      <c r="BZ170" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA170" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB170" s="17">
+        <v>6941</v>
+      </c>
+      <c r="CC170" s="1">
+        <v>42541</v>
+      </c>
+      <c r="CD170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY171">
+        <v>119</v>
+      </c>
+      <c r="BZ171" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA171" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB171" s="17">
+        <v>8530</v>
+      </c>
+      <c r="CC171" s="1">
+        <v>42556</v>
+      </c>
+      <c r="CD171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY172">
+        <v>144</v>
+      </c>
+      <c r="BZ172" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA172" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB172" s="17">
+        <v>7333</v>
+      </c>
+      <c r="CC172" s="1">
+        <v>42609</v>
+      </c>
+      <c r="CD172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY173">
+        <v>188</v>
+      </c>
+      <c r="BZ173" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA173" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB173" s="17">
+        <v>9990</v>
+      </c>
+      <c r="CC173" s="1">
+        <v>42702</v>
+      </c>
+      <c r="CD173" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY174">
+        <v>196</v>
+      </c>
+      <c r="BZ174" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA174" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB174" s="17">
+        <v>136</v>
+      </c>
+      <c r="CC174" s="1">
+        <v>42716</v>
+      </c>
+      <c r="CD174" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY175">
+        <v>205</v>
+      </c>
+      <c r="BZ175" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA175" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB175" s="17">
+        <v>2455</v>
+      </c>
+      <c r="CC175" s="1">
+        <v>42724</v>
+      </c>
+      <c r="CD175" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="BZ176" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA176">
+        <f>SUBTOTAL(3,CA160:CA175)</f>
+        <v>16</v>
+      </c>
+      <c r="CB176" s="17"/>
+      <c r="CC176" s="1"/>
+    </row>
+    <row r="177" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY177">
         <v>14</v>
       </c>
-      <c r="BZ161" s="23" t="s">
+      <c r="BZ177" t="s">
         <v>164</v>
       </c>
-      <c r="CA161" s="23" t="s">
+      <c r="CA177" t="s">
         <v>162</v>
       </c>
-      <c r="CB161" s="25">
+      <c r="CB177" s="17">
         <v>2824</v>
       </c>
-      <c r="CC161" s="26">
+      <c r="CC177" s="1">
         <v>42391</v>
       </c>
-      <c r="CD161" s="23" t="s">
+      <c r="CD177" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY162" s="23">
-        <v>23</v>
-      </c>
-      <c r="BZ162" s="23" t="s">
+    <row r="178" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY178">
+        <v>62</v>
+      </c>
+      <c r="BZ178" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA178" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB178" s="17">
+        <v>9231</v>
+      </c>
+      <c r="CC178" s="1">
+        <v>42482</v>
+      </c>
+      <c r="CD178" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="179" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY179">
+        <v>155</v>
+      </c>
+      <c r="BZ179" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA179" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB179" s="17">
+        <v>352</v>
+      </c>
+      <c r="CC179" s="1">
+        <v>42622</v>
+      </c>
+      <c r="CD179" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="BZ180" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA180">
+        <f>SUBTOTAL(3,CA177:CA179)</f>
+        <v>3</v>
+      </c>
+      <c r="CB180" s="17"/>
+      <c r="CC180" s="1"/>
+    </row>
+    <row r="181" spans="77:82" x14ac:dyDescent="0.3">
+      <c r="BZ181" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA181">
+        <f>SUBTOTAL(3,CA160:CA179)</f>
+        <v>19</v>
+      </c>
+      <c r="CB181" s="17"/>
+      <c r="CC181" s="1"/>
+    </row>
+    <row r="182" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB182" s="17">
+        <f>SUBTOTAL(9,CB159:CB179)</f>
+        <v>94745</v>
+      </c>
+      <c r="CC182" s="1"/>
+      <c r="CD182" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="77:82" x14ac:dyDescent="0.3">
+      <c r="BY183">
+        <v>9</v>
+      </c>
+      <c r="BZ183" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA183" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB183" s="17">
+        <v>2417</v>
+      </c>
+      <c r="CC183" s="1">
+        <v>42385</v>
+      </c>
+      <c r="CD183" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY184">
+        <v>15</v>
+      </c>
+      <c r="BZ184" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA184" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB184" s="17">
+        <v>6946</v>
+      </c>
+      <c r="CC184" s="1">
+        <v>42393</v>
+      </c>
+      <c r="CD184" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="185" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY185">
+        <v>21</v>
+      </c>
+      <c r="BZ185" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA185" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB185" s="17">
+        <v>2256</v>
+      </c>
+      <c r="CC185" s="1">
+        <v>42404</v>
+      </c>
+      <c r="CD185" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="186" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY186">
+        <v>27</v>
+      </c>
+      <c r="BZ186" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA186" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB186" s="17">
+        <v>7388</v>
+      </c>
+      <c r="CC186" s="1">
+        <v>42418</v>
+      </c>
+      <c r="CD186" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="187" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY187">
+        <v>30</v>
+      </c>
+      <c r="BZ187" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA187" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB187" s="17">
+        <v>7602</v>
+      </c>
+      <c r="CC187" s="1">
+        <v>42421</v>
+      </c>
+      <c r="CD187" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY188">
+        <v>33</v>
+      </c>
+      <c r="BZ188" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA188" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB188" s="17">
+        <v>2060</v>
+      </c>
+      <c r="CC188" s="1">
+        <v>42429</v>
+      </c>
+      <c r="CD188" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="189" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY189">
+        <v>35</v>
+      </c>
+      <c r="BZ189" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA189" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB189" s="17">
+        <v>6509</v>
+      </c>
+      <c r="CC189" s="1">
+        <v>42430</v>
+      </c>
+      <c r="CD189" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="190" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY190">
+        <v>51</v>
+      </c>
+      <c r="BZ190" t="s">
         <v>166</v>
       </c>
-      <c r="CA162" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB162" s="25">
-        <v>3642</v>
-      </c>
-      <c r="CC162" s="26">
-        <v>42414</v>
-      </c>
-      <c r="CD162" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="163" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY163" s="23">
-        <v>43</v>
-      </c>
-      <c r="BZ163" s="23" t="s">
+      <c r="CA190" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB190" s="17">
+        <v>4781</v>
+      </c>
+      <c r="CC190" s="1">
+        <v>42458</v>
+      </c>
+      <c r="CD190" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY191">
+        <v>53</v>
+      </c>
+      <c r="BZ191" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA191" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB191" s="17">
+        <v>6331</v>
+      </c>
+      <c r="CC191" s="1">
+        <v>42461</v>
+      </c>
+      <c r="CD191" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY192">
+        <v>66</v>
+      </c>
+      <c r="BZ192" t="s">
         <v>166</v>
       </c>
-      <c r="CA163" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB163" s="25">
+      <c r="CA192" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB192" s="17">
+        <v>2427</v>
+      </c>
+      <c r="CC192" s="1">
+        <v>42490</v>
+      </c>
+      <c r="CD192" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="193" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY193">
+        <v>75</v>
+      </c>
+      <c r="BZ193" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA193" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB193" s="17">
+        <v>4325</v>
+      </c>
+      <c r="CC193" s="1">
+        <v>42495</v>
+      </c>
+      <c r="CD193" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="194" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY194">
+        <v>79</v>
+      </c>
+      <c r="BZ194" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA194" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB194" s="17">
+        <v>7671</v>
+      </c>
+      <c r="CC194" s="1">
+        <v>42498</v>
+      </c>
+      <c r="CD194" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY195">
+        <v>85</v>
+      </c>
+      <c r="BZ195" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA195" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB195" s="17">
+        <v>9543</v>
+      </c>
+      <c r="CC195" s="1">
+        <v>42506</v>
+      </c>
+      <c r="CD195" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="196" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY196">
+        <v>101</v>
+      </c>
+      <c r="BZ196" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA196" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB196" s="17">
+        <v>2193</v>
+      </c>
+      <c r="CC196" s="1">
+        <v>42517</v>
+      </c>
+      <c r="CD196" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="197" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY197">
+        <v>109</v>
+      </c>
+      <c r="BZ197" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA197" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB197" s="17">
+        <v>5605</v>
+      </c>
+      <c r="CC197" s="1">
+        <v>42531</v>
+      </c>
+      <c r="CD197" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY198">
+        <v>114</v>
+      </c>
+      <c r="BZ198" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA198" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB198" s="17">
+        <v>107</v>
+      </c>
+      <c r="CC198" s="1">
+        <v>42546</v>
+      </c>
+      <c r="CD198" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="199" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY199">
+        <v>118</v>
+      </c>
+      <c r="BZ199" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA199" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB199" s="17">
+        <v>5002</v>
+      </c>
+      <c r="CC199" s="1">
+        <v>42553</v>
+      </c>
+      <c r="CD199" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="200" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY200">
         <v>135</v>
       </c>
-      <c r="CC163" s="26">
-        <v>42448</v>
-      </c>
-      <c r="CD163" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY164" s="23">
-        <v>54</v>
-      </c>
-      <c r="BZ164" s="23" t="s">
+      <c r="BZ200" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA200" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB200" s="17">
+        <v>7144</v>
+      </c>
+      <c r="CC200" s="1">
+        <v>42583</v>
+      </c>
+      <c r="CD200" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="201" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY201">
+        <v>141</v>
+      </c>
+      <c r="BZ201" t="s">
         <v>174</v>
       </c>
-      <c r="CA164" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB164" s="25">
-        <v>4364</v>
-      </c>
-      <c r="CC164" s="26">
-        <v>42461</v>
-      </c>
-      <c r="CD164" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY165" s="23">
-        <v>62</v>
-      </c>
-      <c r="BZ165" s="23" t="s">
+      <c r="CA201" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB201" s="17">
+        <v>3844</v>
+      </c>
+      <c r="CC201" s="1">
+        <v>42605</v>
+      </c>
+      <c r="CD201" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="202" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY202">
+        <v>142</v>
+      </c>
+      <c r="BZ202" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA202" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB202" s="17">
+        <v>7490</v>
+      </c>
+      <c r="CC202" s="1">
+        <v>42606</v>
+      </c>
+      <c r="CD202" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY203">
+        <v>157</v>
+      </c>
+      <c r="BZ203" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA203" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB203" s="17">
+        <v>7090</v>
+      </c>
+      <c r="CC203" s="1">
+        <v>42624</v>
+      </c>
+      <c r="CD203" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY204">
+        <v>172</v>
+      </c>
+      <c r="BZ204" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA204" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB204" s="17">
+        <v>8160</v>
+      </c>
+      <c r="CC204" s="1">
+        <v>42659</v>
+      </c>
+      <c r="CD204" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY205">
+        <v>183</v>
+      </c>
+      <c r="BZ205" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA205" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB205" s="17">
+        <v>5321</v>
+      </c>
+      <c r="CC205" s="1">
+        <v>42686</v>
+      </c>
+      <c r="CD205" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY206">
+        <v>190</v>
+      </c>
+      <c r="BZ206" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA206" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB206" s="17">
+        <v>1942</v>
+      </c>
+      <c r="CC206" s="1">
+        <v>42703</v>
+      </c>
+      <c r="CD206" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="207" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY207">
+        <v>209</v>
+      </c>
+      <c r="BZ207" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA207" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB207" s="17">
+        <v>1777</v>
+      </c>
+      <c r="CC207" s="1">
+        <v>42732</v>
+      </c>
+      <c r="CD207" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="208" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="BZ208" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA208">
+        <f>SUBTOTAL(3,CA184:CA207)</f>
+        <v>24</v>
+      </c>
+      <c r="CB208" s="17"/>
+      <c r="CC208" s="1"/>
+    </row>
+    <row r="209" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY209">
+        <v>42</v>
+      </c>
+      <c r="BZ209" t="s">
         <v>164</v>
       </c>
-      <c r="CA165" s="23" t="s">
+      <c r="CA209" t="s">
         <v>162</v>
       </c>
-      <c r="CB165" s="25">
-        <v>9231</v>
-      </c>
-      <c r="CC165" s="26">
-        <v>42482</v>
-      </c>
-      <c r="CD165" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY166" s="23">
-        <v>64</v>
-      </c>
-      <c r="BZ166" s="23" t="s">
+      <c r="CB209" s="17">
+        <v>5341</v>
+      </c>
+      <c r="CC209" s="1">
+        <v>42445</v>
+      </c>
+      <c r="CD209" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="210" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY210">
+        <v>193</v>
+      </c>
+      <c r="BZ210" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA210" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB210" s="17">
+        <v>9104</v>
+      </c>
+      <c r="CC210" s="1">
+        <v>42708</v>
+      </c>
+      <c r="CD210" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="211" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY211">
+        <v>210</v>
+      </c>
+      <c r="BZ211" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA211" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB211" s="17">
+        <v>680</v>
+      </c>
+      <c r="CC211" s="1">
+        <v>42732</v>
+      </c>
+      <c r="CD211" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="BZ212" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA212">
+        <f>SUBTOTAL(3,CA209:CA211)</f>
+        <v>3</v>
+      </c>
+      <c r="CB212" s="17"/>
+      <c r="CC212" s="1"/>
+    </row>
+    <row r="213" spans="77:82" x14ac:dyDescent="0.3">
+      <c r="BZ213" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA213">
+        <f>SUBTOTAL(3,CA184:CA211)</f>
+        <v>27</v>
+      </c>
+      <c r="CB213" s="17"/>
+      <c r="CC213" s="1"/>
+    </row>
+    <row r="214" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB214" s="17">
+        <f>SUBTOTAL(9,CB183:CB211)</f>
+        <v>141056</v>
+      </c>
+      <c r="CC214" s="1"/>
+      <c r="CD214" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="215" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY215">
+        <v>5</v>
+      </c>
+      <c r="BZ215" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA215" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB215" s="17">
+        <v>2626</v>
+      </c>
+      <c r="CC215" s="1">
+        <v>42379</v>
+      </c>
+      <c r="CD215" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY216">
+        <v>11</v>
+      </c>
+      <c r="BZ216" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA216" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB216" s="17">
+        <v>8250</v>
+      </c>
+      <c r="CC216" s="1">
+        <v>42385</v>
+      </c>
+      <c r="CD216" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY217">
+        <v>13</v>
+      </c>
+      <c r="BZ217" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA217" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB217" s="17">
+        <v>1903</v>
+      </c>
+      <c r="CC217" s="1">
+        <v>42389</v>
+      </c>
+      <c r="CD217" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY218">
+        <v>29</v>
+      </c>
+      <c r="BZ218" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA218" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB218" s="17">
+        <v>5101</v>
+      </c>
+      <c r="CC218" s="1">
+        <v>42420</v>
+      </c>
+      <c r="CD218" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY219">
+        <v>34</v>
+      </c>
+      <c r="BZ219" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA219" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB219" s="17">
+        <v>1557</v>
+      </c>
+      <c r="CC219" s="1">
+        <v>42429</v>
+      </c>
+      <c r="CD219" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="220" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY220">
+        <v>45</v>
+      </c>
+      <c r="BZ220" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA220" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB220" s="17">
+        <v>6045</v>
+      </c>
+      <c r="CC220" s="1">
+        <v>42450</v>
+      </c>
+      <c r="CD220" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY221">
+        <v>47</v>
+      </c>
+      <c r="BZ221" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA221" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB221" s="17">
+        <v>8887</v>
+      </c>
+      <c r="CC221" s="1">
+        <v>42452</v>
+      </c>
+      <c r="CD221" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY222">
+        <v>50</v>
+      </c>
+      <c r="BZ222" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA222" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB222" s="17">
+        <v>3665</v>
+      </c>
+      <c r="CC222" s="1">
+        <v>42455</v>
+      </c>
+      <c r="CD222" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="223" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY223">
+        <v>58</v>
+      </c>
+      <c r="BZ223" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA223" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB223" s="17">
+        <v>277</v>
+      </c>
+      <c r="CC223" s="1">
+        <v>42472</v>
+      </c>
+      <c r="CD223" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY224">
+        <v>68</v>
+      </c>
+      <c r="BZ224" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA224" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB224" s="17">
+        <v>2789</v>
+      </c>
+      <c r="CC224" s="1">
+        <v>42491</v>
+      </c>
+      <c r="CD224" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="225" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY225">
+        <v>74</v>
+      </c>
+      <c r="BZ225" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA225" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB225" s="17">
+        <v>474</v>
+      </c>
+      <c r="CC225" s="1">
+        <v>42495</v>
+      </c>
+      <c r="CD225" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="226" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY226">
+        <v>82</v>
+      </c>
+      <c r="BZ226" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA226" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB226" s="17">
+        <v>5030</v>
+      </c>
+      <c r="CC226" s="1">
+        <v>42504</v>
+      </c>
+      <c r="CD226" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="227" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY227">
+        <v>87</v>
+      </c>
+      <c r="BZ227" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA227" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB227" s="17">
+        <v>7094</v>
+      </c>
+      <c r="CC227" s="1">
+        <v>42506</v>
+      </c>
+      <c r="CD227" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY228">
+        <v>91</v>
+      </c>
+      <c r="BZ228" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA228" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB228" s="17">
+        <v>8775</v>
+      </c>
+      <c r="CC228" s="1">
+        <v>42512</v>
+      </c>
+      <c r="CD228" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="229" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY229">
+        <v>99</v>
+      </c>
+      <c r="BZ229" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA229" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB229" s="17">
+        <v>8354</v>
+      </c>
+      <c r="CC229" s="1">
+        <v>42516</v>
+      </c>
+      <c r="CD229" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="230" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY230">
+        <v>106</v>
+      </c>
+      <c r="BZ230" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA230" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB230" s="17">
+        <v>4685</v>
+      </c>
+      <c r="CC230" s="1">
+        <v>42520</v>
+      </c>
+      <c r="CD230" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="231" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY231">
+        <v>110</v>
+      </c>
+      <c r="BZ231" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA231" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB231" s="17">
+        <v>9630</v>
+      </c>
+      <c r="CC231" s="1">
+        <v>42532</v>
+      </c>
+      <c r="CD231" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="232" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY232">
+        <v>125</v>
+      </c>
+      <c r="BZ232" t="s">
         <v>174</v>
       </c>
-      <c r="CA166" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB166" s="25">
-        <v>2763</v>
-      </c>
-      <c r="CC166" s="26">
-        <v>42485</v>
-      </c>
-      <c r="CD166" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY167" s="23">
-        <v>73</v>
-      </c>
-      <c r="BZ167" s="23" t="s">
+      <c r="CA232" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB232" s="17">
+        <v>330</v>
+      </c>
+      <c r="CC232" s="1">
+        <v>42571</v>
+      </c>
+      <c r="CD232" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="233" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY233">
+        <v>139</v>
+      </c>
+      <c r="BZ233" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA233" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB233" s="17">
+        <v>2836</v>
+      </c>
+      <c r="CC233" s="1">
+        <v>42595</v>
+      </c>
+      <c r="CD233" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY234">
+        <v>143</v>
+      </c>
+      <c r="BZ234" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA234" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB234" s="17">
+        <v>4483</v>
+      </c>
+      <c r="CC234" s="1">
+        <v>42607</v>
+      </c>
+      <c r="CD234" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="235" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY235">
+        <v>147</v>
+      </c>
+      <c r="BZ235" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA235" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB235" s="17">
+        <v>5761</v>
+      </c>
+      <c r="CC235" s="1">
+        <v>42611</v>
+      </c>
+      <c r="CD235" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY236">
+        <v>149</v>
+      </c>
+      <c r="BZ236" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA236" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB236" s="17">
+        <v>4016</v>
+      </c>
+      <c r="CC236" s="1">
+        <v>42614</v>
+      </c>
+      <c r="CD236" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="237" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY237">
+        <v>160</v>
+      </c>
+      <c r="BZ237" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA237" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB237" s="17">
+        <v>7927</v>
+      </c>
+      <c r="CC237" s="1">
+        <v>42632</v>
+      </c>
+      <c r="CD237" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="238" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY238">
+        <v>164</v>
+      </c>
+      <c r="BZ238" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA238" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB238" s="17">
+        <v>7251</v>
+      </c>
+      <c r="CC238" s="1">
+        <v>42639</v>
+      </c>
+      <c r="CD238" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="239" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY239">
+        <v>166</v>
+      </c>
+      <c r="BZ239" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA239" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB239" s="17">
+        <v>3210</v>
+      </c>
+      <c r="CC239" s="1">
+        <v>42642</v>
+      </c>
+      <c r="CD239" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="240" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY240">
+        <v>167</v>
+      </c>
+      <c r="BZ240" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA240" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB240" s="17">
+        <v>682</v>
+      </c>
+      <c r="CC240" s="1">
+        <v>42642</v>
+      </c>
+      <c r="CD240" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="241" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY241">
+        <v>169</v>
+      </c>
+      <c r="BZ241" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA241" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB241" s="17">
+        <v>5346</v>
+      </c>
+      <c r="CC241" s="1">
+        <v>42647</v>
+      </c>
+      <c r="CD241" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="242" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY242">
+        <v>176</v>
+      </c>
+      <c r="BZ242" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA242" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB242" s="17">
+        <v>2402</v>
+      </c>
+      <c r="CC242" s="1">
+        <v>42669</v>
+      </c>
+      <c r="CD242" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="243" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY243">
+        <v>186</v>
+      </c>
+      <c r="BZ243" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA243" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB243" s="17">
+        <v>284</v>
+      </c>
+      <c r="CC243" s="1">
+        <v>42699</v>
+      </c>
+      <c r="CD243" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="244" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY244">
+        <v>195</v>
+      </c>
+      <c r="BZ244" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA244" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB244" s="17">
+        <v>3278</v>
+      </c>
+      <c r="CC244" s="1">
+        <v>42710</v>
+      </c>
+      <c r="CD244" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="245" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY245">
+        <v>199</v>
+      </c>
+      <c r="BZ245" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA245" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB245" s="17">
+        <v>8702</v>
+      </c>
+      <c r="CC245" s="1">
+        <v>42719</v>
+      </c>
+      <c r="CD245" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="246" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY246">
+        <v>202</v>
+      </c>
+      <c r="BZ246" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA246" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB246" s="17">
+        <v>4766</v>
+      </c>
+      <c r="CC246" s="1">
+        <v>42722</v>
+      </c>
+      <c r="CD246" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="247" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY247">
+        <v>207</v>
+      </c>
+      <c r="BZ247" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA247" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB247" s="17">
+        <v>8752</v>
+      </c>
+      <c r="CC247" s="1">
+        <v>42726</v>
+      </c>
+      <c r="CD247" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="248" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB248" s="17">
+        <f>SUBTOTAL(9,CB215:CB247)</f>
+        <v>155168</v>
+      </c>
+      <c r="CC248" s="1"/>
+      <c r="CD248" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="249" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY249">
+        <v>8</v>
+      </c>
+      <c r="BZ249" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA249" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB249" s="17">
+        <v>6906</v>
+      </c>
+      <c r="CC249" s="1">
+        <v>42385</v>
+      </c>
+      <c r="CD249" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="250" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY250">
+        <v>22</v>
+      </c>
+      <c r="BZ250" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA250" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB250" s="17">
+        <v>1004</v>
+      </c>
+      <c r="CC250" s="1">
+        <v>42411</v>
+      </c>
+      <c r="CD250" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="251" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY251">
+        <v>46</v>
+      </c>
+      <c r="BZ251" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA251" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB251" s="17">
+        <v>5820</v>
+      </c>
+      <c r="CC251" s="1">
+        <v>42451</v>
+      </c>
+      <c r="CD251" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="252" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY252">
+        <v>56</v>
+      </c>
+      <c r="BZ252" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA252" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB252" s="17">
+        <v>1054</v>
+      </c>
+      <c r="CC252" s="1">
+        <v>42466</v>
+      </c>
+      <c r="CD252" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY253">
+        <v>67</v>
+      </c>
+      <c r="BZ253" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA253" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB253" s="17">
+        <v>8663</v>
+      </c>
+      <c r="CC253" s="1">
+        <v>42491</v>
+      </c>
+      <c r="CD253" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="254" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY254">
+        <v>94</v>
+      </c>
+      <c r="BZ254" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA254" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB254" s="17">
+        <v>4904</v>
+      </c>
+      <c r="CC254" s="1">
+        <v>42515</v>
+      </c>
+      <c r="CD254" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="255" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY255">
+        <v>120</v>
+      </c>
+      <c r="BZ255" t="s">
         <v>171</v>
       </c>
-      <c r="CA167" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB167" s="25">
-        <v>6295</v>
-      </c>
-      <c r="CC167" s="26">
+      <c r="CA255" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB255" s="17">
+        <v>4819</v>
+      </c>
+      <c r="CC255" s="1">
+        <v>42558</v>
+      </c>
+      <c r="CD255" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="256" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY256">
+        <v>124</v>
+      </c>
+      <c r="BZ256" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA256" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB256" s="17">
+        <v>6341</v>
+      </c>
+      <c r="CC256" s="1">
+        <v>42571</v>
+      </c>
+      <c r="CD256" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="257" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY257">
+        <v>127</v>
+      </c>
+      <c r="BZ257" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA257" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB257" s="17">
+        <v>850</v>
+      </c>
+      <c r="CC257" s="1">
+        <v>42573</v>
+      </c>
+      <c r="CD257" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="258" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY258">
+        <v>148</v>
+      </c>
+      <c r="BZ258" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA258" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB258" s="17">
+        <v>6864</v>
+      </c>
+      <c r="CC258" s="1">
+        <v>42614</v>
+      </c>
+      <c r="CD258" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="259" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY259">
+        <v>154</v>
+      </c>
+      <c r="BZ259" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA259" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB259" s="17">
+        <v>4390</v>
+      </c>
+      <c r="CC259" s="1">
+        <v>42622</v>
+      </c>
+      <c r="CD259" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="260" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY260">
+        <v>170</v>
+      </c>
+      <c r="BZ260" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA260" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB260" s="17">
+        <v>7103</v>
+      </c>
+      <c r="CC260" s="1">
+        <v>42650</v>
+      </c>
+      <c r="CD260" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="261" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY261">
+        <v>174</v>
+      </c>
+      <c r="BZ261" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA261" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB261" s="17">
+        <v>3552</v>
+      </c>
+      <c r="CC261" s="1">
+        <v>42666</v>
+      </c>
+      <c r="CD261" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="262" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY262">
+        <v>206</v>
+      </c>
+      <c r="BZ262" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA262" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB262" s="17">
+        <v>4512</v>
+      </c>
+      <c r="CC262" s="1">
+        <v>42726</v>
+      </c>
+      <c r="CD262" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="263" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB263" s="17">
+        <f>SUBTOTAL(9,CB249:CB262)</f>
+        <v>66782</v>
+      </c>
+      <c r="CC263" s="1"/>
+      <c r="CD263" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="264" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY264">
+        <v>2</v>
+      </c>
+      <c r="BZ264" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA264" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB264" s="17">
+        <v>8239</v>
+      </c>
+      <c r="CC264" s="1">
+        <v>42376</v>
+      </c>
+      <c r="CD264" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="265" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY265">
+        <v>16</v>
+      </c>
+      <c r="BZ265" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA265" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB265" s="17">
+        <v>2320</v>
+      </c>
+      <c r="CC265" s="1">
+        <v>42396</v>
+      </c>
+      <c r="CD265" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="266" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY266">
+        <v>18</v>
+      </c>
+      <c r="BZ266" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA266" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB266" s="17">
+        <v>1135</v>
+      </c>
+      <c r="CC266" s="1">
+        <v>42399</v>
+      </c>
+      <c r="CD266" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="267" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY267">
+        <v>19</v>
+      </c>
+      <c r="BZ267" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA267" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB267" s="17">
+        <v>3595</v>
+      </c>
+      <c r="CC267" s="1">
+        <v>42399</v>
+      </c>
+      <c r="CD267" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="268" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY268">
+        <v>25</v>
+      </c>
+      <c r="BZ268" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA268" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB268" s="17">
+        <v>3559</v>
+      </c>
+      <c r="CC268" s="1">
+        <v>42417</v>
+      </c>
+      <c r="CD268" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="269" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY269">
+        <v>38</v>
+      </c>
+      <c r="BZ269" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA269" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB269" s="17">
+        <v>9116</v>
+      </c>
+      <c r="CC269" s="1">
+        <v>42434</v>
+      </c>
+      <c r="CD269" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="270" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY270">
+        <v>41</v>
+      </c>
+      <c r="BZ270" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA270" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB270" s="17">
+        <v>8941</v>
+      </c>
+      <c r="CC270" s="1">
+        <v>42444</v>
+      </c>
+      <c r="CD270" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="271" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY271">
+        <v>55</v>
+      </c>
+      <c r="BZ271" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA271" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB271" s="17">
+        <v>607</v>
+      </c>
+      <c r="CC271" s="1">
+        <v>42463</v>
+      </c>
+      <c r="CD271" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="272" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY272">
+        <v>65</v>
+      </c>
+      <c r="BZ272" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA272" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB272" s="17">
+        <v>7898</v>
+      </c>
+      <c r="CC272" s="1">
+        <v>42487</v>
+      </c>
+      <c r="CD272" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="273" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY273">
+        <v>71</v>
+      </c>
+      <c r="BZ273" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA273" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB273" s="17">
+        <v>5600</v>
+      </c>
+      <c r="CC273" s="1">
+        <v>42492</v>
+      </c>
+      <c r="CD273" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="274" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY274">
+        <v>78</v>
+      </c>
+      <c r="BZ274" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA274" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB274" s="17">
+        <v>9405</v>
+      </c>
+      <c r="CC274" s="1">
+        <v>42498</v>
+      </c>
+      <c r="CD274" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="275" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY275">
+        <v>80</v>
+      </c>
+      <c r="BZ275" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA275" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB275" s="17">
+        <v>5791</v>
+      </c>
+      <c r="CC275" s="1">
+        <v>42498</v>
+      </c>
+      <c r="CD275" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="276" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY276">
+        <v>83</v>
+      </c>
+      <c r="BZ276" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA276" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB276" s="17">
+        <v>6763</v>
+      </c>
+      <c r="CC276" s="1">
+        <v>42504</v>
+      </c>
+      <c r="CD276" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="277" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY277">
+        <v>86</v>
+      </c>
+      <c r="BZ277" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA277" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB277" s="17">
+        <v>2054</v>
+      </c>
+      <c r="CC277" s="1">
+        <v>42506</v>
+      </c>
+      <c r="CD277" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="278" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY278">
+        <v>92</v>
+      </c>
+      <c r="BZ278" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA278" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB278" s="17">
+        <v>2011</v>
+      </c>
+      <c r="CC278" s="1">
+        <v>42513</v>
+      </c>
+      <c r="CD278" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="279" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY279">
+        <v>96</v>
+      </c>
+      <c r="BZ279" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA279" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB279" s="17">
+        <v>8141</v>
+      </c>
+      <c r="CC279" s="1">
+        <v>42516</v>
+      </c>
+      <c r="CD279" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="280" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY280">
+        <v>112</v>
+      </c>
+      <c r="BZ280" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA280" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB280" s="17">
+        <v>7231</v>
+      </c>
+      <c r="CC280" s="1">
+        <v>42541</v>
+      </c>
+      <c r="CD280" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="281" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY281">
+        <v>121</v>
+      </c>
+      <c r="BZ281" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA281" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB281" s="17">
+        <v>6343</v>
+      </c>
+      <c r="CC281" s="1">
+        <v>42562</v>
+      </c>
+      <c r="CD281" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="282" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY282">
+        <v>122</v>
+      </c>
+      <c r="BZ282" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA282" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB282" s="17">
+        <v>2318</v>
+      </c>
+      <c r="CC282" s="1">
+        <v>42564</v>
+      </c>
+      <c r="CD282" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="283" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY283">
+        <v>123</v>
+      </c>
+      <c r="BZ283" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA283" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB283" s="17">
+        <v>220</v>
+      </c>
+      <c r="CC283" s="1">
+        <v>42571</v>
+      </c>
+      <c r="CD283" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="284" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY284">
+        <v>126</v>
+      </c>
+      <c r="BZ284" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA284" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB284" s="17">
+        <v>3027</v>
+      </c>
+      <c r="CC284" s="1">
+        <v>42571</v>
+      </c>
+      <c r="CD284" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="285" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY285">
+        <v>128</v>
+      </c>
+      <c r="BZ285" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA285" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB285" s="17">
+        <v>8986</v>
+      </c>
+      <c r="CC285" s="1">
+        <v>42574</v>
+      </c>
+      <c r="CD285" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="286" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY286">
+        <v>130</v>
+      </c>
+      <c r="BZ286" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA286" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB286" s="17">
+        <v>5751</v>
+      </c>
+      <c r="CC286" s="1">
+        <v>42579</v>
+      </c>
+      <c r="CD286" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="287" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY287">
+        <v>131</v>
+      </c>
+      <c r="BZ287" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA287" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB287" s="17">
+        <v>1704</v>
+      </c>
+      <c r="CC287" s="1">
+        <v>42580</v>
+      </c>
+      <c r="CD287" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="288" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY288">
+        <v>146</v>
+      </c>
+      <c r="BZ288" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA288" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB288" s="17">
+        <v>3944</v>
+      </c>
+      <c r="CC288" s="1">
+        <v>42611</v>
+      </c>
+      <c r="CD288" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="289" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY289">
+        <v>152</v>
+      </c>
+      <c r="BZ289" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA289" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB289" s="17">
+        <v>8765</v>
+      </c>
+      <c r="CC289" s="1">
+        <v>42620</v>
+      </c>
+      <c r="CD289" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="290" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY290">
+        <v>163</v>
+      </c>
+      <c r="BZ290" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA290" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB290" s="17">
+        <v>5936</v>
+      </c>
+      <c r="CC290" s="1">
+        <v>42638</v>
+      </c>
+      <c r="CD290" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="291" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY291">
+        <v>173</v>
+      </c>
+      <c r="BZ291" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA291" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB291" s="17">
+        <v>7171</v>
+      </c>
+      <c r="CC291" s="1">
+        <v>42666</v>
+      </c>
+      <c r="CD291" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="292" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY292">
+        <v>180</v>
+      </c>
+      <c r="BZ292" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA292" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB292" s="17">
+        <v>4399</v>
+      </c>
+      <c r="CC292" s="1">
+        <v>42677</v>
+      </c>
+      <c r="CD292" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="293" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY293">
+        <v>182</v>
+      </c>
+      <c r="BZ293" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA293" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB293" s="17">
+        <v>4715</v>
+      </c>
+      <c r="CC293" s="1">
+        <v>42683</v>
+      </c>
+      <c r="CD293" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="294" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY294">
+        <v>185</v>
+      </c>
+      <c r="BZ294" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA294" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB294" s="17">
+        <v>4846</v>
+      </c>
+      <c r="CC294" s="1">
+        <v>42699</v>
+      </c>
+      <c r="CD294" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="295" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY295">
+        <v>187</v>
+      </c>
+      <c r="BZ295" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA295" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB295" s="17">
+        <v>8283</v>
+      </c>
+      <c r="CC295" s="1">
+        <v>42700</v>
+      </c>
+      <c r="CD295" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="296" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY296">
+        <v>203</v>
+      </c>
+      <c r="BZ296" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA296" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB296" s="17">
+        <v>1541</v>
+      </c>
+      <c r="CC296" s="1">
+        <v>42723</v>
+      </c>
+      <c r="CD296" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="297" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY297">
+        <v>204</v>
+      </c>
+      <c r="BZ297" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA297" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB297" s="17">
+        <v>2782</v>
+      </c>
+      <c r="CC297" s="1">
+        <v>42724</v>
+      </c>
+      <c r="CD297" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="298" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB298" s="17">
+        <f>SUBTOTAL(9,CB264:CB297)</f>
+        <v>173137</v>
+      </c>
+      <c r="CC298" s="1"/>
+      <c r="CD298" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="299" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY299">
+        <v>1</v>
+      </c>
+      <c r="BZ299" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA299" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB299" s="17">
+        <v>4270</v>
+      </c>
+      <c r="CC299" s="1">
+        <v>42375</v>
+      </c>
+      <c r="CD299" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="300" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY300">
+        <v>3</v>
+      </c>
+      <c r="BZ300" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA300" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB300" s="17">
+        <v>617</v>
+      </c>
+      <c r="CC300" s="1">
+        <v>42377</v>
+      </c>
+      <c r="CD300" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="301" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY301">
+        <v>6</v>
+      </c>
+      <c r="BZ301" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA301" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB301" s="17">
+        <v>3610</v>
+      </c>
+      <c r="CC301" s="1">
+        <v>42380</v>
+      </c>
+      <c r="CD301" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="302" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY302">
+        <v>12</v>
+      </c>
+      <c r="BZ302" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA302" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB302" s="17">
+        <v>7012</v>
+      </c>
+      <c r="CC302" s="1">
+        <v>42387</v>
+      </c>
+      <c r="CD302" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="303" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY303">
+        <v>17</v>
+      </c>
+      <c r="BZ303" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA303" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB303" s="17">
+        <v>2116</v>
+      </c>
+      <c r="CC303" s="1">
+        <v>42397</v>
+      </c>
+      <c r="CD303" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY304">
+        <v>20</v>
+      </c>
+      <c r="BZ304" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA304" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB304" s="17">
+        <v>1161</v>
+      </c>
+      <c r="CC304" s="1">
+        <v>42402</v>
+      </c>
+      <c r="CD304" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="305" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY305">
+        <v>24</v>
+      </c>
+      <c r="BZ305" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA305" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB305" s="17">
+        <v>4582</v>
+      </c>
+      <c r="CC305" s="1">
+        <v>42417</v>
+      </c>
+      <c r="CD305" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="306" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY306">
+        <v>28</v>
+      </c>
+      <c r="BZ306" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA306" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB306" s="17">
+        <v>7163</v>
+      </c>
+      <c r="CC306" s="1">
+        <v>42418</v>
+      </c>
+      <c r="CD306" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="307" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY307">
+        <v>31</v>
+      </c>
+      <c r="BZ307" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA307" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB307" s="17">
+        <v>1641</v>
+      </c>
+      <c r="CC307" s="1">
+        <v>42422</v>
+      </c>
+      <c r="CD307" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="308" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY308">
+        <v>37</v>
+      </c>
+      <c r="BZ308" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA308" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB308" s="17">
+        <v>7655</v>
+      </c>
+      <c r="CC308" s="1">
+        <v>42434</v>
+      </c>
+      <c r="CD308" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="309" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY309">
+        <v>39</v>
+      </c>
+      <c r="BZ309" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA309" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB309" s="17">
+        <v>2795</v>
+      </c>
+      <c r="CC309" s="1">
+        <v>42444</v>
+      </c>
+      <c r="CD309" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="310" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY310">
+        <v>40</v>
+      </c>
+      <c r="BZ310" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA310" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB310" s="17">
+        <v>5084</v>
+      </c>
+      <c r="CC310" s="1">
+        <v>42444</v>
+      </c>
+      <c r="CD310" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="311" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY311">
+        <v>48</v>
+      </c>
+      <c r="BZ311" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA311" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB311" s="17">
+        <v>6982</v>
+      </c>
+      <c r="CC311" s="1">
+        <v>42453</v>
+      </c>
+      <c r="CD311" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="312" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY312">
+        <v>57</v>
+      </c>
+      <c r="BZ312" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA312" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB312" s="17">
+        <v>7659</v>
+      </c>
+      <c r="CC312" s="1">
+        <v>42466</v>
+      </c>
+      <c r="CD312" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="313" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY313">
+        <v>59</v>
+      </c>
+      <c r="BZ313" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA313" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB313" s="17">
+        <v>235</v>
+      </c>
+      <c r="CC313" s="1">
+        <v>42477</v>
+      </c>
+      <c r="CD313" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="314" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY314">
+        <v>61</v>
+      </c>
+      <c r="BZ314" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA314" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB314" s="17">
+        <v>1128</v>
+      </c>
+      <c r="CC314" s="1">
+        <v>42481</v>
+      </c>
+      <c r="CD314" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="315" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY315">
+        <v>63</v>
+      </c>
+      <c r="BZ315" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA315" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB315" s="17">
+        <v>4387</v>
+      </c>
+      <c r="CC315" s="1">
+        <v>42483</v>
+      </c>
+      <c r="CD315" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="316" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY316">
+        <v>69</v>
+      </c>
+      <c r="BZ316" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA316" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB316" s="17">
+        <v>4054</v>
+      </c>
+      <c r="CC316" s="1">
+        <v>42492</v>
+      </c>
+      <c r="CD316" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="317" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY317">
+        <v>70</v>
+      </c>
+      <c r="BZ317" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA317" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB317" s="17">
+        <v>2262</v>
+      </c>
+      <c r="CC317" s="1">
+        <v>42492</v>
+      </c>
+      <c r="CD317" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="318" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY318">
+        <v>72</v>
+      </c>
+      <c r="BZ318" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA318" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB318" s="17">
+        <v>5787</v>
+      </c>
+      <c r="CC318" s="1">
         <v>42493</v>
       </c>
-      <c r="CD167" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY168" s="23">
-        <v>81</v>
-      </c>
-      <c r="BZ168" s="23" t="s">
+      <c r="CD318" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="319" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY319">
+        <v>76</v>
+      </c>
+      <c r="BZ319" t="s">
         <v>166</v>
       </c>
-      <c r="CA168" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB168" s="25">
-        <v>6007</v>
-      </c>
-      <c r="CC168" s="26">
-        <v>42502</v>
-      </c>
-      <c r="CD168" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY169" s="23">
-        <v>97</v>
-      </c>
-      <c r="BZ169" s="23" t="s">
+      <c r="CA319" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB319" s="17">
+        <v>592</v>
+      </c>
+      <c r="CC319" s="1">
+        <v>42496</v>
+      </c>
+      <c r="CD319" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="320" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY320">
+        <v>77</v>
+      </c>
+      <c r="BZ320" t="s">
         <v>171</v>
       </c>
-      <c r="CA169" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB169" s="25">
-        <v>3644</v>
-      </c>
-      <c r="CC169" s="26">
-        <v>42516</v>
-      </c>
-      <c r="CD169" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY170" s="23">
-        <v>105</v>
-      </c>
-      <c r="BZ170" s="23" t="s">
+      <c r="CA320" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB320" s="17">
+        <v>4330</v>
+      </c>
+      <c r="CC320" s="1">
+        <v>42498</v>
+      </c>
+      <c r="CD320" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="321" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY321">
+        <v>88</v>
+      </c>
+      <c r="BZ321" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA321" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB321" s="17">
+        <v>6087</v>
+      </c>
+      <c r="CC321" s="1">
+        <v>42508</v>
+      </c>
+      <c r="CD321" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="322" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY322">
+        <v>90</v>
+      </c>
+      <c r="BZ322" t="s">
         <v>176</v>
       </c>
-      <c r="CA170" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB170" s="25">
-        <v>3767</v>
-      </c>
-      <c r="CC170" s="26">
-        <v>42519</v>
-      </c>
-      <c r="CD170" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY171" s="23">
-        <v>108</v>
-      </c>
-      <c r="BZ171" s="23" t="s">
+      <c r="CA322" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB322" s="17">
+        <v>9333</v>
+      </c>
+      <c r="CC322" s="1">
+        <v>42510</v>
+      </c>
+      <c r="CD322" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="323" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY323">
+        <v>93</v>
+      </c>
+      <c r="BZ323" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA323" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB323" s="17">
+        <v>5632</v>
+      </c>
+      <c r="CC323" s="1">
+        <v>42515</v>
+      </c>
+      <c r="CD323" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="324" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY324">
+        <v>100</v>
+      </c>
+      <c r="BZ324" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA324" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB324" s="17">
+        <v>5182</v>
+      </c>
+      <c r="CC324" s="1">
+        <v>42517</v>
+      </c>
+      <c r="CD324" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="325" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY325">
+        <v>102</v>
+      </c>
+      <c r="BZ325" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA325" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB325" s="17">
+        <v>3647</v>
+      </c>
+      <c r="CC325" s="1">
+        <v>42518</v>
+      </c>
+      <c r="CD325" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="326" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY326">
+        <v>103</v>
+      </c>
+      <c r="BZ326" t="s">
         <v>174</v>
       </c>
-      <c r="CA171" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB171" s="25">
-        <v>521</v>
-      </c>
-      <c r="CC171" s="26">
+      <c r="CA326" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB326" s="17">
+        <v>4104</v>
+      </c>
+      <c r="CC326" s="1">
+        <v>42518</v>
+      </c>
+      <c r="CD326" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="327" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY327">
+        <v>104</v>
+      </c>
+      <c r="BZ327" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA327" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB327" s="17">
+        <v>7457</v>
+      </c>
+      <c r="CC327" s="1">
+        <v>42518</v>
+      </c>
+      <c r="CD327" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="328" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY328">
+        <v>107</v>
+      </c>
+      <c r="BZ328" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA328" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB328" s="17">
+        <v>3917</v>
+      </c>
+      <c r="CC328" s="1">
         <v>42525</v>
       </c>
-      <c r="CD171" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY172" s="23">
-        <v>111</v>
-      </c>
-      <c r="BZ172" s="23" t="s">
+      <c r="CD328" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="329" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY329">
+        <v>115</v>
+      </c>
+      <c r="BZ329" t="s">
         <v>166</v>
       </c>
-      <c r="CA172" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB172" s="25">
-        <v>6941</v>
-      </c>
-      <c r="CC172" s="26">
-        <v>42541</v>
-      </c>
-      <c r="CD172" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="173" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY173" s="23">
-        <v>119</v>
-      </c>
-      <c r="BZ173" s="23" t="s">
+      <c r="CA329" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB329" s="17">
+        <v>4243</v>
+      </c>
+      <c r="CC329" s="1">
+        <v>42547</v>
+      </c>
+      <c r="CD329" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="330" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY330">
+        <v>116</v>
+      </c>
+      <c r="BZ330" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA330" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB330" s="17">
+        <v>4514</v>
+      </c>
+      <c r="CC330" s="1">
+        <v>42548</v>
+      </c>
+      <c r="CD330" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY331">
+        <v>117</v>
+      </c>
+      <c r="BZ331" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA331" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB331" s="17">
+        <v>5480</v>
+      </c>
+      <c r="CC331" s="1">
+        <v>42553</v>
+      </c>
+      <c r="CD331" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="332" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY332">
+        <v>129</v>
+      </c>
+      <c r="BZ332" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA332" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB332" s="17">
+        <v>3800</v>
+      </c>
+      <c r="CC332" s="1">
+        <v>42576</v>
+      </c>
+      <c r="CD332" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="333" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY333">
+        <v>133</v>
+      </c>
+      <c r="BZ333" t="s">
         <v>166</v>
       </c>
-      <c r="CA173" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB173" s="25">
-        <v>8530</v>
-      </c>
-      <c r="CC173" s="26">
-        <v>42556</v>
-      </c>
-      <c r="CD173" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY174" s="23">
-        <v>144</v>
-      </c>
-      <c r="BZ174" s="23" t="s">
+      <c r="CA333" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB333" s="17">
+        <v>852</v>
+      </c>
+      <c r="CC333" s="1">
+        <v>42582</v>
+      </c>
+      <c r="CD333" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="334" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY334">
+        <v>136</v>
+      </c>
+      <c r="BZ334" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA334" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB334" s="17">
+        <v>7854</v>
+      </c>
+      <c r="CC334" s="1">
+        <v>42583</v>
+      </c>
+      <c r="CD334" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="335" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY335">
+        <v>137</v>
+      </c>
+      <c r="BZ335" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA335" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB335" s="17">
+        <v>859</v>
+      </c>
+      <c r="CC335" s="1">
+        <v>42585</v>
+      </c>
+      <c r="CD335" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="336" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY336">
+        <v>138</v>
+      </c>
+      <c r="BZ336" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA336" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB336" s="17">
+        <v>8049</v>
+      </c>
+      <c r="CC336" s="1">
+        <v>42594</v>
+      </c>
+      <c r="CD336" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="337" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY337">
+        <v>140</v>
+      </c>
+      <c r="BZ337" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA337" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB337" s="17">
+        <v>1743</v>
+      </c>
+      <c r="CC337" s="1">
+        <v>42601</v>
+      </c>
+      <c r="CD337" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="338" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY338">
+        <v>145</v>
+      </c>
+      <c r="BZ338" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA338" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB338" s="17">
+        <v>7654</v>
+      </c>
+      <c r="CC338" s="1">
+        <v>42610</v>
+      </c>
+      <c r="CD338" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="339" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY339">
+        <v>150</v>
+      </c>
+      <c r="BZ339" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA339" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB339" s="17">
+        <v>1841</v>
+      </c>
+      <c r="CC339" s="1">
+        <v>42615</v>
+      </c>
+      <c r="CD339" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="340" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY340">
+        <v>153</v>
+      </c>
+      <c r="BZ340" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA340" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB340" s="17">
+        <v>5583</v>
+      </c>
+      <c r="CC340" s="1">
+        <v>42621</v>
+      </c>
+      <c r="CD340" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="341" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY341">
+        <v>156</v>
+      </c>
+      <c r="BZ341" t="s">
         <v>174</v>
       </c>
-      <c r="CA174" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB174" s="25">
-        <v>7333</v>
-      </c>
-      <c r="CC174" s="26">
-        <v>42609</v>
-      </c>
-      <c r="CD174" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="175" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY175" s="23">
-        <v>155</v>
-      </c>
-      <c r="BZ175" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA175" s="23" t="s">
+      <c r="CA341" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB341" s="17">
+        <v>8489</v>
+      </c>
+      <c r="CC341" s="1">
+        <v>42624</v>
+      </c>
+      <c r="CD341" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="342" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY342">
+        <v>158</v>
+      </c>
+      <c r="BZ342" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA342" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB342" s="17">
+        <v>7880</v>
+      </c>
+      <c r="CC342" s="1">
+        <v>42628</v>
+      </c>
+      <c r="CD342" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="343" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY343">
+        <v>159</v>
+      </c>
+      <c r="BZ343" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA343" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB343" s="17">
+        <v>3861</v>
+      </c>
+      <c r="CC343" s="1">
+        <v>42631</v>
+      </c>
+      <c r="CD343" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="344" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY344">
+        <v>161</v>
+      </c>
+      <c r="BZ344" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA344" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB344" s="17">
+        <v>6162</v>
+      </c>
+      <c r="CC344" s="1">
+        <v>42633</v>
+      </c>
+      <c r="CD344" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="345" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY345">
+        <v>171</v>
+      </c>
+      <c r="BZ345" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA345" t="s">
         <v>162</v>
       </c>
-      <c r="CB175" s="25">
-        <v>352</v>
-      </c>
-      <c r="CC175" s="26">
-        <v>42622</v>
-      </c>
-      <c r="CD175" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="176" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY176" s="23">
-        <v>188</v>
-      </c>
-      <c r="BZ176" s="23" t="s">
+      <c r="CB345" s="17">
+        <v>4603</v>
+      </c>
+      <c r="CC345" s="1">
+        <v>42653</v>
+      </c>
+      <c r="CD345" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="346" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY346">
+        <v>179</v>
+      </c>
+      <c r="BZ346" t="s">
         <v>171</v>
       </c>
-      <c r="CA176" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB176" s="25">
-        <v>9990</v>
-      </c>
-      <c r="CC176" s="26">
-        <v>42702</v>
-      </c>
-      <c r="CD176" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="177" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY177" s="23">
-        <v>196</v>
-      </c>
-      <c r="BZ177" s="23" t="s">
+      <c r="CA346" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB346" s="17">
+        <v>5818</v>
+      </c>
+      <c r="CC346" s="1">
+        <v>42676</v>
+      </c>
+      <c r="CD346" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="347" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY347">
+        <v>181</v>
+      </c>
+      <c r="BZ347" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA347" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB347" s="17">
+        <v>3011</v>
+      </c>
+      <c r="CC347" s="1">
+        <v>42677</v>
+      </c>
+      <c r="CD347" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="348" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY348">
+        <v>184</v>
+      </c>
+      <c r="BZ348" t="s">
         <v>166</v>
       </c>
-      <c r="CA177" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB177" s="25">
-        <v>136</v>
-      </c>
-      <c r="CC177" s="26">
+      <c r="CA348" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB348" s="17">
+        <v>8894</v>
+      </c>
+      <c r="CC348" s="1">
+        <v>42689</v>
+      </c>
+      <c r="CD348" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="349" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY349">
+        <v>191</v>
+      </c>
+      <c r="BZ349" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA349" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB349" s="17">
+        <v>7223</v>
+      </c>
+      <c r="CC349" s="1">
+        <v>42704</v>
+      </c>
+      <c r="CD349" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="350" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY350">
+        <v>192</v>
+      </c>
+      <c r="BZ350" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA350" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB350" s="17">
+        <v>4673</v>
+      </c>
+      <c r="CC350" s="1">
+        <v>42706</v>
+      </c>
+      <c r="CD350" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="351" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY351">
+        <v>194</v>
+      </c>
+      <c r="BZ351" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA351" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB351" s="17">
+        <v>6078</v>
+      </c>
+      <c r="CC351" s="1">
+        <v>42709</v>
+      </c>
+      <c r="CD351" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="352" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY352">
+        <v>198</v>
+      </c>
+      <c r="BZ352" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA352" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB352" s="17">
+        <v>2382</v>
+      </c>
+      <c r="CC352" s="1">
         <v>42716</v>
       </c>
-      <c r="CD177" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="178" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY178" s="23">
-        <v>205</v>
-      </c>
-      <c r="BZ178" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA178" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB178" s="25">
-        <v>2455</v>
-      </c>
-      <c r="CC178" s="26">
-        <v>42724</v>
-      </c>
-      <c r="CD178" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="179" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="CB179" s="25">
-        <f>SUBTOTAL(9,CB159:CB178)</f>
-        <v>94745</v>
-      </c>
-      <c r="CC179" s="26"/>
-      <c r="CD179" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY180" s="23">
-        <v>9</v>
-      </c>
-      <c r="BZ180" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA180" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB180" s="25">
-        <v>2417</v>
-      </c>
-      <c r="CC180" s="26">
-        <v>42385</v>
-      </c>
-      <c r="CD180" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="181" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY181" s="23">
-        <v>15</v>
-      </c>
-      <c r="BZ181" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA181" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB181" s="25">
-        <v>6946</v>
-      </c>
-      <c r="CC181" s="26">
-        <v>42393</v>
-      </c>
-      <c r="CD181" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="182" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY182" s="23">
-        <v>21</v>
-      </c>
-      <c r="BZ182" s="23" t="s">
+      <c r="CD352" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="353" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY353">
+        <v>200</v>
+      </c>
+      <c r="BZ353" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA353" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB353" s="17">
+        <v>5021</v>
+      </c>
+      <c r="CC353" s="1">
+        <v>42720</v>
+      </c>
+      <c r="CD353" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="354" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY354">
+        <v>208</v>
+      </c>
+      <c r="BZ354" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA354" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB354" s="17">
+        <v>9127</v>
+      </c>
+      <c r="CC354" s="1">
+        <v>42729</v>
+      </c>
+      <c r="CD354" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="355" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="BY355">
+        <v>211</v>
+      </c>
+      <c r="BZ355" t="s">
         <v>171</v>
       </c>
-      <c r="CA182" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB182" s="25">
-        <v>2256</v>
-      </c>
-      <c r="CC182" s="26">
-        <v>42404</v>
-      </c>
-      <c r="CD182" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY183" s="23">
-        <v>27</v>
-      </c>
-      <c r="BZ183" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA183" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB183" s="25">
-        <v>7388</v>
-      </c>
-      <c r="CC183" s="26">
-        <v>42418</v>
-      </c>
-      <c r="CD183" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY184" s="23">
-        <v>30</v>
-      </c>
-      <c r="BZ184" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA184" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB184" s="25">
-        <v>7602</v>
-      </c>
-      <c r="CC184" s="26">
-        <v>42421</v>
-      </c>
-      <c r="CD184" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="185" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY185" s="23">
-        <v>33</v>
-      </c>
-      <c r="BZ185" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA185" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB185" s="25">
-        <v>2060</v>
-      </c>
-      <c r="CC185" s="26">
-        <v>42429</v>
-      </c>
-      <c r="CD185" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="186" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY186" s="23">
-        <v>35</v>
-      </c>
-      <c r="BZ186" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA186" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB186" s="25">
-        <v>6509</v>
-      </c>
-      <c r="CC186" s="26">
-        <v>42430</v>
-      </c>
-      <c r="CD186" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="187" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY187" s="23">
-        <v>42</v>
-      </c>
-      <c r="BZ187" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA187" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB187" s="25">
-        <v>5341</v>
-      </c>
-      <c r="CC187" s="26">
-        <v>42445</v>
-      </c>
-      <c r="CD187" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="188" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY188" s="23">
-        <v>51</v>
-      </c>
-      <c r="BZ188" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA188" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB188" s="25">
-        <v>4781</v>
-      </c>
-      <c r="CC188" s="26">
-        <v>42458</v>
-      </c>
-      <c r="CD188" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="189" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY189" s="23">
-        <v>53</v>
-      </c>
-      <c r="BZ189" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA189" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB189" s="25">
-        <v>6331</v>
-      </c>
-      <c r="CC189" s="26">
-        <v>42461</v>
-      </c>
-      <c r="CD189" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="190" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY190" s="23">
-        <v>66</v>
-      </c>
-      <c r="BZ190" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA190" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB190" s="25">
-        <v>2427</v>
-      </c>
-      <c r="CC190" s="26">
-        <v>42490</v>
-      </c>
-      <c r="CD190" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="191" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY191" s="23">
-        <v>75</v>
-      </c>
-      <c r="BZ191" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA191" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB191" s="25">
-        <v>4325</v>
-      </c>
-      <c r="CC191" s="26">
-        <v>42495</v>
-      </c>
-      <c r="CD191" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="192" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY192" s="23">
-        <v>79</v>
-      </c>
-      <c r="BZ192" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA192" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB192" s="25">
-        <v>7671</v>
-      </c>
-      <c r="CC192" s="26">
-        <v>42498</v>
-      </c>
-      <c r="CD192" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="193" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY193" s="23">
-        <v>85</v>
-      </c>
-      <c r="BZ193" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA193" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB193" s="25">
-        <v>9543</v>
-      </c>
-      <c r="CC193" s="26">
-        <v>42506</v>
-      </c>
-      <c r="CD193" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="194" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY194" s="23">
-        <v>101</v>
-      </c>
-      <c r="BZ194" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA194" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB194" s="25">
-        <v>2193</v>
-      </c>
-      <c r="CC194" s="26">
-        <v>42517</v>
-      </c>
-      <c r="CD194" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="195" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY195" s="23">
-        <v>109</v>
-      </c>
-      <c r="BZ195" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA195" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB195" s="25">
-        <v>5605</v>
-      </c>
-      <c r="CC195" s="26">
-        <v>42531</v>
-      </c>
-      <c r="CD195" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="196" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY196" s="23">
-        <v>114</v>
-      </c>
-      <c r="BZ196" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA196" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB196" s="25">
-        <v>107</v>
-      </c>
-      <c r="CC196" s="26">
-        <v>42546</v>
-      </c>
-      <c r="CD196" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="197" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY197" s="23">
-        <v>118</v>
-      </c>
-      <c r="BZ197" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA197" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB197" s="25">
-        <v>5002</v>
-      </c>
-      <c r="CC197" s="26">
-        <v>42553</v>
-      </c>
-      <c r="CD197" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="198" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY198" s="23">
-        <v>135</v>
-      </c>
-      <c r="BZ198" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA198" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB198" s="25">
-        <v>7144</v>
-      </c>
-      <c r="CC198" s="26">
-        <v>42583</v>
-      </c>
-      <c r="CD198" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="199" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY199" s="23">
-        <v>141</v>
-      </c>
-      <c r="BZ199" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA199" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB199" s="25">
-        <v>3844</v>
-      </c>
-      <c r="CC199" s="26">
-        <v>42605</v>
-      </c>
-      <c r="CD199" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="200" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY200" s="23">
-        <v>142</v>
-      </c>
-      <c r="BZ200" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA200" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB200" s="25">
-        <v>7490</v>
-      </c>
-      <c r="CC200" s="26">
-        <v>42606</v>
-      </c>
-      <c r="CD200" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="201" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY201" s="23">
-        <v>157</v>
-      </c>
-      <c r="BZ201" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA201" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB201" s="25">
-        <v>7090</v>
-      </c>
-      <c r="CC201" s="26">
-        <v>42624</v>
-      </c>
-      <c r="CD201" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="202" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY202" s="23">
-        <v>172</v>
-      </c>
-      <c r="BZ202" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA202" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB202" s="25">
-        <v>8160</v>
-      </c>
-      <c r="CC202" s="26">
-        <v>42659</v>
-      </c>
-      <c r="CD202" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="203" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY203" s="23">
+      <c r="CA355" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB355" s="17">
+        <v>958</v>
+      </c>
+      <c r="CC355" s="1">
+        <v>42733</v>
+      </c>
+      <c r="CD355" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="356" spans="77:82" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="CB356" s="17">
+        <f>SUBTOTAL(9,CB299:CB355)</f>
+        <v>267133</v>
+      </c>
+      <c r="CC356" s="1"/>
+      <c r="CD356" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="BZ203" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA203" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB203" s="25">
-        <v>5321</v>
-      </c>
-      <c r="CC203" s="26">
-        <v>42686</v>
-      </c>
-      <c r="CD203" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="204" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY204" s="23">
-        <v>190</v>
-      </c>
-      <c r="BZ204" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA204" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB204" s="25">
-        <v>1942</v>
-      </c>
-      <c r="CC204" s="26">
-        <v>42703</v>
-      </c>
-      <c r="CD204" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="205" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY205" s="23">
-        <v>193</v>
-      </c>
-      <c r="BZ205" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA205" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB205" s="25">
-        <v>9104</v>
-      </c>
-      <c r="CC205" s="26">
-        <v>42708</v>
-      </c>
-      <c r="CD205" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="206" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY206" s="23">
-        <v>209</v>
-      </c>
-      <c r="BZ206" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA206" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB206" s="25">
-        <v>1777</v>
-      </c>
-      <c r="CC206" s="26">
-        <v>42732</v>
-      </c>
-      <c r="CD206" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="207" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY207" s="23">
-        <v>210</v>
-      </c>
-      <c r="BZ207" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA207" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB207" s="25">
-        <v>680</v>
-      </c>
-      <c r="CC207" s="26">
-        <v>42732</v>
-      </c>
-      <c r="CD207" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="208" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="CB208" s="25">
-        <f>SUBTOTAL(9,CB180:CB207)</f>
-        <v>141056</v>
-      </c>
-      <c r="CC208" s="26"/>
-      <c r="CD208" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="209" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY209" s="23">
-        <v>5</v>
-      </c>
-      <c r="BZ209" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA209" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB209" s="25">
-        <v>2626</v>
-      </c>
-      <c r="CC209" s="26">
-        <v>42379</v>
-      </c>
-      <c r="CD209" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="210" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY210" s="23">
-        <v>11</v>
-      </c>
-      <c r="BZ210" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA210" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB210" s="25">
-        <v>8250</v>
-      </c>
-      <c r="CC210" s="26">
-        <v>42385</v>
-      </c>
-      <c r="CD210" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="211" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY211" s="23">
-        <v>13</v>
-      </c>
-      <c r="BZ211" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA211" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB211" s="25">
-        <v>1903</v>
-      </c>
-      <c r="CC211" s="26">
-        <v>42389</v>
-      </c>
-      <c r="CD211" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="212" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY212" s="23">
-        <v>29</v>
-      </c>
-      <c r="BZ212" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA212" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB212" s="25">
-        <v>5101</v>
-      </c>
-      <c r="CC212" s="26">
-        <v>42420</v>
-      </c>
-      <c r="CD212" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="213" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY213" s="23">
-        <v>34</v>
-      </c>
-      <c r="BZ213" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA213" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB213" s="25">
-        <v>1557</v>
-      </c>
-      <c r="CC213" s="26">
-        <v>42429</v>
-      </c>
-      <c r="CD213" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="214" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY214" s="23">
-        <v>45</v>
-      </c>
-      <c r="BZ214" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA214" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB214" s="25">
-        <v>6045</v>
-      </c>
-      <c r="CC214" s="26">
-        <v>42450</v>
-      </c>
-      <c r="CD214" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="215" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY215" s="23">
-        <v>47</v>
-      </c>
-      <c r="BZ215" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA215" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB215" s="25">
-        <v>8887</v>
-      </c>
-      <c r="CC215" s="26">
-        <v>42452</v>
-      </c>
-      <c r="CD215" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="216" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY216" s="23">
-        <v>50</v>
-      </c>
-      <c r="BZ216" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA216" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB216" s="25">
-        <v>3665</v>
-      </c>
-      <c r="CC216" s="26">
-        <v>42455</v>
-      </c>
-      <c r="CD216" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="217" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY217" s="23">
-        <v>58</v>
-      </c>
-      <c r="BZ217" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA217" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB217" s="25">
-        <v>277</v>
-      </c>
-      <c r="CC217" s="26">
-        <v>42472</v>
-      </c>
-      <c r="CD217" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="218" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY218" s="23">
-        <v>68</v>
-      </c>
-      <c r="BZ218" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA218" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB218" s="25">
-        <v>2789</v>
-      </c>
-      <c r="CC218" s="26">
-        <v>42491</v>
-      </c>
-      <c r="CD218" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="219" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY219" s="23">
-        <v>74</v>
-      </c>
-      <c r="BZ219" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA219" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB219" s="25">
-        <v>474</v>
-      </c>
-      <c r="CC219" s="26">
-        <v>42495</v>
-      </c>
-      <c r="CD219" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="220" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY220" s="23">
-        <v>82</v>
-      </c>
-      <c r="BZ220" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA220" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB220" s="25">
-        <v>5030</v>
-      </c>
-      <c r="CC220" s="26">
-        <v>42504</v>
-      </c>
-      <c r="CD220" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="221" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY221" s="23">
-        <v>87</v>
-      </c>
-      <c r="BZ221" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA221" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB221" s="25">
-        <v>7094</v>
-      </c>
-      <c r="CC221" s="26">
-        <v>42506</v>
-      </c>
-      <c r="CD221" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="222" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY222" s="23">
-        <v>91</v>
-      </c>
-      <c r="BZ222" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA222" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB222" s="25">
-        <v>8775</v>
-      </c>
-      <c r="CC222" s="26">
-        <v>42512</v>
-      </c>
-      <c r="CD222" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="223" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY223" s="23">
-        <v>99</v>
-      </c>
-      <c r="BZ223" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA223" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB223" s="25">
-        <v>8354</v>
-      </c>
-      <c r="CC223" s="26">
-        <v>42516</v>
-      </c>
-      <c r="CD223" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="224" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY224" s="23">
-        <v>106</v>
-      </c>
-      <c r="BZ224" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA224" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB224" s="25">
-        <v>4685</v>
-      </c>
-      <c r="CC224" s="26">
-        <v>42520</v>
-      </c>
-      <c r="CD224" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="225" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY225" s="23">
-        <v>110</v>
-      </c>
-      <c r="BZ225" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA225" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB225" s="25">
-        <v>9630</v>
-      </c>
-      <c r="CC225" s="26">
-        <v>42532</v>
-      </c>
-      <c r="CD225" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="226" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY226" s="23">
-        <v>125</v>
-      </c>
-      <c r="BZ226" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA226" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB226" s="25">
-        <v>330</v>
-      </c>
-      <c r="CC226" s="26">
-        <v>42571</v>
-      </c>
-      <c r="CD226" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="227" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY227" s="23">
-        <v>139</v>
-      </c>
-      <c r="BZ227" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA227" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB227" s="25">
-        <v>2836</v>
-      </c>
-      <c r="CC227" s="26">
-        <v>42595</v>
-      </c>
-      <c r="CD227" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="228" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY228" s="23">
-        <v>143</v>
-      </c>
-      <c r="BZ228" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA228" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB228" s="25">
-        <v>4483</v>
-      </c>
-      <c r="CC228" s="26">
-        <v>42607</v>
-      </c>
-      <c r="CD228" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="229" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY229" s="23">
-        <v>147</v>
-      </c>
-      <c r="BZ229" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA229" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB229" s="25">
-        <v>5761</v>
-      </c>
-      <c r="CC229" s="26">
-        <v>42611</v>
-      </c>
-      <c r="CD229" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="230" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY230" s="23">
-        <v>149</v>
-      </c>
-      <c r="BZ230" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA230" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB230" s="25">
-        <v>4016</v>
-      </c>
-      <c r="CC230" s="26">
-        <v>42614</v>
-      </c>
-      <c r="CD230" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="231" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY231" s="23">
-        <v>160</v>
-      </c>
-      <c r="BZ231" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA231" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB231" s="25">
-        <v>7927</v>
-      </c>
-      <c r="CC231" s="26">
-        <v>42632</v>
-      </c>
-      <c r="CD231" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="232" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY232" s="23">
-        <v>164</v>
-      </c>
-      <c r="BZ232" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA232" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB232" s="25">
-        <v>7251</v>
-      </c>
-      <c r="CC232" s="26">
-        <v>42639</v>
-      </c>
-      <c r="CD232" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="233" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY233" s="23">
-        <v>166</v>
-      </c>
-      <c r="BZ233" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA233" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB233" s="25">
-        <v>3210</v>
-      </c>
-      <c r="CC233" s="26">
-        <v>42642</v>
-      </c>
-      <c r="CD233" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="234" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY234" s="23">
-        <v>167</v>
-      </c>
-      <c r="BZ234" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA234" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB234" s="25">
-        <v>682</v>
-      </c>
-      <c r="CC234" s="26">
-        <v>42642</v>
-      </c>
-      <c r="CD234" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="235" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY235" s="23">
-        <v>169</v>
-      </c>
-      <c r="BZ235" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA235" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB235" s="25">
-        <v>5346</v>
-      </c>
-      <c r="CC235" s="26">
-        <v>42647</v>
-      </c>
-      <c r="CD235" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="236" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY236" s="23">
-        <v>176</v>
-      </c>
-      <c r="BZ236" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA236" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB236" s="25">
-        <v>2402</v>
-      </c>
-      <c r="CC236" s="26">
-        <v>42669</v>
-      </c>
-      <c r="CD236" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="237" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY237" s="23">
-        <v>186</v>
-      </c>
-      <c r="BZ237" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA237" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB237" s="25">
-        <v>284</v>
-      </c>
-      <c r="CC237" s="26">
-        <v>42699</v>
-      </c>
-      <c r="CD237" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="238" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY238" s="23">
-        <v>195</v>
-      </c>
-      <c r="BZ238" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA238" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB238" s="25">
-        <v>3278</v>
-      </c>
-      <c r="CC238" s="26">
-        <v>42710</v>
-      </c>
-      <c r="CD238" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="239" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY239" s="23">
-        <v>199</v>
-      </c>
-      <c r="BZ239" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA239" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB239" s="25">
-        <v>8702</v>
-      </c>
-      <c r="CC239" s="26">
-        <v>42719</v>
-      </c>
-      <c r="CD239" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="240" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY240" s="23">
-        <v>202</v>
-      </c>
-      <c r="BZ240" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA240" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB240" s="25">
-        <v>4766</v>
-      </c>
-      <c r="CC240" s="26">
-        <v>42722</v>
-      </c>
-      <c r="CD240" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="241" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY241" s="23">
-        <v>207</v>
-      </c>
-      <c r="BZ241" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA241" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB241" s="25">
-        <v>8752</v>
-      </c>
-      <c r="CC241" s="26">
-        <v>42726</v>
-      </c>
-      <c r="CD241" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="242" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="CB242" s="25">
-        <f>SUBTOTAL(9,CB209:CB241)</f>
-        <v>155168</v>
-      </c>
-      <c r="CC242" s="26"/>
-      <c r="CD242" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="243" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY243" s="23">
-        <v>8</v>
-      </c>
-      <c r="BZ243" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA243" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB243" s="25">
-        <v>6906</v>
-      </c>
-      <c r="CC243" s="26">
-        <v>42385</v>
-      </c>
-      <c r="CD243" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="244" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY244" s="23">
-        <v>22</v>
-      </c>
-      <c r="BZ244" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA244" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB244" s="25">
-        <v>1004</v>
-      </c>
-      <c r="CC244" s="26">
-        <v>42411</v>
-      </c>
-      <c r="CD244" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="245" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY245" s="23">
-        <v>46</v>
-      </c>
-      <c r="BZ245" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA245" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB245" s="25">
-        <v>5820</v>
-      </c>
-      <c r="CC245" s="26">
-        <v>42451</v>
-      </c>
-      <c r="CD245" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="246" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY246" s="23">
-        <v>56</v>
-      </c>
-      <c r="BZ246" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA246" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB246" s="25">
-        <v>1054</v>
-      </c>
-      <c r="CC246" s="26">
-        <v>42466</v>
-      </c>
-      <c r="CD246" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="247" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY247" s="23">
-        <v>67</v>
-      </c>
-      <c r="BZ247" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA247" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB247" s="25">
-        <v>8663</v>
-      </c>
-      <c r="CC247" s="26">
-        <v>42491</v>
-      </c>
-      <c r="CD247" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="248" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY248" s="23">
-        <v>94</v>
-      </c>
-      <c r="BZ248" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA248" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB248" s="25">
-        <v>4904</v>
-      </c>
-      <c r="CC248" s="26">
-        <v>42515</v>
-      </c>
-      <c r="CD248" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="249" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY249" s="23">
-        <v>120</v>
-      </c>
-      <c r="BZ249" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA249" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB249" s="25">
-        <v>4819</v>
-      </c>
-      <c r="CC249" s="26">
-        <v>42558</v>
-      </c>
-      <c r="CD249" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="250" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY250" s="23">
-        <v>124</v>
-      </c>
-      <c r="BZ250" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA250" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB250" s="25">
-        <v>6341</v>
-      </c>
-      <c r="CC250" s="26">
-        <v>42571</v>
-      </c>
-      <c r="CD250" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="251" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY251" s="23">
-        <v>127</v>
-      </c>
-      <c r="BZ251" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA251" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB251" s="25">
-        <v>850</v>
-      </c>
-      <c r="CC251" s="26">
-        <v>42573</v>
-      </c>
-      <c r="CD251" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="252" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY252" s="23">
-        <v>148</v>
-      </c>
-      <c r="BZ252" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA252" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB252" s="25">
-        <v>6864</v>
-      </c>
-      <c r="CC252" s="26">
-        <v>42614</v>
-      </c>
-      <c r="CD252" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="253" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY253" s="23">
-        <v>154</v>
-      </c>
-      <c r="BZ253" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA253" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB253" s="25">
-        <v>4390</v>
-      </c>
-      <c r="CC253" s="26">
-        <v>42622</v>
-      </c>
-      <c r="CD253" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="254" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY254" s="23">
-        <v>170</v>
-      </c>
-      <c r="BZ254" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA254" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB254" s="25">
-        <v>7103</v>
-      </c>
-      <c r="CC254" s="26">
-        <v>42650</v>
-      </c>
-      <c r="CD254" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="255" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY255" s="23">
-        <v>174</v>
-      </c>
-      <c r="BZ255" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA255" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB255" s="25">
-        <v>3552</v>
-      </c>
-      <c r="CC255" s="26">
-        <v>42666</v>
-      </c>
-      <c r="CD255" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="256" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY256" s="23">
-        <v>206</v>
-      </c>
-      <c r="BZ256" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA256" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB256" s="25">
-        <v>4512</v>
-      </c>
-      <c r="CC256" s="26">
-        <v>42726</v>
-      </c>
-      <c r="CD256" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="257" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="CB257" s="25">
-        <f>SUBTOTAL(9,CB243:CB256)</f>
-        <v>66782</v>
-      </c>
-      <c r="CC257" s="26"/>
-      <c r="CD257" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="258" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY258" s="23">
-        <v>2</v>
-      </c>
-      <c r="BZ258" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA258" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB258" s="25">
-        <v>8239</v>
-      </c>
-      <c r="CC258" s="26">
-        <v>42376</v>
-      </c>
-      <c r="CD258" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="259" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY259" s="23">
-        <v>16</v>
-      </c>
-      <c r="BZ259" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA259" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB259" s="25">
-        <v>2320</v>
-      </c>
-      <c r="CC259" s="26">
-        <v>42396</v>
-      </c>
-      <c r="CD259" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="260" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY260" s="23">
-        <v>18</v>
-      </c>
-      <c r="BZ260" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA260" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB260" s="25">
-        <v>1135</v>
-      </c>
-      <c r="CC260" s="26">
-        <v>42399</v>
-      </c>
-      <c r="CD260" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="261" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY261" s="23">
-        <v>19</v>
-      </c>
-      <c r="BZ261" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA261" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB261" s="25">
-        <v>3595</v>
-      </c>
-      <c r="CC261" s="26">
-        <v>42399</v>
-      </c>
-      <c r="CD261" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="262" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY262" s="23">
-        <v>25</v>
-      </c>
-      <c r="BZ262" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA262" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB262" s="25">
-        <v>3559</v>
-      </c>
-      <c r="CC262" s="26">
-        <v>42417</v>
-      </c>
-      <c r="CD262" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="263" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY263" s="23">
-        <v>38</v>
-      </c>
-      <c r="BZ263" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA263" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB263" s="25">
-        <v>9116</v>
-      </c>
-      <c r="CC263" s="26">
-        <v>42434</v>
-      </c>
-      <c r="CD263" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="264" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY264" s="23">
-        <v>41</v>
-      </c>
-      <c r="BZ264" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA264" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB264" s="25">
-        <v>8941</v>
-      </c>
-      <c r="CC264" s="26">
-        <v>42444</v>
-      </c>
-      <c r="CD264" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="265" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY265" s="23">
-        <v>55</v>
-      </c>
-      <c r="BZ265" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA265" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB265" s="25">
-        <v>607</v>
-      </c>
-      <c r="CC265" s="26">
-        <v>42463</v>
-      </c>
-      <c r="CD265" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="266" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY266" s="23">
-        <v>65</v>
-      </c>
-      <c r="BZ266" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA266" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB266" s="25">
-        <v>7898</v>
-      </c>
-      <c r="CC266" s="26">
-        <v>42487</v>
-      </c>
-      <c r="CD266" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="267" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY267" s="23">
-        <v>71</v>
-      </c>
-      <c r="BZ267" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA267" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB267" s="25">
-        <v>5600</v>
-      </c>
-      <c r="CC267" s="26">
-        <v>42492</v>
-      </c>
-      <c r="CD267" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="268" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY268" s="23">
-        <v>78</v>
-      </c>
-      <c r="BZ268" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA268" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB268" s="25">
-        <v>9405</v>
-      </c>
-      <c r="CC268" s="26">
-        <v>42498</v>
-      </c>
-      <c r="CD268" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="269" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY269" s="23">
-        <v>80</v>
-      </c>
-      <c r="BZ269" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA269" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB269" s="25">
-        <v>5791</v>
-      </c>
-      <c r="CC269" s="26">
-        <v>42498</v>
-      </c>
-      <c r="CD269" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="270" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY270" s="23">
-        <v>83</v>
-      </c>
-      <c r="BZ270" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA270" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB270" s="25">
-        <v>6763</v>
-      </c>
-      <c r="CC270" s="26">
-        <v>42504</v>
-      </c>
-      <c r="CD270" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="271" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY271" s="23">
-        <v>86</v>
-      </c>
-      <c r="BZ271" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA271" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB271" s="25">
-        <v>2054</v>
-      </c>
-      <c r="CC271" s="26">
-        <v>42506</v>
-      </c>
-      <c r="CD271" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="272" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY272" s="23">
-        <v>92</v>
-      </c>
-      <c r="BZ272" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA272" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB272" s="25">
-        <v>2011</v>
-      </c>
-      <c r="CC272" s="26">
-        <v>42513</v>
-      </c>
-      <c r="CD272" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="273" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY273" s="23">
-        <v>96</v>
-      </c>
-      <c r="BZ273" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA273" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB273" s="25">
-        <v>8141</v>
-      </c>
-      <c r="CC273" s="26">
-        <v>42516</v>
-      </c>
-      <c r="CD273" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="274" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY274" s="23">
-        <v>112</v>
-      </c>
-      <c r="BZ274" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA274" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB274" s="25">
-        <v>7231</v>
-      </c>
-      <c r="CC274" s="26">
-        <v>42541</v>
-      </c>
-      <c r="CD274" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="275" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY275" s="23">
-        <v>121</v>
-      </c>
-      <c r="BZ275" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA275" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB275" s="25">
-        <v>6343</v>
-      </c>
-      <c r="CC275" s="26">
-        <v>42562</v>
-      </c>
-      <c r="CD275" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="276" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY276" s="23">
-        <v>122</v>
-      </c>
-      <c r="BZ276" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA276" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB276" s="25">
-        <v>2318</v>
-      </c>
-      <c r="CC276" s="26">
-        <v>42564</v>
-      </c>
-      <c r="CD276" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="277" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY277" s="23">
-        <v>123</v>
-      </c>
-      <c r="BZ277" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA277" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB277" s="25">
-        <v>220</v>
-      </c>
-      <c r="CC277" s="26">
-        <v>42571</v>
-      </c>
-      <c r="CD277" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="278" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY278" s="23">
-        <v>126</v>
-      </c>
-      <c r="BZ278" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA278" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB278" s="25">
-        <v>3027</v>
-      </c>
-      <c r="CC278" s="26">
-        <v>42571</v>
-      </c>
-      <c r="CD278" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="279" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY279" s="23">
-        <v>128</v>
-      </c>
-      <c r="BZ279" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA279" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB279" s="25">
-        <v>8986</v>
-      </c>
-      <c r="CC279" s="26">
-        <v>42574</v>
-      </c>
-      <c r="CD279" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="280" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY280" s="23">
-        <v>130</v>
-      </c>
-      <c r="BZ280" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA280" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB280" s="25">
-        <v>5751</v>
-      </c>
-      <c r="CC280" s="26">
-        <v>42579</v>
-      </c>
-      <c r="CD280" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="281" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY281" s="23">
-        <v>131</v>
-      </c>
-      <c r="BZ281" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA281" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB281" s="25">
-        <v>1704</v>
-      </c>
-      <c r="CC281" s="26">
-        <v>42580</v>
-      </c>
-      <c r="CD281" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="282" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY282" s="23">
-        <v>146</v>
-      </c>
-      <c r="BZ282" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA282" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB282" s="25">
-        <v>3944</v>
-      </c>
-      <c r="CC282" s="26">
-        <v>42611</v>
-      </c>
-      <c r="CD282" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="283" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY283" s="23">
-        <v>152</v>
-      </c>
-      <c r="BZ283" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA283" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB283" s="25">
-        <v>8765</v>
-      </c>
-      <c r="CC283" s="26">
-        <v>42620</v>
-      </c>
-      <c r="CD283" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="284" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY284" s="23">
-        <v>163</v>
-      </c>
-      <c r="BZ284" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA284" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB284" s="25">
-        <v>5936</v>
-      </c>
-      <c r="CC284" s="26">
-        <v>42638</v>
-      </c>
-      <c r="CD284" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="285" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY285" s="23">
-        <v>173</v>
-      </c>
-      <c r="BZ285" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA285" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB285" s="25">
-        <v>7171</v>
-      </c>
-      <c r="CC285" s="26">
-        <v>42666</v>
-      </c>
-      <c r="CD285" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="286" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY286" s="23">
-        <v>180</v>
-      </c>
-      <c r="BZ286" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA286" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB286" s="25">
-        <v>4399</v>
-      </c>
-      <c r="CC286" s="26">
-        <v>42677</v>
-      </c>
-      <c r="CD286" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="287" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY287" s="23">
-        <v>182</v>
-      </c>
-      <c r="BZ287" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA287" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB287" s="25">
-        <v>4715</v>
-      </c>
-      <c r="CC287" s="26">
-        <v>42683</v>
-      </c>
-      <c r="CD287" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="288" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY288" s="23">
-        <v>185</v>
-      </c>
-      <c r="BZ288" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA288" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB288" s="25">
-        <v>4846</v>
-      </c>
-      <c r="CC288" s="26">
-        <v>42699</v>
-      </c>
-      <c r="CD288" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="289" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY289" s="23">
-        <v>187</v>
-      </c>
-      <c r="BZ289" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA289" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB289" s="25">
-        <v>8283</v>
-      </c>
-      <c r="CC289" s="26">
-        <v>42700</v>
-      </c>
-      <c r="CD289" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="290" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY290" s="23">
-        <v>203</v>
-      </c>
-      <c r="BZ290" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA290" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB290" s="25">
-        <v>1541</v>
-      </c>
-      <c r="CC290" s="26">
-        <v>42723</v>
-      </c>
-      <c r="CD290" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="291" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY291" s="23">
-        <v>204</v>
-      </c>
-      <c r="BZ291" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA291" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB291" s="25">
-        <v>2782</v>
-      </c>
-      <c r="CC291" s="26">
-        <v>42724</v>
-      </c>
-      <c r="CD291" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="292" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="CB292" s="25">
-        <f>SUBTOTAL(9,CB258:CB291)</f>
-        <v>173137</v>
-      </c>
-      <c r="CC292" s="26"/>
-      <c r="CD292" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="293" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY293" s="23">
-        <v>1</v>
-      </c>
-      <c r="BZ293" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA293" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB293" s="25">
-        <v>4270</v>
-      </c>
-      <c r="CC293" s="26">
-        <v>42375</v>
-      </c>
-      <c r="CD293" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="294" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY294" s="23">
-        <v>3</v>
-      </c>
-      <c r="BZ294" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA294" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB294" s="25">
-        <v>617</v>
-      </c>
-      <c r="CC294" s="26">
-        <v>42377</v>
-      </c>
-      <c r="CD294" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="295" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY295" s="23">
-        <v>6</v>
-      </c>
-      <c r="BZ295" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA295" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB295" s="25">
-        <v>3610</v>
-      </c>
-      <c r="CC295" s="26">
-        <v>42380</v>
-      </c>
-      <c r="CD295" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="296" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY296" s="23">
-        <v>12</v>
-      </c>
-      <c r="BZ296" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA296" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB296" s="25">
-        <v>7012</v>
-      </c>
-      <c r="CC296" s="26">
-        <v>42387</v>
-      </c>
-      <c r="CD296" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="297" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY297" s="23">
-        <v>17</v>
-      </c>
-      <c r="BZ297" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA297" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB297" s="25">
-        <v>2116</v>
-      </c>
-      <c r="CC297" s="26">
-        <v>42397</v>
-      </c>
-      <c r="CD297" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="298" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY298" s="23">
-        <v>20</v>
-      </c>
-      <c r="BZ298" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA298" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB298" s="25">
-        <v>1161</v>
-      </c>
-      <c r="CC298" s="26">
-        <v>42402</v>
-      </c>
-      <c r="CD298" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="299" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY299" s="23">
-        <v>24</v>
-      </c>
-      <c r="BZ299" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA299" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB299" s="25">
-        <v>4582</v>
-      </c>
-      <c r="CC299" s="26">
-        <v>42417</v>
-      </c>
-      <c r="CD299" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="300" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY300" s="23">
-        <v>28</v>
-      </c>
-      <c r="BZ300" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA300" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB300" s="25">
-        <v>7163</v>
-      </c>
-      <c r="CC300" s="26">
-        <v>42418</v>
-      </c>
-      <c r="CD300" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="301" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY301" s="23">
-        <v>31</v>
-      </c>
-      <c r="BZ301" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA301" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB301" s="25">
-        <v>1641</v>
-      </c>
-      <c r="CC301" s="26">
-        <v>42422</v>
-      </c>
-      <c r="CD301" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="302" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY302" s="23">
-        <v>37</v>
-      </c>
-      <c r="BZ302" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA302" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB302" s="25">
-        <v>7655</v>
-      </c>
-      <c r="CC302" s="26">
-        <v>42434</v>
-      </c>
-      <c r="CD302" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="303" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY303" s="23">
-        <v>39</v>
-      </c>
-      <c r="BZ303" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA303" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB303" s="25">
-        <v>2795</v>
-      </c>
-      <c r="CC303" s="26">
-        <v>42444</v>
-      </c>
-      <c r="CD303" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="304" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY304" s="23">
-        <v>40</v>
-      </c>
-      <c r="BZ304" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA304" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB304" s="25">
-        <v>5084</v>
-      </c>
-      <c r="CC304" s="26">
-        <v>42444</v>
-      </c>
-      <c r="CD304" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="305" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY305" s="23">
-        <v>48</v>
-      </c>
-      <c r="BZ305" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA305" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB305" s="25">
-        <v>6982</v>
-      </c>
-      <c r="CC305" s="26">
-        <v>42453</v>
-      </c>
-      <c r="CD305" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="306" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY306" s="23">
-        <v>57</v>
-      </c>
-      <c r="BZ306" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA306" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB306" s="25">
-        <v>7659</v>
-      </c>
-      <c r="CC306" s="26">
-        <v>42466</v>
-      </c>
-      <c r="CD306" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="307" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY307" s="23">
-        <v>59</v>
-      </c>
-      <c r="BZ307" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA307" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB307" s="25">
-        <v>235</v>
-      </c>
-      <c r="CC307" s="26">
-        <v>42477</v>
-      </c>
-      <c r="CD307" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="308" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY308" s="23">
-        <v>61</v>
-      </c>
-      <c r="BZ308" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA308" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB308" s="25">
-        <v>1128</v>
-      </c>
-      <c r="CC308" s="26">
-        <v>42481</v>
-      </c>
-      <c r="CD308" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="309" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY309" s="23">
-        <v>63</v>
-      </c>
-      <c r="BZ309" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA309" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB309" s="25">
-        <v>4387</v>
-      </c>
-      <c r="CC309" s="26">
-        <v>42483</v>
-      </c>
-      <c r="CD309" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="310" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY310" s="23">
-        <v>69</v>
-      </c>
-      <c r="BZ310" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA310" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB310" s="25">
-        <v>4054</v>
-      </c>
-      <c r="CC310" s="26">
-        <v>42492</v>
-      </c>
-      <c r="CD310" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="311" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY311" s="23">
-        <v>70</v>
-      </c>
-      <c r="BZ311" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA311" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB311" s="25">
-        <v>2262</v>
-      </c>
-      <c r="CC311" s="26">
-        <v>42492</v>
-      </c>
-      <c r="CD311" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="312" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY312" s="23">
-        <v>72</v>
-      </c>
-      <c r="BZ312" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA312" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB312" s="25">
-        <v>5787</v>
-      </c>
-      <c r="CC312" s="26">
-        <v>42493</v>
-      </c>
-      <c r="CD312" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="313" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY313" s="23">
-        <v>76</v>
-      </c>
-      <c r="BZ313" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA313" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB313" s="25">
-        <v>592</v>
-      </c>
-      <c r="CC313" s="26">
-        <v>42496</v>
-      </c>
-      <c r="CD313" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="314" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY314" s="23">
-        <v>77</v>
-      </c>
-      <c r="BZ314" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA314" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB314" s="25">
-        <v>4330</v>
-      </c>
-      <c r="CC314" s="26">
-        <v>42498</v>
-      </c>
-      <c r="CD314" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="315" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY315" s="23">
-        <v>88</v>
-      </c>
-      <c r="BZ315" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA315" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB315" s="25">
-        <v>6087</v>
-      </c>
-      <c r="CC315" s="26">
-        <v>42508</v>
-      </c>
-      <c r="CD315" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="316" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY316" s="23">
-        <v>90</v>
-      </c>
-      <c r="BZ316" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA316" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB316" s="25">
-        <v>9333</v>
-      </c>
-      <c r="CC316" s="26">
-        <v>42510</v>
-      </c>
-      <c r="CD316" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="317" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY317" s="23">
-        <v>93</v>
-      </c>
-      <c r="BZ317" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA317" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB317" s="25">
-        <v>5632</v>
-      </c>
-      <c r="CC317" s="26">
-        <v>42515</v>
-      </c>
-      <c r="CD317" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="318" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY318" s="23">
-        <v>100</v>
-      </c>
-      <c r="BZ318" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA318" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB318" s="25">
-        <v>5182</v>
-      </c>
-      <c r="CC318" s="26">
-        <v>42517</v>
-      </c>
-      <c r="CD318" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="319" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY319" s="23">
-        <v>102</v>
-      </c>
-      <c r="BZ319" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA319" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB319" s="25">
-        <v>3647</v>
-      </c>
-      <c r="CC319" s="26">
-        <v>42518</v>
-      </c>
-      <c r="CD319" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="320" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY320" s="23">
-        <v>103</v>
-      </c>
-      <c r="BZ320" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA320" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB320" s="25">
-        <v>4104</v>
-      </c>
-      <c r="CC320" s="26">
-        <v>42518</v>
-      </c>
-      <c r="CD320" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="321" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY321" s="23">
-        <v>104</v>
-      </c>
-      <c r="BZ321" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA321" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB321" s="25">
-        <v>7457</v>
-      </c>
-      <c r="CC321" s="26">
-        <v>42518</v>
-      </c>
-      <c r="CD321" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="322" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY322" s="23">
-        <v>107</v>
-      </c>
-      <c r="BZ322" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA322" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB322" s="25">
-        <v>3917</v>
-      </c>
-      <c r="CC322" s="26">
-        <v>42525</v>
-      </c>
-      <c r="CD322" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="323" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY323" s="23">
-        <v>115</v>
-      </c>
-      <c r="BZ323" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA323" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB323" s="25">
-        <v>4243</v>
-      </c>
-      <c r="CC323" s="26">
-        <v>42547</v>
-      </c>
-      <c r="CD323" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="324" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY324" s="23">
-        <v>116</v>
-      </c>
-      <c r="BZ324" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA324" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB324" s="25">
-        <v>4514</v>
-      </c>
-      <c r="CC324" s="26">
-        <v>42548</v>
-      </c>
-      <c r="CD324" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="325" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY325" s="23">
-        <v>117</v>
-      </c>
-      <c r="BZ325" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA325" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB325" s="25">
-        <v>5480</v>
-      </c>
-      <c r="CC325" s="26">
-        <v>42553</v>
-      </c>
-      <c r="CD325" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="326" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY326" s="23">
-        <v>129</v>
-      </c>
-      <c r="BZ326" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA326" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB326" s="25">
-        <v>3800</v>
-      </c>
-      <c r="CC326" s="26">
-        <v>42576</v>
-      </c>
-      <c r="CD326" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="327" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY327" s="23">
-        <v>133</v>
-      </c>
-      <c r="BZ327" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA327" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB327" s="25">
-        <v>852</v>
-      </c>
-      <c r="CC327" s="26">
-        <v>42582</v>
-      </c>
-      <c r="CD327" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="328" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY328" s="23">
-        <v>136</v>
-      </c>
-      <c r="BZ328" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA328" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB328" s="25">
-        <v>7854</v>
-      </c>
-      <c r="CC328" s="26">
-        <v>42583</v>
-      </c>
-      <c r="CD328" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="329" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY329" s="23">
-        <v>137</v>
-      </c>
-      <c r="BZ329" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA329" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB329" s="25">
-        <v>859</v>
-      </c>
-      <c r="CC329" s="26">
-        <v>42585</v>
-      </c>
-      <c r="CD329" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="330" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY330" s="23">
-        <v>138</v>
-      </c>
-      <c r="BZ330" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA330" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB330" s="25">
-        <v>8049</v>
-      </c>
-      <c r="CC330" s="26">
-        <v>42594</v>
-      </c>
-      <c r="CD330" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="331" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY331" s="23">
-        <v>140</v>
-      </c>
-      <c r="BZ331" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA331" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB331" s="25">
-        <v>1743</v>
-      </c>
-      <c r="CC331" s="26">
-        <v>42601</v>
-      </c>
-      <c r="CD331" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="332" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY332" s="23">
-        <v>145</v>
-      </c>
-      <c r="BZ332" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA332" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB332" s="25">
-        <v>7654</v>
-      </c>
-      <c r="CC332" s="26">
-        <v>42610</v>
-      </c>
-      <c r="CD332" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="333" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY333" s="23">
-        <v>150</v>
-      </c>
-      <c r="BZ333" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA333" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB333" s="25">
-        <v>1841</v>
-      </c>
-      <c r="CC333" s="26">
-        <v>42615</v>
-      </c>
-      <c r="CD333" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="334" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY334" s="23">
-        <v>153</v>
-      </c>
-      <c r="BZ334" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA334" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB334" s="25">
-        <v>5583</v>
-      </c>
-      <c r="CC334" s="26">
-        <v>42621</v>
-      </c>
-      <c r="CD334" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="335" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY335" s="23">
-        <v>156</v>
-      </c>
-      <c r="BZ335" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA335" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB335" s="25">
-        <v>8489</v>
-      </c>
-      <c r="CC335" s="26">
-        <v>42624</v>
-      </c>
-      <c r="CD335" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="336" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY336" s="23">
-        <v>158</v>
-      </c>
-      <c r="BZ336" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA336" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB336" s="25">
-        <v>7880</v>
-      </c>
-      <c r="CC336" s="26">
-        <v>42628</v>
-      </c>
-      <c r="CD336" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="337" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY337" s="23">
-        <v>159</v>
-      </c>
-      <c r="BZ337" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA337" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB337" s="25">
-        <v>3861</v>
-      </c>
-      <c r="CC337" s="26">
-        <v>42631</v>
-      </c>
-      <c r="CD337" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="338" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY338" s="23">
-        <v>161</v>
-      </c>
-      <c r="BZ338" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA338" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB338" s="25">
-        <v>6162</v>
-      </c>
-      <c r="CC338" s="26">
-        <v>42633</v>
-      </c>
-      <c r="CD338" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="339" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY339" s="23">
-        <v>171</v>
-      </c>
-      <c r="BZ339" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA339" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB339" s="25">
-        <v>4603</v>
-      </c>
-      <c r="CC339" s="26">
-        <v>42653</v>
-      </c>
-      <c r="CD339" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="340" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY340" s="23">
-        <v>179</v>
-      </c>
-      <c r="BZ340" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA340" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB340" s="25">
-        <v>5818</v>
-      </c>
-      <c r="CC340" s="26">
-        <v>42676</v>
-      </c>
-      <c r="CD340" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="341" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY341" s="23">
-        <v>181</v>
-      </c>
-      <c r="BZ341" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA341" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB341" s="25">
-        <v>3011</v>
-      </c>
-      <c r="CC341" s="26">
-        <v>42677</v>
-      </c>
-      <c r="CD341" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="342" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY342" s="23">
+    </row>
+    <row r="357" spans="77:82" x14ac:dyDescent="0.3">
+      <c r="CB357" s="17">
+        <f>SUBTOTAL(9,CB131:CB355)</f>
+        <v>1029734</v>
+      </c>
+      <c r="CC357" s="1"/>
+      <c r="CD357" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="BZ342" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA342" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB342" s="25">
-        <v>8894</v>
-      </c>
-      <c r="CC342" s="26">
-        <v>42689</v>
-      </c>
-      <c r="CD342" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="343" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY343" s="23">
-        <v>191</v>
-      </c>
-      <c r="BZ343" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA343" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB343" s="25">
-        <v>7223</v>
-      </c>
-      <c r="CC343" s="26">
-        <v>42704</v>
-      </c>
-      <c r="CD343" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="344" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY344" s="23">
-        <v>192</v>
-      </c>
-      <c r="BZ344" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA344" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB344" s="25">
-        <v>4673</v>
-      </c>
-      <c r="CC344" s="26">
-        <v>42706</v>
-      </c>
-      <c r="CD344" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="345" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY345" s="23">
-        <v>194</v>
-      </c>
-      <c r="BZ345" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA345" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB345" s="25">
-        <v>6078</v>
-      </c>
-      <c r="CC345" s="26">
-        <v>42709</v>
-      </c>
-      <c r="CD345" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="346" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY346" s="23">
-        <v>198</v>
-      </c>
-      <c r="BZ346" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA346" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB346" s="25">
-        <v>2382</v>
-      </c>
-      <c r="CC346" s="26">
-        <v>42716</v>
-      </c>
-      <c r="CD346" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="347" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY347" s="23">
-        <v>200</v>
-      </c>
-      <c r="BZ347" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA347" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB347" s="25">
-        <v>5021</v>
-      </c>
-      <c r="CC347" s="26">
-        <v>42720</v>
-      </c>
-      <c r="CD347" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="348" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY348" s="23">
-        <v>208</v>
-      </c>
-      <c r="BZ348" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA348" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB348" s="25">
-        <v>9127</v>
-      </c>
-      <c r="CC348" s="26">
-        <v>42729</v>
-      </c>
-      <c r="CD348" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="349" spans="77:82" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="BY349" s="23">
-        <v>211</v>
-      </c>
-      <c r="BZ349" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA349" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB349" s="25">
-        <v>958</v>
-      </c>
-      <c r="CC349" s="26">
-        <v>42733</v>
-      </c>
-      <c r="CD349" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="350" spans="77:82" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="CB350" s="25">
-        <f>SUBTOTAL(9,CB293:CB349)</f>
-        <v>267133</v>
-      </c>
-      <c r="CC350" s="26"/>
-      <c r="CD350" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="351" spans="77:82" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="CB351" s="25">
-        <f>SUBTOTAL(9,CB131:CB349)</f>
-        <v>1029734</v>
-      </c>
-      <c r="CC351" s="26"/>
-      <c r="CD351" s="24" t="s">
-        <v>184</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="BY130:CD351" xr:uid="{88E2E933-79A5-4E9B-947F-EEA4A711ECAA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BY131:CD349">
-    <sortCondition ref="BY130:BY349"/>
+  <autoFilter ref="BY130:CD357" xr:uid="{88E2E933-79A5-4E9B-947F-EEA4A711ECAA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BY183:CD211">
+    <sortCondition ref="CA183:CA211"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="AV88:BL89"/>

--- a/ExcelSheet/Book1.xlsx
+++ b/ExcelSheet/Book1.xlsx
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E2E933-79A5-4E9B-947F-EEA4A711ECAA}">
   <dimension ref="A1:CD357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ175" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CG136" sqref="CG136"/>
+    <sheetView tabSelected="1" topLeftCell="BN180" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CD142" sqref="CD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="AM54" s="1">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="AN54" t="s">
         <v>86</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="AM55" s="7">
         <f ca="1">NOW()</f>
-        <v>45329.489599421293</v>
+        <v>45332.115198148145</v>
       </c>
       <c r="AN55" t="s">
         <v>87</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="AM56">
         <f ca="1">DAY(AM54)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AN56" t="s">
         <v>20</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AM59" s="1">
         <f ca="1">DATE(AM58,AM57,AM56)</f>
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="AN59" t="s">
         <v>22</v>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="AN62" s="1">
         <f ca="1">AM54+AO62</f>
-        <v>45336</v>
+        <v>45339</v>
       </c>
       <c r="AO62">
         <v>7</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="AN63" s="1">
         <f ca="1">AM54-AO63</f>
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="AO63">
         <v>7</v>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="AN66" s="1">
         <f ca="1">EDATE(AM54,AO66)</f>
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="AO66">
         <v>7</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="AN67" s="1">
         <f ca="1">EDATE(AM54,AO67)</f>
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="AO67">
         <v>-7</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="AU69" s="1">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="AX69" t="s">
         <v>123</v>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="AN70" s="1">
         <f ca="1">EDATE(AM54,72)</f>
-        <v>47521</v>
+        <v>47524</v>
       </c>
       <c r="AO70">
         <v>7</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AN71" s="1">
         <f ca="1">EDATE(AM54,-72)</f>
-        <v>43138</v>
+        <v>43141</v>
       </c>
       <c r="AO71">
         <v>-7</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="AU73">
         <f ca="1">DATEDIF(AT69,AU69,"d")</f>
-        <v>7176</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.3">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="AU77">
         <f ca="1">DATEDIF(AT69,AU69,"md")</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.3">
